--- a/result/NCDC_weather_data/stations_imputed/52836099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/52836099999.xlsx
@@ -581,7 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
-      <c r="R2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>0.04771935742971888</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -639,7 +641,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
-      <c r="R3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>0.04771935742971888</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -697,7 +701,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>0.04771935742971888</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -755,7 +761,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
-      <c r="R5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>0.04771935742971888</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -813,7 +821,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0.04771935742971888</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -871,7 +881,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>0.04771935742971888</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -929,7 +941,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
-      <c r="R8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0.04771935742971888</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -987,7 +1001,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
-      <c r="R9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>0.04771935742971888</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1045,7 +1061,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
-      <c r="R10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>0.04771935742971888</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1103,7 +1121,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
-      <c r="R11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>0.04771935742971888</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1161,7 +1181,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
-      <c r="R12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>0.04771935742971888</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1219,7 +1241,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
-      <c r="R13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>0.04771935742971888</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1277,7 +1301,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>0.04771935742971888</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1335,7 +1361,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>0.04771935742971888</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1393,7 +1421,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
-      <c r="R16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>0.04771935742971888</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1451,7 +1481,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
-      <c r="R17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>0.04771935742971888</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1509,7 +1541,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
-      <c r="R18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0.04771935742971888</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1567,7 +1601,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
-      <c r="R19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>0.04771935742971888</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1625,7 +1661,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
-      <c r="R20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>0.04771935742971888</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1683,7 +1721,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
-      <c r="R21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>0.04771935742971888</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1741,7 +1781,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
-      <c r="R22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>0.04771935742971888</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1799,7 +1841,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
-      <c r="R23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>0.04771935742971888</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1857,7 +1901,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
-      <c r="R24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>0.04771935742971888</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1915,7 +1961,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
-      <c r="R25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>0.04771935742971888</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1973,7 +2021,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
-      <c r="R26" t="inlineStr"/>
+      <c r="R26" t="n">
+        <v>0.04771935742971888</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2031,7 +2081,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
-      <c r="R27" t="inlineStr"/>
+      <c r="R27" t="n">
+        <v>0.04771935742971888</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2089,7 +2141,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
-      <c r="R28" t="inlineStr"/>
+      <c r="R28" t="n">
+        <v>0.04771935742971888</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2147,7 +2201,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
-      <c r="R29" t="inlineStr"/>
+      <c r="R29" t="n">
+        <v>0.04771935742971888</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2205,7 +2261,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
-      <c r="R30" t="inlineStr"/>
+      <c r="R30" t="n">
+        <v>0.04771935742971888</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2263,7 +2321,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
-      <c r="R31" t="inlineStr"/>
+      <c r="R31" t="n">
+        <v>0.04771935742971888</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2321,7 +2381,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="n">
+        <v>0.04771935742971888</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2379,7 +2441,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
-      <c r="R33" t="inlineStr"/>
+      <c r="R33" t="n">
+        <v>0.04771935742971888</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2437,7 +2501,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="n">
+        <v>0.04771935742971888</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2495,7 +2561,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="n">
+        <v>0.04771935742971888</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2553,7 +2621,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
-      <c r="R36" t="inlineStr"/>
+      <c r="R36" t="n">
+        <v>0.04771935742971888</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2611,7 +2681,9 @@
       <c r="Q37" t="n">
         <v>0.003556</v>
       </c>
-      <c r="R37" t="inlineStr"/>
+      <c r="R37" t="n">
+        <v>0.04771935742971888</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">

--- a/result/NCDC_weather_data/stations_imputed/52836099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/52836099999.xlsx
@@ -557,7 +557,7 @@
         <v>-8.777777777777779</v>
       </c>
       <c r="H2" t="n">
-        <v>-16.6</v>
+        <v>-27</v>
       </c>
       <c r="I2" t="n">
         <v>103.13</v>
@@ -590,7 +590,7 @@
         <v>0.04771935742971888</v>
       </c>
       <c r="S2" t="n">
-        <v>53.1558712187897</v>
+        <v>21.37701953482685</v>
       </c>
     </row>
     <row r="3">
@@ -620,7 +620,7 @@
         <v>-5.88888888888889</v>
       </c>
       <c r="H3" t="n">
-        <v>-13.5</v>
+        <v>-25.27777777777778</v>
       </c>
       <c r="I3" t="n">
         <v>102.4</v>
@@ -653,7 +653,7 @@
         <v>0.04771935742971888</v>
       </c>
       <c r="S3" t="n">
-        <v>54.92378333292255</v>
+        <v>20.01123069486473</v>
       </c>
     </row>
     <row r="4">
@@ -683,7 +683,7 @@
         <v>-9.333333333333334</v>
       </c>
       <c r="H4" t="n">
-        <v>-7.6</v>
+        <v>-22</v>
       </c>
       <c r="I4" t="n">
         <v>102.93</v>
@@ -716,7 +716,7 @@
         <v>0.04771935742971888</v>
       </c>
       <c r="S4" t="n">
-        <v>114.4547750135325</v>
+        <v>34.96756870353031</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         <v>-6.555555555555556</v>
       </c>
       <c r="H5" t="n">
-        <v>-11.9</v>
+        <v>-24.38888888888889</v>
       </c>
       <c r="I5" t="n">
         <v>102.32</v>
@@ -779,7 +779,7 @@
         <v>0.04771935742971888</v>
       </c>
       <c r="S5" t="n">
-        <v>65.76794642588715</v>
+        <v>22.81068666921722</v>
       </c>
     </row>
     <row r="6">
@@ -809,7 +809,7 @@
         <v>-4.444444444444445</v>
       </c>
       <c r="H6" t="n">
-        <v>-5.9</v>
+        <v>-21.05555555555556</v>
       </c>
       <c r="I6" t="n">
         <v>102.03</v>
@@ -842,7 +842,7 @@
         <v>0.04771935742971888</v>
       </c>
       <c r="S6" t="n">
-        <v>89.56010131699836</v>
+        <v>26.07886550325819</v>
       </c>
     </row>
     <row r="7">
@@ -872,7 +872,7 @@
         <v>-2.333333333333333</v>
       </c>
       <c r="H7" t="n">
-        <v>-2.9</v>
+        <v>-19.38888888888889</v>
       </c>
       <c r="I7" t="n">
         <v>101.83</v>
@@ -905,7 +905,7 @@
         <v>0.04771935742971888</v>
       </c>
       <c r="S7" t="n">
-        <v>95.8851138675422</v>
+        <v>25.72381864835675</v>
       </c>
     </row>
     <row r="8">
@@ -935,7 +935,7 @@
         <v>-7.055555555555555</v>
       </c>
       <c r="H8" t="n">
-        <v>4.9</v>
+        <v>-15.05555555555556</v>
       </c>
       <c r="I8" t="n">
         <v>102.82</v>
@@ -968,7 +968,7 @@
         <v>0.04771935742971888</v>
       </c>
       <c r="S8" t="n">
-        <v>240.0890205758938</v>
+        <v>52.87398631662057</v>
       </c>
     </row>
     <row r="9">
@@ -998,7 +998,7 @@
         <v>-4.500000000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>1.3</v>
+        <v>-17.05555555555556</v>
       </c>
       <c r="I9" t="n">
         <v>102.48</v>
@@ -1031,7 +1031,7 @@
         <v>0.04771935742971888</v>
       </c>
       <c r="S9" t="n">
-        <v>153.193942249398</v>
+        <v>36.85470383032058</v>
       </c>
     </row>
     <row r="10">
@@ -1061,7 +1061,7 @@
         <v>-6.000000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>-6.3</v>
+        <v>-21.27777777777778</v>
       </c>
       <c r="I10" t="n">
         <v>102.31</v>
@@ -1094,7 +1094,7 @@
         <v>0.04771935742971888</v>
       </c>
       <c r="S10" t="n">
-        <v>97.73476889552892</v>
+        <v>28.77962541717855</v>
       </c>
     </row>
     <row r="11">
@@ -1124,7 +1124,7 @@
         <v>-7.166666666666666</v>
       </c>
       <c r="H11" t="n">
-        <v>-10.8</v>
+        <v>-23.77777777777778</v>
       </c>
       <c r="I11" t="n">
         <v>102.57</v>
@@ -1157,7 +1157,7 @@
         <v>0.04771935742971888</v>
       </c>
       <c r="S11" t="n">
-        <v>75.256915642179</v>
+        <v>25.24934130263036</v>
       </c>
     </row>
     <row r="12">
@@ -1187,7 +1187,7 @@
         <v>-6.888888888888888</v>
       </c>
       <c r="H12" t="n">
-        <v>-8</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="I12" t="n">
         <v>102.23</v>
@@ -1220,7 +1220,7 @@
         <v>0.04771935742971888</v>
       </c>
       <c r="S12" t="n">
-        <v>91.77814542902156</v>
+        <v>28.3630481493171</v>
       </c>
     </row>
     <row r="13">
@@ -1250,7 +1250,7 @@
         <v>-10.61111111111111</v>
       </c>
       <c r="H13" t="n">
-        <v>-4.2</v>
+        <v>-20.11111111111111</v>
       </c>
       <c r="I13" t="n">
         <v>103.01</v>
@@ -1283,7 +1283,7 @@
         <v>0.04771935742971888</v>
       </c>
       <c r="S13" t="n">
-        <v>164.0446171845121</v>
+        <v>45.58071015546738</v>
       </c>
     </row>
     <row r="14">
@@ -1313,7 +1313,7 @@
         <v>-9.888888888888889</v>
       </c>
       <c r="H14" t="n">
-        <v>-8</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="I14" t="n">
         <v>102.61</v>
@@ -1346,7 +1346,7 @@
         <v>0.04771935742971888</v>
       </c>
       <c r="S14" t="n">
-        <v>115.9195462825111</v>
+        <v>35.8236882788241</v>
       </c>
     </row>
     <row r="15">
@@ -1376,7 +1376,7 @@
         <v>-8.222222222222223</v>
       </c>
       <c r="H15" t="n">
-        <v>-13.3</v>
+        <v>-25.16666666666667</v>
       </c>
       <c r="I15" t="n">
         <v>102.65</v>
@@ -1409,7 +1409,7 @@
         <v>0.04771935742971888</v>
       </c>
       <c r="S15" t="n">
-        <v>66.80528431818654</v>
+        <v>24.18930055762687</v>
       </c>
     </row>
     <row r="16">
@@ -1439,7 +1439,7 @@
         <v>-9.611111111111112</v>
       </c>
       <c r="H16" t="n">
-        <v>-10.2</v>
+        <v>-23.44444444444445</v>
       </c>
       <c r="I16" t="n">
         <v>103.29</v>
@@ -1472,7 +1472,7 @@
         <v>0.04771935742971888</v>
       </c>
       <c r="S16" t="n">
-        <v>95.46267015729507</v>
+        <v>31.46064223202758</v>
       </c>
     </row>
     <row r="17">
@@ -1502,7 +1502,7 @@
         <v>-9.166666666666668</v>
       </c>
       <c r="H17" t="n">
-        <v>-19.1</v>
+        <v>-28.38888888888889</v>
       </c>
       <c r="I17" t="n">
         <v>103.78</v>
@@ -1535,7 +1535,7 @@
         <v>0.04771935742971888</v>
       </c>
       <c r="S17" t="n">
-        <v>44.3622585811955</v>
+        <v>19.38347714551881</v>
       </c>
     </row>
     <row r="18">
@@ -1565,7 +1565,7 @@
         <v>-8.611111111111111</v>
       </c>
       <c r="H18" t="n">
-        <v>-28.7</v>
+        <v>-33.72222222222223</v>
       </c>
       <c r="I18" t="n">
         <v>103.35</v>
@@ -1598,7 +1598,7 @@
         <v>0.04771935742971888</v>
       </c>
       <c r="S18" t="n">
-        <v>18.02974662781331</v>
+        <v>11.16148264981019</v>
       </c>
     </row>
     <row r="19">
@@ -1628,7 +1628,7 @@
         <v>-5.833333333333334</v>
       </c>
       <c r="H19" t="n">
-        <v>-27.6</v>
+        <v>-33.11111111111111</v>
       </c>
       <c r="I19" t="n">
         <v>102.64</v>
@@ -1661,7 +1661,7 @@
         <v>0.04771935742971888</v>
       </c>
       <c r="S19" t="n">
-        <v>16.11880700913903</v>
+        <v>9.563484864303277</v>
       </c>
     </row>
     <row r="20">
@@ -1691,7 +1691,7 @@
         <v>-6.222222222222222</v>
       </c>
       <c r="H20" t="n">
-        <v>-15.5</v>
+        <v>-26.38888888888889</v>
       </c>
       <c r="I20" t="n">
         <v>101.55</v>
@@ -1724,7 +1724,7 @@
         <v>0.04771935742971888</v>
       </c>
       <c r="S20" t="n">
-        <v>47.81249844134285</v>
+        <v>18.5566321413177</v>
       </c>
     </row>
     <row r="21">
@@ -1754,7 +1754,7 @@
         <v>-7.222222222222222</v>
       </c>
       <c r="H21" t="n">
-        <v>-10.1</v>
+        <v>-23.38888888888889</v>
       </c>
       <c r="I21" t="n">
         <v>101.97</v>
@@ -1787,7 +1787,7 @@
         <v>0.04771935742971888</v>
       </c>
       <c r="S21" t="n">
-        <v>79.88938134828803</v>
+        <v>26.25032322826064</v>
       </c>
     </row>
     <row r="22">
@@ -1817,7 +1817,7 @@
         <v>-4.277777777777778</v>
       </c>
       <c r="H22" t="n">
-        <v>-12.2</v>
+        <v>-24.55555555555556</v>
       </c>
       <c r="I22" t="n">
         <v>100.97</v>
@@ -1850,7 +1850,7 @@
         <v>0.04771935742971888</v>
       </c>
       <c r="S22" t="n">
-        <v>54.00816252651268</v>
+        <v>18.90411304746128</v>
       </c>
     </row>
     <row r="23">
@@ -1880,7 +1880,7 @@
         <v>-9.388888888888889</v>
       </c>
       <c r="H23" t="n">
-        <v>-8.4</v>
+        <v>-22.44444444444445</v>
       </c>
       <c r="I23" t="n">
         <v>102.03</v>
@@ -1913,7 +1913,7 @@
         <v>0.04771935742971888</v>
       </c>
       <c r="S23" t="n">
-        <v>108.0371688017761</v>
+        <v>33.77517995184023</v>
       </c>
     </row>
     <row r="24">
@@ -1943,7 +1943,7 @@
         <v>-8.944444444444446</v>
       </c>
       <c r="H24" t="n">
-        <v>-9.1</v>
+        <v>-22.83333333333334</v>
       </c>
       <c r="I24" t="n">
         <v>102.3</v>
@@ -1976,7 +1976,7 @@
         <v>0.04771935742971888</v>
       </c>
       <c r="S24" t="n">
-        <v>98.79002349848011</v>
+        <v>31.51927966788666</v>
       </c>
     </row>
     <row r="25">
@@ -2006,7 +2006,7 @@
         <v>-7.555555555555556</v>
       </c>
       <c r="H25" t="n">
-        <v>-19.3</v>
+        <v>-28.5</v>
       </c>
       <c r="I25" t="n">
         <v>101.97</v>
@@ -2039,7 +2039,7 @@
         <v>0.04771935742971888</v>
       </c>
       <c r="S25" t="n">
-        <v>38.47112296980941</v>
+        <v>16.92356918149299</v>
       </c>
     </row>
     <row r="26">
@@ -2069,7 +2069,7 @@
         <v>-10</v>
       </c>
       <c r="H26" t="n">
-        <v>-12.6</v>
+        <v>-24.77777777777778</v>
       </c>
       <c r="I26" t="n">
         <v>101.99</v>
@@ -2102,7 +2102,7 @@
         <v>0.04771935742971888</v>
       </c>
       <c r="S26" t="n">
-        <v>81.26210284217005</v>
+        <v>28.79446221744287</v>
       </c>
     </row>
     <row r="27">
@@ -2132,7 +2132,7 @@
         <v>-11</v>
       </c>
       <c r="H27" t="n">
-        <v>-11</v>
+        <v>-23.88888888888889</v>
       </c>
       <c r="I27" t="n">
         <v>102.39</v>
@@ -2165,7 +2165,7 @@
         <v>0.04771935742971888</v>
       </c>
       <c r="S27" t="n">
-        <v>100</v>
+        <v>33.75269938693268</v>
       </c>
     </row>
     <row r="28">
@@ -2195,7 +2195,7 @@
         <v>-12.05555555555556</v>
       </c>
       <c r="H28" t="n">
-        <v>-15.5</v>
+        <v>-26.38888888888889</v>
       </c>
       <c r="I28" t="n">
         <v>103.24</v>
@@ -2228,7 +2228,7 @@
         <v>0.04771935742971888</v>
       </c>
       <c r="S28" t="n">
-        <v>75.51422507720537</v>
+        <v>29.308020745109</v>
       </c>
     </row>
     <row r="29">
@@ -2258,7 +2258,7 @@
         <v>-11.88888888888889</v>
       </c>
       <c r="H29" t="n">
-        <v>-16.9</v>
+        <v>-27.16666666666667</v>
       </c>
       <c r="I29" t="n">
         <v>102.95</v>
@@ -2291,7 +2291,7 @@
         <v>0.04771935742971888</v>
       </c>
       <c r="S29" t="n">
-        <v>66.31071119323403</v>
+        <v>26.92980092793779</v>
       </c>
     </row>
     <row r="30">
@@ -2321,7 +2321,7 @@
         <v>-8.722222222222221</v>
       </c>
       <c r="H30" t="n">
-        <v>-22.6</v>
+        <v>-30.33333333333334</v>
       </c>
       <c r="I30" t="n">
         <v>102.35</v>
@@ -2354,7 +2354,7 @@
         <v>0.04771935742971888</v>
       </c>
       <c r="S30" t="n">
-        <v>31.62134751001951</v>
+        <v>15.59905468754078</v>
       </c>
     </row>
     <row r="31">
@@ -2384,7 +2384,7 @@
         <v>-11.16666666666667</v>
       </c>
       <c r="H31" t="n">
-        <v>-25.2</v>
+        <v>-31.77777777777778</v>
       </c>
       <c r="I31" t="n">
         <v>102.56</v>
@@ -2417,7 +2417,7 @@
         <v>0.04771935742971888</v>
       </c>
       <c r="S31" t="n">
-        <v>30.40677766806518</v>
+        <v>16.48288961551333</v>
       </c>
     </row>
     <row r="32">
@@ -2447,7 +2447,7 @@
         <v>-11</v>
       </c>
       <c r="H32" t="n">
-        <v>-19.4</v>
+        <v>-28.55555555555556</v>
       </c>
       <c r="I32" t="n">
         <v>102.53</v>
@@ -2480,7 +2480,7 @@
         <v>0.04771935742971888</v>
       </c>
       <c r="S32" t="n">
-        <v>49.9740993398278</v>
+        <v>22.05844201177107</v>
       </c>
     </row>
     <row r="33">
@@ -2510,7 +2510,7 @@
         <v>-12.22222222222222</v>
       </c>
       <c r="H33" t="n">
-        <v>-13</v>
+        <v>-25</v>
       </c>
       <c r="I33" t="n">
         <v>103.11</v>
@@ -2543,7 +2543,7 @@
         <v>0.04771935742971888</v>
       </c>
       <c r="S33" t="n">
-        <v>93.91548291432045</v>
+        <v>33.69093457854262</v>
       </c>
     </row>
     <row r="34">
@@ -2573,7 +2573,7 @@
         <v>-10.55555555555556</v>
       </c>
       <c r="H34" t="n">
-        <v>-17.9</v>
+        <v>-27.72222222222222</v>
       </c>
       <c r="I34" t="n">
         <v>102.76</v>
@@ -2606,7 +2606,7 @@
         <v>0.04771935742971888</v>
       </c>
       <c r="S34" t="n">
-        <v>54.8089683272172</v>
+        <v>23.00460611272597</v>
       </c>
     </row>
     <row r="35">
@@ -2636,7 +2636,7 @@
         <v>-10.22222222222222</v>
       </c>
       <c r="H35" t="n">
-        <v>-18.6</v>
+        <v>-28.11111111111111</v>
       </c>
       <c r="I35" t="n">
         <v>102.72</v>
@@ -2669,7 +2669,7 @@
         <v>0.04771935742971888</v>
       </c>
       <c r="S35" t="n">
-        <v>50.30474119268619</v>
+        <v>21.61308913577193</v>
       </c>
     </row>
     <row r="36">
@@ -2699,7 +2699,7 @@
         <v>-7.777777777777779</v>
       </c>
       <c r="H36" t="n">
-        <v>-15.4</v>
+        <v>-26.33333333333333</v>
       </c>
       <c r="I36" t="n">
         <v>102.08</v>
@@ -2732,7 +2732,7 @@
         <v>0.04771935742971888</v>
       </c>
       <c r="S36" t="n">
-        <v>54.33802704791876</v>
+        <v>21.02182111555489</v>
       </c>
     </row>
     <row r="37">
@@ -2762,7 +2762,7 @@
         <v>-11.38888888888889</v>
       </c>
       <c r="H37" t="n">
-        <v>5.5</v>
+        <v>-14.72222222222222</v>
       </c>
       <c r="I37" t="n">
         <v>102.38</v>
@@ -2795,7 +2795,7 @@
         <v>0.04771935742971888</v>
       </c>
       <c r="S37" t="n">
-        <v>351.5940120820599</v>
+        <v>76.33126979086803</v>
       </c>
     </row>
     <row r="38">
@@ -2825,7 +2825,7 @@
         <v>-13.05555555555556</v>
       </c>
       <c r="H38" t="n">
-        <v>-5.1</v>
+        <v>-20.61111111111111</v>
       </c>
       <c r="I38" t="n">
         <v>102.49</v>
@@ -2858,7 +2858,7 @@
         <v>0.03048</v>
       </c>
       <c r="S38" t="n">
-        <v>186.4634873857174</v>
+        <v>53.10401108638332</v>
       </c>
     </row>
     <row r="39">
@@ -2888,7 +2888,7 @@
         <v>-8.944444444444446</v>
       </c>
       <c r="H39" t="n">
-        <v>-2.9</v>
+        <v>-19.38888888888889</v>
       </c>
       <c r="I39" t="n">
         <v>102.32</v>
@@ -2921,7 +2921,7 @@
         <v>0.03048</v>
       </c>
       <c r="S39" t="n">
-        <v>158.5405823087756</v>
+        <v>42.53287109143586</v>
       </c>
     </row>
     <row r="40">
@@ -2951,7 +2951,7 @@
         <v>-12</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5</v>
+        <v>-17.5</v>
       </c>
       <c r="I40" t="n">
         <v>102.87</v>
@@ -2984,7 +2984,7 @@
         <v>0.03048</v>
       </c>
       <c r="S40" t="n">
-        <v>259.1271135522508</v>
+        <v>63.61552208039998</v>
       </c>
     </row>
     <row r="41">
@@ -3014,7 +3014,7 @@
         <v>-9.166666666666668</v>
       </c>
       <c r="H41" t="n">
-        <v>-2</v>
+        <v>-18.88888888888889</v>
       </c>
       <c r="I41" t="n">
         <v>101.98</v>
@@ -3047,7 +3047,7 @@
         <v>0.03048</v>
       </c>
       <c r="S41" t="n">
-        <v>172.4402842845882</v>
+        <v>45.16898332345396</v>
       </c>
     </row>
     <row r="42">
@@ -3077,7 +3077,7 @@
         <v>-9.277777777777779</v>
       </c>
       <c r="H42" t="n">
-        <v>3.5</v>
+        <v>-15.83333333333333</v>
       </c>
       <c r="I42" t="n">
         <v>102.3</v>
@@ -3110,7 +3110,7 @@
         <v>0.03048</v>
       </c>
       <c r="S42" t="n">
-        <v>258.6514162449056</v>
+        <v>58.92212843783536</v>
       </c>
     </row>
     <row r="43">
@@ -3140,7 +3140,7 @@
         <v>-9.111111111111111</v>
       </c>
       <c r="H43" t="n">
-        <v>2.3</v>
+        <v>-16.5</v>
       </c>
       <c r="I43" t="n">
         <v>102.49</v>
@@ -3173,7 +3173,7 @@
         <v>0.03048</v>
       </c>
       <c r="S43" t="n">
-        <v>234.4813638954658</v>
+        <v>55.01748874675852</v>
       </c>
     </row>
     <row r="44">
@@ -3203,7 +3203,7 @@
         <v>-9</v>
       </c>
       <c r="H44" t="n">
-        <v>-6.7</v>
+        <v>-21.5</v>
       </c>
       <c r="I44" t="n">
         <v>102.56</v>
@@ -3236,7 +3236,7 @@
         <v>0.04064</v>
       </c>
       <c r="S44" t="n">
-        <v>119.5079564099347</v>
+        <v>35.58957342020598</v>
       </c>
     </row>
     <row r="45">
@@ -3266,7 +3266,7 @@
         <v>-9</v>
       </c>
       <c r="H45" t="n">
-        <v>-6.8</v>
+        <v>-21.55555555555555</v>
       </c>
       <c r="I45" t="n">
         <v>102.54</v>
@@ -3299,7 +3299,7 @@
         <v>0.03989658536585366</v>
       </c>
       <c r="S45" t="n">
-        <v>118.594081941836</v>
+        <v>35.41733283178359</v>
       </c>
     </row>
     <row r="46">
@@ -3329,7 +3329,7 @@
         <v>-8.888888888888889</v>
       </c>
       <c r="H46" t="n">
-        <v>-3.9</v>
+        <v>-19.94444444444444</v>
       </c>
       <c r="I46" t="n">
         <v>102.84</v>
@@ -3362,7 +3362,7 @@
         <v>0.03915317073170732</v>
       </c>
       <c r="S46" t="n">
-        <v>146.5006697181531</v>
+        <v>40.37548949057664</v>
       </c>
     </row>
     <row r="47">
@@ -3392,7 +3392,7 @@
         <v>-5</v>
       </c>
       <c r="H47" t="n">
-        <v>-2.5</v>
+        <v>-19.16666666666667</v>
       </c>
       <c r="I47" t="n">
         <v>101.61</v>
@@ -3425,7 +3425,7 @@
         <v>0.03840975609756098</v>
       </c>
       <c r="S47" t="n">
-        <v>120.5797889022784</v>
+        <v>32.0057330255396</v>
       </c>
     </row>
     <row r="48">
@@ -3455,7 +3455,7 @@
         <v>-8.166666666666666</v>
       </c>
       <c r="H48" t="n">
-        <v>1.1</v>
+        <v>-17.16666666666667</v>
       </c>
       <c r="I48" t="n">
         <v>101.72</v>
@@ -3488,7 +3488,7 @@
         <v>0.03766634146341464</v>
       </c>
       <c r="S48" t="n">
-        <v>199.9022843100326</v>
+        <v>48.33474632533043</v>
       </c>
     </row>
     <row r="49">
@@ -3518,7 +3518,7 @@
         <v>-6.833333333333334</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.9</v>
+        <v>-18.27777777777778</v>
       </c>
       <c r="I49" t="n">
         <v>101.74</v>
@@ -3551,7 +3551,7 @@
         <v>0.03692292682926829</v>
       </c>
       <c r="S49" t="n">
-        <v>155.9925075057128</v>
+        <v>39.70042158288053</v>
       </c>
     </row>
     <row r="50">
@@ -3581,7 +3581,7 @@
         <v>-11.16666666666667</v>
       </c>
       <c r="H50" t="n">
-        <v>-4</v>
+        <v>-20</v>
       </c>
       <c r="I50" t="n">
         <v>103.18</v>
@@ -3614,7 +3614,7 @@
         <v>0.03617951219512196</v>
       </c>
       <c r="S50" t="n">
-        <v>174.0479489142466</v>
+        <v>48.09785582045987</v>
       </c>
     </row>
     <row r="51">
@@ -3644,7 +3644,7 @@
         <v>-12.16666666666667</v>
       </c>
       <c r="H51" t="n">
-        <v>-10.2</v>
+        <v>-23.44444444444445</v>
       </c>
       <c r="I51" t="n">
         <v>103.42</v>
@@ -3677,7 +3677,7 @@
         <v>0.03543609756097561</v>
       </c>
       <c r="S51" t="n">
-        <v>116.9747811087289</v>
+        <v>38.55016555233274</v>
       </c>
     </row>
     <row r="52">
@@ -3707,7 +3707,7 @@
         <v>-11.55555555555556</v>
       </c>
       <c r="H52" t="n">
-        <v>-12.9</v>
+        <v>-24.94444444444445</v>
       </c>
       <c r="I52" t="n">
         <v>103.04</v>
@@ -3740,7 +3740,7 @@
         <v>0.03469268292682927</v>
       </c>
       <c r="S52" t="n">
-        <v>89.74910459934439</v>
+        <v>32.09699236709962</v>
       </c>
     </row>
     <row r="53">
@@ -3770,7 +3770,7 @@
         <v>-12.16666666666667</v>
       </c>
       <c r="H53" t="n">
-        <v>-6.5</v>
+        <v>-21.38888888888889</v>
       </c>
       <c r="I53" t="n">
         <v>103.53</v>
@@ -3803,7 +3803,7 @@
         <v>0.03394926829268293</v>
       </c>
       <c r="S53" t="n">
-        <v>156.003727938409</v>
+        <v>46.19686150659957</v>
       </c>
     </row>
     <row r="54">
@@ -3833,7 +3833,7 @@
         <v>-12</v>
       </c>
       <c r="H54" t="n">
-        <v>-15.9</v>
+        <v>-26.61111111111111</v>
       </c>
       <c r="I54" t="n">
         <v>103.44</v>
@@ -3866,7 +3866,7 @@
         <v>0.03320585365853659</v>
       </c>
       <c r="S54" t="n">
-        <v>72.72564470769652</v>
+        <v>28.59108209292491</v>
       </c>
     </row>
     <row r="55">
@@ -3896,7 +3896,7 @@
         <v>-9.833333333333334</v>
       </c>
       <c r="H55" t="n">
-        <v>-22</v>
+        <v>-30</v>
       </c>
       <c r="I55" t="n">
         <v>103.3</v>
@@ -3929,7 +3929,7 @@
         <v>0.03246243902439025</v>
       </c>
       <c r="S55" t="n">
-        <v>36.36978411162969</v>
+        <v>17.56429594133115</v>
       </c>
     </row>
     <row r="56">
@@ -3959,7 +3959,7 @@
         <v>-7.444444444444444</v>
       </c>
       <c r="H56" t="n">
-        <v>-19</v>
+        <v>-28.33333333333334</v>
       </c>
       <c r="I56" t="n">
         <v>102.83</v>
@@ -3992,7 +3992,7 @@
         <v>0.03171902439024391</v>
       </c>
       <c r="S56" t="n">
-        <v>39.13313070170368</v>
+        <v>17.04104901426046</v>
       </c>
     </row>
     <row r="57">
@@ -4022,7 +4022,7 @@
         <v>-6.5</v>
       </c>
       <c r="H57" t="n">
-        <v>-17.1</v>
+        <v>-27.27777777777778</v>
       </c>
       <c r="I57" t="n">
         <v>102.9</v>
@@ -4055,7 +4055,7 @@
         <v>0.03097560975609756</v>
       </c>
       <c r="S57" t="n">
-        <v>42.74168676225582</v>
+        <v>17.47218292581631</v>
       </c>
     </row>
     <row r="58">
@@ -4085,7 +4085,7 @@
         <v>-1.777777777777777</v>
       </c>
       <c r="H58" t="n">
-        <v>-6.9</v>
+        <v>-21.61111111111111</v>
       </c>
       <c r="I58" t="n">
         <v>101.57</v>
@@ -4118,7 +4118,7 @@
         <v>0.03023219512195122</v>
       </c>
       <c r="S58" t="n">
-        <v>68.02081448505292</v>
+        <v>20.37151363180793</v>
       </c>
     </row>
     <row r="59">
@@ -4148,7 +4148,7 @@
         <v>-3.777777777777778</v>
       </c>
       <c r="H59" t="n">
-        <v>8.699999999999999</v>
+        <v>-12.94444444444444</v>
       </c>
       <c r="I59" t="n">
         <v>101.8</v>
@@ -4181,7 +4181,7 @@
         <v>0.02948878048780488</v>
       </c>
       <c r="S59" t="n">
-        <v>243.0296156006189</v>
+        <v>48.98708388189094</v>
       </c>
     </row>
     <row r="60">
@@ -4211,7 +4211,7 @@
         <v>-7.000000000000001</v>
       </c>
       <c r="H60" t="n">
-        <v>-6.2</v>
+        <v>-21.22222222222222</v>
       </c>
       <c r="I60" t="n">
         <v>102.84</v>
@@ -4244,7 +4244,7 @@
         <v>0.02874536585365854</v>
       </c>
       <c r="S60" t="n">
-        <v>106.325328045999</v>
+        <v>31.22156574955586</v>
       </c>
     </row>
     <row r="61">
@@ -4274,7 +4274,7 @@
         <v>-4.888888888888889</v>
       </c>
       <c r="H61" t="n">
-        <v>-6.6</v>
+        <v>-21.44444444444445</v>
       </c>
       <c r="I61" t="n">
         <v>102.37</v>
@@ -4307,7 +4307,7 @@
         <v>0.0280019512195122</v>
       </c>
       <c r="S61" t="n">
-        <v>87.78811288334916</v>
+        <v>26.06973181488683</v>
       </c>
     </row>
     <row r="62">
@@ -4337,7 +4337,7 @@
         <v>-1.5</v>
       </c>
       <c r="H62" t="n">
-        <v>-7.5</v>
+        <v>-21.94444444444445</v>
       </c>
       <c r="I62" t="n">
         <v>101.96</v>
@@ -4370,7 +4370,7 @@
         <v>0.02725853658536586</v>
       </c>
       <c r="S62" t="n">
-        <v>63.63402866769305</v>
+        <v>19.38562845806024</v>
       </c>
     </row>
     <row r="63">
@@ -4400,7 +4400,7 @@
         <v>-2.333333333333333</v>
       </c>
       <c r="H63" t="n">
-        <v>-3.2</v>
+        <v>-19.55555555555556</v>
       </c>
       <c r="I63" t="n">
         <v>102.08</v>
@@ -4433,7 +4433,7 @@
         <v>0.02651512195121952</v>
       </c>
       <c r="S63" t="n">
-        <v>93.76812002842378</v>
+        <v>25.35888235952173</v>
       </c>
     </row>
     <row r="64">
@@ -4463,7 +4463,7 @@
         <v>-1.888888888888888</v>
       </c>
       <c r="H64" t="n">
-        <v>-3.3</v>
+        <v>-19.61111111111111</v>
       </c>
       <c r="I64" t="n">
         <v>101.86</v>
@@ -4496,7 +4496,7 @@
         <v>0.02577170731707317</v>
       </c>
       <c r="S64" t="n">
-        <v>90.06684238052708</v>
+        <v>24.42343340442595</v>
       </c>
     </row>
     <row r="65">
@@ -4526,7 +4526,7 @@
         <v>-1.888888888888888</v>
       </c>
       <c r="H65" t="n">
-        <v>-3.6</v>
+        <v>-19.77777777777778</v>
       </c>
       <c r="I65" t="n">
         <v>102.02</v>
@@ -4559,7 +4559,7 @@
         <v>0.02502829268292683</v>
       </c>
       <c r="S65" t="n">
-        <v>88.07174831856781</v>
+        <v>24.07626180132891</v>
       </c>
     </row>
     <row r="66">
@@ -4589,7 +4589,7 @@
         <v>-0.3333333333333341</v>
       </c>
       <c r="H66" t="n">
-        <v>-16</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="I66" t="n">
         <v>102.62</v>
@@ -4622,7 +4622,7 @@
         <v>0.02428487804878049</v>
       </c>
       <c r="S66" t="n">
-        <v>29.56723968978005</v>
+        <v>11.66152123669773</v>
       </c>
     </row>
     <row r="67">
@@ -4652,7 +4652,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="H67" t="n">
-        <v>-6.5</v>
+        <v>-21.38888888888889</v>
       </c>
       <c r="I67" t="n">
         <v>100.74</v>
@@ -4685,7 +4685,7 @@
         <v>0.02354146341463415</v>
       </c>
       <c r="S67" t="n">
-        <v>37.59148183293205</v>
+        <v>11.13183962340591</v>
       </c>
     </row>
     <row r="68">
@@ -4715,7 +4715,7 @@
         <v>6.055555555555555</v>
       </c>
       <c r="H68" t="n">
-        <v>0.2</v>
+        <v>-17.66666666666667</v>
       </c>
       <c r="I68" t="n">
         <v>100.79</v>
@@ -4748,7 +4748,7 @@
         <v>0.02279804878048781</v>
       </c>
       <c r="S68" t="n">
-        <v>66.08241661876208</v>
+        <v>16.34788744001463</v>
       </c>
     </row>
     <row r="69">
@@ -4778,7 +4778,7 @@
         <v>3.888888888888889</v>
       </c>
       <c r="H69" t="n">
-        <v>4.1</v>
+        <v>-15.5</v>
       </c>
       <c r="I69" t="n">
         <v>101.29</v>
@@ -4811,7 +4811,7 @@
         <v>0.02205463414634147</v>
       </c>
       <c r="S69" t="n">
-        <v>101.4939630659673</v>
+        <v>22.78613846459394</v>
       </c>
     </row>
     <row r="70">
@@ -4841,7 +4841,7 @@
         <v>6.111111111111112</v>
       </c>
       <c r="H70" t="n">
-        <v>-7</v>
+        <v>-21.66666666666667</v>
       </c>
       <c r="I70" t="n">
         <v>100.62</v>
@@ -4874,7 +4874,7 @@
         <v>0.02131121951219513</v>
       </c>
       <c r="S70" t="n">
-        <v>38.45780996659996</v>
+        <v>11.55038396810577</v>
       </c>
     </row>
     <row r="71">
@@ -4904,7 +4904,7 @@
         <v>2.333333333333335</v>
       </c>
       <c r="H71" t="n">
-        <v>-6.7</v>
+        <v>-21.5</v>
       </c>
       <c r="I71" t="n">
         <v>101.38</v>
@@ -4937,7 +4937,7 @@
         <v>0.02056780487804879</v>
       </c>
       <c r="S71" t="n">
-        <v>51.29028635555331</v>
+        <v>15.27429191185305</v>
       </c>
     </row>
     <row r="72">
@@ -4967,7 +4967,7 @@
         <v>5.166666666666665</v>
       </c>
       <c r="H72" t="n">
-        <v>-12.3</v>
+        <v>-24.61111111111111</v>
       </c>
       <c r="I72" t="n">
         <v>100.99</v>
@@ -5000,7 +5000,7 @@
         <v>0.01982439024390244</v>
       </c>
       <c r="S72" t="n">
-        <v>27.05781540359733</v>
+        <v>9.499871851278408</v>
       </c>
     </row>
     <row r="73">
@@ -5030,7 +5030,7 @@
         <v>5.944444444444446</v>
       </c>
       <c r="H73" t="n">
-        <v>-5.2</v>
+        <v>-20.66666666666667</v>
       </c>
       <c r="I73" t="n">
         <v>101.33</v>
@@ -5063,7 +5063,7 @@
         <v>0.0190809756097561</v>
       </c>
       <c r="S73" t="n">
-        <v>44.63417847044525</v>
+        <v>12.74676875083856</v>
       </c>
     </row>
     <row r="74">
@@ -5093,7 +5093,7 @@
         <v>6.944444444444445</v>
       </c>
       <c r="H74" t="n">
-        <v>2.3</v>
+        <v>-16.5</v>
       </c>
       <c r="I74" t="n">
         <v>101.08</v>
@@ -5126,7 +5126,7 @@
         <v>0.01833756097560976</v>
       </c>
       <c r="S74" t="n">
-        <v>72.28015701065955</v>
+        <v>16.9594404386045</v>
       </c>
     </row>
     <row r="75">
@@ -5156,7 +5156,7 @@
         <v>8</v>
       </c>
       <c r="H75" t="n">
-        <v>10.8</v>
+        <v>-11.77777777777778</v>
       </c>
       <c r="I75" t="n">
         <v>100.45</v>
@@ -5189,7 +5189,7 @@
         <v>0.01759414634146342</v>
       </c>
       <c r="S75" t="n">
-        <v>120.7278795823713</v>
+        <v>23.21937435637625</v>
       </c>
     </row>
     <row r="76">
@@ -5219,7 +5219,7 @@
         <v>6.111111111111112</v>
       </c>
       <c r="H76" t="n">
-        <v>11.5</v>
+        <v>-11.38888888888889</v>
       </c>
       <c r="I76" t="n">
         <v>100.99</v>
@@ -5252,7 +5252,7 @@
         <v>0.01685073170731708</v>
       </c>
       <c r="S76" t="n">
-        <v>143.9471563593311</v>
+        <v>27.26375502140698</v>
       </c>
     </row>
     <row r="77">
@@ -5282,7 +5282,7 @@
         <v>7.888888888888891</v>
       </c>
       <c r="H77" t="n">
-        <v>7.8</v>
+        <v>-13.44444444444444</v>
       </c>
       <c r="I77" t="n">
         <v>100.77</v>
@@ -5315,7 +5315,7 @@
         <v>0.01610731707317074</v>
       </c>
       <c r="S77" t="n">
-        <v>99.39642606975046</v>
+        <v>20.45095292746958</v>
       </c>
     </row>
     <row r="78">
@@ -5345,7 +5345,7 @@
         <v>7.777777777777779</v>
       </c>
       <c r="H78" t="n">
-        <v>6</v>
+        <v>-14.44444444444444</v>
       </c>
       <c r="I78" t="n">
         <v>100.34</v>
@@ -5378,7 +5378,7 @@
         <v>0.0153639024390244</v>
       </c>
       <c r="S78" t="n">
-        <v>88.51412755064419</v>
+        <v>18.99064707220313</v>
       </c>
     </row>
     <row r="79">
@@ -5408,7 +5408,7 @@
         <v>8.444444444444446</v>
       </c>
       <c r="H79" t="n">
-        <v>1.5</v>
+        <v>-16.94444444444445</v>
       </c>
       <c r="I79" t="n">
         <v>99.69</v>
@@ -5441,7 +5441,7 @@
         <v>0.01462048780487805</v>
       </c>
       <c r="S79" t="n">
-        <v>61.62741938756674</v>
+        <v>14.75166965577097</v>
       </c>
     </row>
     <row r="80">
@@ -5471,7 +5471,7 @@
         <v>6.222222222222224</v>
       </c>
       <c r="H80" t="n">
-        <v>10.8</v>
+        <v>-11.77777777777778</v>
       </c>
       <c r="I80" t="n">
         <v>100.05</v>
@@ -5504,7 +5504,7 @@
         <v>0.01387707317073171</v>
       </c>
       <c r="S80" t="n">
-        <v>136.3644139057285</v>
+        <v>26.22672067394856</v>
       </c>
     </row>
     <row r="81">
@@ -5534,7 +5534,7 @@
         <v>5</v>
       </c>
       <c r="H81" t="n">
-        <v>14</v>
+        <v>-10</v>
       </c>
       <c r="I81" t="n">
         <v>100.74</v>
@@ -5567,7 +5567,7 @@
         <v>0.01313365853658537</v>
       </c>
       <c r="S81" t="n">
-        <v>183.1555910494007</v>
+        <v>32.88089548558206</v>
       </c>
     </row>
     <row r="82">
@@ -5597,7 +5597,7 @@
         <v>3.277777777777777</v>
       </c>
       <c r="H82" t="n">
-        <v>10.3</v>
+        <v>-12.05555555555556</v>
       </c>
       <c r="I82" t="n">
         <v>101.54</v>
@@ -5630,7 +5630,7 @@
         <v>0.01239024390243903</v>
       </c>
       <c r="S82" t="n">
-        <v>161.9966847986094</v>
+        <v>31.50262853059994</v>
       </c>
     </row>
     <row r="83">
@@ -5660,7 +5660,7 @@
         <v>5.777777777777778</v>
       </c>
       <c r="H83" t="n">
-        <v>4.8</v>
+        <v>-15.11111111111111</v>
       </c>
       <c r="I83" t="n">
         <v>100.28</v>
@@ -5693,7 +5693,7 @@
         <v>0.01164682926829269</v>
       </c>
       <c r="S83" t="n">
-        <v>93.42887761447743</v>
+        <v>20.6248505530191</v>
       </c>
     </row>
     <row r="84">
@@ -5723,7 +5723,7 @@
         <v>5</v>
       </c>
       <c r="H84" t="n">
-        <v>6.1</v>
+        <v>-14.38888888888889</v>
       </c>
       <c r="I84" t="n">
         <v>100.16</v>
@@ -5756,7 +5756,7 @@
         <v>0.01090341463414635</v>
       </c>
       <c r="S84" t="n">
-        <v>107.9292509968231</v>
+        <v>23.10169849974066</v>
       </c>
     </row>
     <row r="85">
@@ -5786,7 +5786,7 @@
         <v>0.9444444444444461</v>
       </c>
       <c r="H85" t="n">
-        <v>10.8</v>
+        <v>-11.77777777777778</v>
       </c>
       <c r="I85" t="n">
         <v>101.35</v>
@@ -5819,7 +5819,7 @@
         <v>0.01016</v>
       </c>
       <c r="S85" t="n">
-        <v>197.8157859769826</v>
+        <v>38.04555173245215</v>
       </c>
     </row>
     <row r="86">
@@ -5849,7 +5849,7 @@
         <v>-1.222222222222222</v>
       </c>
       <c r="H86" t="n">
-        <v>10.4</v>
+        <v>-12</v>
       </c>
       <c r="I86" t="n">
         <v>102.33</v>
@@ -5882,7 +5882,7 @@
         <v>0.01016</v>
       </c>
       <c r="S86" t="n">
-        <v>225.4483999305489</v>
+        <v>43.74471329936986</v>
       </c>
     </row>
     <row r="87">
@@ -5912,7 +5912,7 @@
         <v>2.611111111111113</v>
       </c>
       <c r="H87" t="n">
-        <v>0.3</v>
+        <v>-17.61111111111111</v>
       </c>
       <c r="I87" t="n">
         <v>101.39</v>
@@ -5945,7 +5945,7 @@
         <v>0.01016</v>
       </c>
       <c r="S87" t="n">
-        <v>84.72781077249714</v>
+        <v>20.90699595395911</v>
       </c>
     </row>
     <row r="88">
@@ -5975,7 +5975,7 @@
         <v>6.111111111111112</v>
       </c>
       <c r="H88" t="n">
-        <v>-4.8</v>
+        <v>-20.44444444444444</v>
       </c>
       <c r="I88" t="n">
         <v>100.37</v>
@@ -6008,7 +6008,7 @@
         <v>0.01016</v>
       </c>
       <c r="S88" t="n">
-        <v>45.47847941758726</v>
+        <v>12.84554790026714</v>
       </c>
     </row>
     <row r="89">
@@ -6038,7 +6038,7 @@
         <v>3.277777777777777</v>
       </c>
       <c r="H89" t="n">
-        <v>1.4</v>
+        <v>-17</v>
       </c>
       <c r="I89" t="n">
         <v>101.2</v>
@@ -6071,7 +6071,7 @@
         <v>0.01016</v>
       </c>
       <c r="S89" t="n">
-        <v>87.48650125859616</v>
+        <v>20.99421001931245</v>
       </c>
     </row>
     <row r="90">
@@ -6101,7 +6101,7 @@
         <v>0.7222222222222207</v>
       </c>
       <c r="H90" t="n">
-        <v>10.4</v>
+        <v>-12</v>
       </c>
       <c r="I90" t="n">
         <v>102.14</v>
@@ -6134,7 +6134,7 @@
         <v>0.01016</v>
       </c>
       <c r="S90" t="n">
-        <v>195.722312172281</v>
+        <v>37.97683387819002</v>
       </c>
     </row>
     <row r="91">
@@ -6164,7 +6164,7 @@
         <v>-0.6111111111111119</v>
       </c>
       <c r="H91" t="n">
-        <v>1.3</v>
+        <v>-17.05555555555556</v>
       </c>
       <c r="I91" t="n">
         <v>103.24</v>
@@ -6197,7 +6197,7 @@
         <v>0.01016</v>
       </c>
       <c r="S91" t="n">
-        <v>114.8312758271678</v>
+        <v>27.6255875325563</v>
       </c>
     </row>
     <row r="92">
@@ -6227,7 +6227,7 @@
         <v>-0.4999999999999992</v>
       </c>
       <c r="H92" t="n">
-        <v>-1.5</v>
+        <v>-18.61111111111111</v>
       </c>
       <c r="I92" t="n">
         <v>103.14</v>
@@ -6260,7 +6260,7 @@
         <v>0.01016</v>
       </c>
       <c r="S92" t="n">
-        <v>92.94458146327892</v>
+        <v>24.02784791216476</v>
       </c>
     </row>
     <row r="93">
@@ -6290,7 +6290,7 @@
         <v>2.388888888888888</v>
       </c>
       <c r="H93" t="n">
-        <v>-9.6</v>
+        <v>-23.11111111111111</v>
       </c>
       <c r="I93" t="n">
         <v>102.12</v>
@@ -6323,7 +6323,7 @@
         <v>0.01016</v>
       </c>
       <c r="S93" t="n">
-        <v>40.78308863574118</v>
+        <v>13.20418109758358</v>
       </c>
     </row>
     <row r="94">
@@ -6353,7 +6353,7 @@
         <v>3.111111111111112</v>
       </c>
       <c r="H94" t="n">
-        <v>-6.4</v>
+        <v>-21.33333333333333</v>
       </c>
       <c r="I94" t="n">
         <v>101.7</v>
@@ -6386,7 +6386,7 @@
         <v>0.01016</v>
       </c>
       <c r="S94" t="n">
-        <v>49.66457033688987</v>
+        <v>14.6656925937135</v>
       </c>
     </row>
     <row r="95">
@@ -6416,7 +6416,7 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="H95" t="n">
-        <v>1.3</v>
+        <v>-17.05555555555556</v>
       </c>
       <c r="I95" t="n">
         <v>102.72</v>
@@ -6449,7 +6449,7 @@
         <v>0.01016</v>
       </c>
       <c r="S95" t="n">
-        <v>107.6485240080267</v>
+        <v>25.89759367657092</v>
       </c>
     </row>
     <row r="96">
@@ -6479,7 +6479,7 @@
         <v>2.388888888888888</v>
       </c>
       <c r="H96" t="n">
-        <v>-6.5</v>
+        <v>-21.38888888888889</v>
       </c>
       <c r="I96" t="n">
         <v>102.51</v>
@@ -6512,7 +6512,7 @@
         <v>0.01016</v>
       </c>
       <c r="S96" t="n">
-        <v>51.87724494460111</v>
+        <v>15.36223481143897</v>
       </c>
     </row>
     <row r="97">
@@ -6542,7 +6542,7 @@
         <v>2.888888888888891</v>
       </c>
       <c r="H97" t="n">
-        <v>-9.300000000000001</v>
+        <v>-22.94444444444444</v>
       </c>
       <c r="I97" t="n">
         <v>102.65</v>
@@ -6575,7 +6575,7 @@
         <v>0.01016</v>
       </c>
       <c r="S97" t="n">
-        <v>40.29878891776497</v>
+        <v>12.9329306772715</v>
       </c>
     </row>
     <row r="98">
@@ -6605,7 +6605,7 @@
         <v>5.333333333333334</v>
       </c>
       <c r="H98" t="n">
-        <v>-11.8</v>
+        <v>-24.33333333333333</v>
       </c>
       <c r="I98" t="n">
         <v>101.71</v>
@@ -6638,7 +6638,7 @@
         <v>0.01016</v>
       </c>
       <c r="S98" t="n">
-        <v>27.8420195376403</v>
+        <v>9.627296867582388</v>
       </c>
     </row>
     <row r="99">
@@ -6668,7 +6668,7 @@
         <v>3.555555555555555</v>
       </c>
       <c r="H99" t="n">
-        <v>-7.1</v>
+        <v>-21.72222222222222</v>
       </c>
       <c r="I99" t="n">
         <v>101.9</v>
@@ -6701,7 +6701,7 @@
         <v>0.01016</v>
       </c>
       <c r="S99" t="n">
-        <v>45.61198176301732</v>
+        <v>13.73798332073517</v>
       </c>
     </row>
     <row r="100">
@@ -6731,7 +6731,7 @@
         <v>5.833333333333334</v>
       </c>
       <c r="H100" t="n">
-        <v>-12.1</v>
+        <v>-24.5</v>
       </c>
       <c r="I100" t="n">
         <v>101.02</v>
@@ -6764,7 +6764,7 @@
         <v>0.01016</v>
       </c>
       <c r="S100" t="n">
-        <v>26.25342092793411</v>
+        <v>9.161289626112913</v>
       </c>
     </row>
     <row r="101">
@@ -6794,7 +6794,7 @@
         <v>10.16666666666667</v>
       </c>
       <c r="H101" t="n">
-        <v>-2.3</v>
+        <v>-19.05555555555555</v>
       </c>
       <c r="I101" t="n">
         <v>100.56</v>
@@ -6827,7 +6827,7 @@
         <v>0.01016</v>
       </c>
       <c r="S101" t="n">
-        <v>41.61588703437432</v>
+        <v>10.98770064502673</v>
       </c>
     </row>
     <row r="102">
@@ -6857,7 +6857,7 @@
         <v>7.333333333333335</v>
       </c>
       <c r="H102" t="n">
-        <v>12.6</v>
+        <v>-10.77777777777778</v>
       </c>
       <c r="I102" t="n">
         <v>100.97</v>
@@ -6890,7 +6890,7 @@
         <v>0.01016</v>
       </c>
       <c r="S102" t="n">
-        <v>142.298633168031</v>
+        <v>26.31773963268268</v>
       </c>
     </row>
     <row r="103">
@@ -6920,7 +6920,7 @@
         <v>7.666666666666665</v>
       </c>
       <c r="H103" t="n">
-        <v>10.6</v>
+        <v>-11.88888888888889</v>
       </c>
       <c r="I103" t="n">
         <v>100.71</v>
@@ -6953,7 +6953,7 @@
         <v>0.01016</v>
       </c>
       <c r="S103" t="n">
-        <v>121.8665334268111</v>
+        <v>23.54195023776579</v>
       </c>
     </row>
     <row r="104">
@@ -6983,7 +6983,7 @@
         <v>8.555555555555555</v>
       </c>
       <c r="H104" t="n">
-        <v>15.2</v>
+        <v>-9.333333333333334</v>
       </c>
       <c r="I104" t="n">
         <v>100.27</v>
@@ -7016,7 +7016,7 @@
         <v>0.01016</v>
       </c>
       <c r="S104" t="n">
-        <v>155.0273295181532</v>
+        <v>27.14275898186356</v>
       </c>
     </row>
     <row r="105">
@@ -7046,7 +7046,7 @@
         <v>5.722222222222221</v>
       </c>
       <c r="H105" t="n">
-        <v>17.3</v>
+        <v>-8.166666666666666</v>
       </c>
       <c r="I105" t="n">
         <v>100.52</v>
@@ -7079,7 +7079,7 @@
         <v>0.01016</v>
       </c>
       <c r="S105" t="n">
-        <v>215.2046382854454</v>
+        <v>36.09907576560246</v>
       </c>
     </row>
     <row r="106">
@@ -7109,7 +7109,7 @@
         <v>3.833333333333333</v>
       </c>
       <c r="H106" t="n">
-        <v>11.8</v>
+        <v>-11.22222222222222</v>
       </c>
       <c r="I106" t="n">
         <v>100.97</v>
@@ -7142,7 +7142,7 @@
         <v>0.01016</v>
       </c>
       <c r="S106" t="n">
-        <v>172.0901991872237</v>
+        <v>32.38204636593848</v>
       </c>
     </row>
     <row r="107">
@@ -7172,7 +7172,7 @@
         <v>2.611111111111113</v>
       </c>
       <c r="H107" t="n">
-        <v>-1.8</v>
+        <v>-18.77777777777778</v>
       </c>
       <c r="I107" t="n">
         <v>101.51</v>
@@ -7205,7 +7205,7 @@
         <v>0.01016</v>
       </c>
       <c r="S107" t="n">
-        <v>72.68301866372518</v>
+        <v>18.93848951837561</v>
       </c>
     </row>
     <row r="108">
@@ -7235,7 +7235,7 @@
         <v>-1.333333333333333</v>
       </c>
       <c r="H108" t="n">
-        <v>-11.6</v>
+        <v>-24.22222222222222</v>
       </c>
       <c r="I108" t="n">
         <v>102.3</v>
@@ -7268,7 +7268,7 @@
         <v>0.01016</v>
       </c>
       <c r="S108" t="n">
-        <v>45.53938571790828</v>
+        <v>15.65148777932951</v>
       </c>
     </row>
     <row r="109">
@@ -7298,7 +7298,7 @@
         <v>1.555555555555554</v>
       </c>
       <c r="H109" t="n">
-        <v>-8.199999999999999</v>
+        <v>-22.33333333333334</v>
       </c>
       <c r="I109" t="n">
         <v>102.23</v>
@@ -7331,7 +7331,7 @@
         <v>0.01016</v>
       </c>
       <c r="S109" t="n">
-        <v>48.28983285723531</v>
+        <v>15.00967013856653</v>
       </c>
     </row>
     <row r="110">
@@ -7361,7 +7361,7 @@
         <v>0.777777777777777</v>
       </c>
       <c r="H110" t="n">
-        <v>-14.3</v>
+        <v>-25.72222222222222</v>
       </c>
       <c r="I110" t="n">
         <v>102.36</v>
@@ -7394,7 +7394,7 @@
         <v>0.01016</v>
       </c>
       <c r="S110" t="n">
-        <v>31.38912373057077</v>
+        <v>11.72666996062923</v>
       </c>
     </row>
     <row r="111">
@@ -7424,7 +7424,7 @@
         <v>9.055555555555554</v>
       </c>
       <c r="H111" t="n">
-        <v>-13.5</v>
+        <v>-25.27777777777778</v>
       </c>
       <c r="I111" t="n">
         <v>100.3</v>
@@ -7457,7 +7457,7 @@
         <v>0.01016</v>
       </c>
       <c r="S111" t="n">
-        <v>18.81111353196521</v>
+        <v>6.853743673003764</v>
       </c>
     </row>
     <row r="112">
@@ -7487,7 +7487,7 @@
         <v>8.833333333333332</v>
       </c>
       <c r="H112" t="n">
-        <v>-0.7</v>
+        <v>-18.16666666666667</v>
       </c>
       <c r="I112" t="n">
         <v>100.28</v>
@@ -7520,7 +7520,7 @@
         <v>0.01016</v>
       </c>
       <c r="S112" t="n">
-        <v>51.19594410409511</v>
+        <v>12.96203983119283</v>
       </c>
     </row>
     <row r="113">
@@ -7550,7 +7550,7 @@
         <v>9.444444444444445</v>
       </c>
       <c r="H113" t="n">
-        <v>11.5</v>
+        <v>-11.38888888888889</v>
       </c>
       <c r="I113" t="n">
         <v>100.39</v>
@@ -7583,7 +7583,7 @@
         <v>0.01016</v>
       </c>
       <c r="S113" t="n">
-        <v>114.696527054902</v>
+        <v>21.72365258557135</v>
       </c>
     </row>
     <row r="114">
@@ -7613,7 +7613,7 @@
         <v>8.388888888888889</v>
       </c>
       <c r="H114" t="n">
-        <v>21.3</v>
+        <v>-5.944444444444445</v>
       </c>
       <c r="I114" t="n">
         <v>100.48</v>
@@ -7646,7 +7646,7 @@
         <v>0.01016</v>
       </c>
       <c r="S114" t="n">
-        <v>229.9887626981389</v>
+        <v>35.67772622432923</v>
       </c>
     </row>
     <row r="115">
@@ -7676,7 +7676,7 @@
         <v>6.722222222222223</v>
       </c>
       <c r="H115" t="n">
-        <v>16.8</v>
+        <v>-8.444444444444445</v>
       </c>
       <c r="I115" t="n">
         <v>100.75</v>
@@ -7709,7 +7709,7 @@
         <v>0.01016</v>
       </c>
       <c r="S115" t="n">
-        <v>194.591684046596</v>
+        <v>32.9722136259187</v>
       </c>
     </row>
     <row r="116">
@@ -7739,7 +7739,7 @@
         <v>7.222222222222222</v>
       </c>
       <c r="H116" t="n">
-        <v>10.3</v>
+        <v>-12.05555555555556</v>
       </c>
       <c r="I116" t="n">
         <v>100.65</v>
@@ -7772,7 +7772,7 @@
         <v>0.01016</v>
       </c>
       <c r="S116" t="n">
-        <v>123.1345884007609</v>
+        <v>23.94532457549889</v>
       </c>
     </row>
     <row r="117">
@@ -7802,7 +7802,7 @@
         <v>10.77777777777778</v>
       </c>
       <c r="H117" t="n">
-        <v>16.8</v>
+        <v>-8.444444444444445</v>
       </c>
       <c r="I117" t="n">
         <v>100.08</v>
@@ -7835,7 +7835,7 @@
         <v>0.04064</v>
       </c>
       <c r="S117" t="n">
-        <v>147.9168526615619</v>
+        <v>25.06348659618311</v>
       </c>
     </row>
     <row r="118">
@@ -7865,7 +7865,7 @@
         <v>2.944444444444443</v>
       </c>
       <c r="H118" t="n">
-        <v>22.5</v>
+        <v>-5.277777777777778</v>
       </c>
       <c r="I118" t="n">
         <v>101.38</v>
@@ -7898,7 +7898,7 @@
         <v>0.06095999999999999</v>
       </c>
       <c r="S118" t="n">
-        <v>360.9347423857526</v>
+        <v>54.73909129812669</v>
       </c>
     </row>
     <row r="119">
@@ -7928,7 +7928,7 @@
         <v>8.166666666666668</v>
       </c>
       <c r="H119" t="n">
-        <v>21.5</v>
+        <v>-5.833333333333334</v>
       </c>
       <c r="I119" t="n">
         <v>100.77</v>
@@ -7961,7 +7961,7 @@
         <v>0.01016</v>
       </c>
       <c r="S119" t="n">
-        <v>236.3648553811328</v>
+        <v>36.52793034238903</v>
       </c>
     </row>
     <row r="120">
@@ -7991,7 +7991,7 @@
         <v>0.3333333333333341</v>
       </c>
       <c r="H120" t="n">
-        <v>25.2</v>
+        <v>-3.777777777777778</v>
       </c>
       <c r="I120" t="n">
         <v>102.19</v>
@@ -8024,7 +8024,7 @@
         <v>0.01016</v>
       </c>
       <c r="S120" t="n">
-        <v>511.9327925540173</v>
+        <v>73.88820147339152</v>
       </c>
     </row>
     <row r="121">
@@ -8054,7 +8054,7 @@
         <v>-2.611111111111111</v>
       </c>
       <c r="H121" t="n">
-        <v>18.1</v>
+        <v>-7.722222222222221</v>
       </c>
       <c r="I121" t="n">
         <v>103.11</v>
@@ -8087,7 +8087,7 @@
         <v>0.01016</v>
       </c>
       <c r="S121" t="n">
-        <v>411.2840655463024</v>
+        <v>67.89578023340444</v>
       </c>
     </row>
     <row r="122">
@@ -8117,7 +8117,7 @@
         <v>-1.111111111111111</v>
       </c>
       <c r="H122" t="n">
-        <v>15</v>
+        <v>-9.444444444444445</v>
       </c>
       <c r="I122" t="n">
         <v>102.93</v>
@@ -8150,7 +8150,7 @@
         <v>0.01016</v>
       </c>
       <c r="S122" t="n">
-        <v>302.3266301445483</v>
+        <v>53.15234053425403</v>
       </c>
     </row>
     <row r="123">
@@ -8180,7 +8180,7 @@
         <v>2.666666666666665</v>
       </c>
       <c r="H123" t="n">
-        <v>10.5</v>
+        <v>-11.94444444444444</v>
       </c>
       <c r="I123" t="n">
         <v>102.37</v>
@@ -8213,7 +8213,7 @@
         <v>0.01016</v>
       </c>
       <c r="S123" t="n">
-        <v>171.435638666642</v>
+        <v>33.19086970534253</v>
       </c>
     </row>
     <row r="124">
@@ -8243,7 +8243,7 @@
         <v>7.555555555555556</v>
       </c>
       <c r="H124" t="n">
-        <v>8.5</v>
+        <v>-13.05555555555556</v>
       </c>
       <c r="I124" t="n">
         <v>101.53</v>
@@ -8276,7 +8276,7 @@
         <v>0.01016</v>
       </c>
       <c r="S124" t="n">
-        <v>106.6338201053144</v>
+        <v>21.5918518047136</v>
       </c>
     </row>
     <row r="125">
@@ -8306,7 +8306,7 @@
         <v>9.666666666666666</v>
       </c>
       <c r="H125" t="n">
-        <v>12.2</v>
+        <v>-11</v>
       </c>
       <c r="I125" t="n">
         <v>100.57</v>
@@ -8339,7 +8339,7 @@
         <v>0.01016</v>
       </c>
       <c r="S125" t="n">
-        <v>118.3386255992171</v>
+        <v>22.07567466529056</v>
       </c>
     </row>
     <row r="126">
@@ -8369,7 +8369,7 @@
         <v>14.27777777777778</v>
       </c>
       <c r="H126" t="n">
-        <v>12.2</v>
+        <v>-11</v>
       </c>
       <c r="I126" t="n">
         <v>99.88</v>
@@ -8402,7 +8402,7 @@
         <v>0.01016</v>
       </c>
       <c r="S126" t="n">
-        <v>87.31649222267936</v>
+        <v>16.28859947850362</v>
       </c>
     </row>
     <row r="127">
@@ -8432,7 +8432,7 @@
         <v>17</v>
       </c>
       <c r="H127" t="n">
-        <v>11.7</v>
+        <v>-11.27777777777778</v>
       </c>
       <c r="I127" t="n">
         <v>99.23999999999999</v>
@@ -8465,7 +8465,7 @@
         <v>0.07027333333333333</v>
       </c>
       <c r="S127" t="n">
-        <v>70.96220323657518</v>
+        <v>13.38192911764379</v>
       </c>
     </row>
     <row r="128">
@@ -8495,7 +8495,7 @@
         <v>9.27777777777778</v>
       </c>
       <c r="H128" t="n">
-        <v>29.5</v>
+        <v>-1.388888888888889</v>
       </c>
       <c r="I128" t="n">
         <v>100.51</v>
@@ -8528,7 +8528,7 @@
         <v>0.1303866666666667</v>
       </c>
       <c r="S128" t="n">
-        <v>352.8413553477984</v>
+        <v>47.24078592546494</v>
       </c>
     </row>
     <row r="129">
@@ -8558,7 +8558,7 @@
         <v>9.666666666666666</v>
       </c>
       <c r="H129" t="n">
-        <v>22.7</v>
+        <v>-5.166666666666667</v>
       </c>
       <c r="I129" t="n">
         <v>101.03</v>
@@ -8591,7 +8591,7 @@
         <v>0.1905</v>
       </c>
       <c r="S129" t="n">
-        <v>229.8143825741968</v>
+        <v>34.72362754721924</v>
       </c>
     </row>
     <row r="130">
@@ -8621,7 +8621,7 @@
         <v>11.94444444444444</v>
       </c>
       <c r="H130" t="n">
-        <v>19.9</v>
+        <v>-6.722222222222223</v>
       </c>
       <c r="I130" t="n">
         <v>100.5</v>
@@ -8654,7 +8654,7 @@
         <v>0.20066</v>
       </c>
       <c r="S130" t="n">
-        <v>166.3190177125842</v>
+        <v>26.50336406950357</v>
       </c>
     </row>
     <row r="131">
@@ -8684,7 +8684,7 @@
         <v>8.888888888888889</v>
       </c>
       <c r="H131" t="n">
-        <v>23.3</v>
+        <v>-4.833333333333333</v>
       </c>
       <c r="I131" t="n">
         <v>100.74</v>
@@ -8717,7 +8717,7 @@
         <v>0.19558</v>
       </c>
       <c r="S131" t="n">
-        <v>251.1360466505116</v>
+        <v>37.52502164701879</v>
       </c>
     </row>
     <row r="132">
@@ -8747,7 +8747,7 @@
         <v>11.61111111111111</v>
       </c>
       <c r="H132" t="n">
-        <v>13</v>
+        <v>-10.55555555555556</v>
       </c>
       <c r="I132" t="n">
         <v>100.28</v>
@@ -8780,7 +8780,7 @@
         <v>0.1905</v>
       </c>
       <c r="S132" t="n">
-        <v>109.5624240825475</v>
+        <v>20.0905043954934</v>
       </c>
     </row>
     <row r="133">
@@ -8810,7 +8810,7 @@
         <v>11.94444444444444</v>
       </c>
       <c r="H133" t="n">
-        <v>15.5</v>
+        <v>-9.166666666666668</v>
       </c>
       <c r="I133" t="n">
         <v>99.7</v>
@@ -8843,7 +8843,7 @@
         <v>0.1905</v>
       </c>
       <c r="S133" t="n">
-        <v>126.0150770648404</v>
+        <v>21.92690234139455</v>
       </c>
     </row>
     <row r="134">
@@ -8873,7 +8873,7 @@
         <v>10.33333333333333</v>
       </c>
       <c r="H134" t="n">
-        <v>19.2</v>
+        <v>-7.111111111111112</v>
       </c>
       <c r="I134" t="n">
         <v>100.03</v>
@@ -8906,7 +8906,7 @@
         <v>0.19558</v>
       </c>
       <c r="S134" t="n">
-        <v>177.2019850364566</v>
+        <v>28.62517141841127</v>
       </c>
     </row>
     <row r="135">
@@ -8936,7 +8936,7 @@
         <v>9.222222222222223</v>
       </c>
       <c r="H135" t="n">
-        <v>16.6</v>
+        <v>-8.555555555555555</v>
       </c>
       <c r="I135" t="n">
         <v>100.88</v>
@@ -8969,7 +8969,7 @@
         <v>0.20066</v>
       </c>
       <c r="S135" t="n">
-        <v>162.080403699842</v>
+        <v>27.57494725040991</v>
       </c>
     </row>
     <row r="136">
@@ -8999,7 +8999,7 @@
         <v>9.944444444444445</v>
       </c>
       <c r="H136" t="n">
-        <v>9.6</v>
+        <v>-12.44444444444444</v>
       </c>
       <c r="I136" t="n">
         <v>101.01</v>
@@ -9032,7 +9032,7 @@
         <v>0.1905</v>
       </c>
       <c r="S136" t="n">
-        <v>97.71612383040808</v>
+        <v>19.30103968090014</v>
       </c>
     </row>
     <row r="137">
@@ -9062,7 +9062,7 @@
         <v>11.66666666666667</v>
       </c>
       <c r="H137" t="n">
-        <v>5.1</v>
+        <v>-14.94444444444444</v>
       </c>
       <c r="I137" t="n">
         <v>100.3</v>
@@ -9095,7 +9095,7 @@
         <v>0.1905</v>
       </c>
       <c r="S137" t="n">
-        <v>64.05645754073977</v>
+        <v>14.0396807794457</v>
       </c>
     </row>
     <row r="138">
@@ -9125,7 +9125,7 @@
         <v>11.88888888888889</v>
       </c>
       <c r="H138" t="n">
-        <v>14.6</v>
+        <v>-9.666666666666666</v>
       </c>
       <c r="I138" t="n">
         <v>100.07</v>
@@ -9158,7 +9158,7 @@
         <v>0.20066</v>
       </c>
       <c r="S138" t="n">
-        <v>119.3591966643047</v>
+        <v>21.1600939105928</v>
       </c>
     </row>
     <row r="139">
@@ -9188,7 +9188,7 @@
         <v>10.11111111111111</v>
       </c>
       <c r="H139" t="n">
-        <v>4.6</v>
+        <v>-15.22222222222222</v>
       </c>
       <c r="I139" t="n">
         <v>100.64</v>
@@ -9221,7 +9221,7 @@
         <v>0.1905</v>
       </c>
       <c r="S139" t="n">
-        <v>68.60123486023788</v>
+        <v>15.21688933844781</v>
       </c>
     </row>
     <row r="140">
@@ -9251,7 +9251,7 @@
         <v>13.16666666666667</v>
       </c>
       <c r="H140" t="n">
-        <v>6.1</v>
+        <v>-14.38888888888889</v>
       </c>
       <c r="I140" t="n">
         <v>100.64</v>
@@ -9284,7 +9284,7 @@
         <v>0.20066</v>
       </c>
       <c r="S140" t="n">
-        <v>62.21281928551362</v>
+        <v>13.31633251114743</v>
       </c>
     </row>
     <row r="141">
@@ -9314,7 +9314,7 @@
         <v>11.27777777777778</v>
       </c>
       <c r="H141" t="n">
-        <v>19.1</v>
+        <v>-7.166666666666666</v>
       </c>
       <c r="I141" t="n">
         <v>100.48</v>
@@ -9347,7 +9347,7 @@
         <v>0.19924</v>
       </c>
       <c r="S141" t="n">
-        <v>165.3754183985232</v>
+        <v>26.76707914638723</v>
       </c>
     </row>
     <row r="142">
@@ -9377,7 +9377,7 @@
         <v>12.05555555555556</v>
       </c>
       <c r="H142" t="n">
-        <v>20.6</v>
+        <v>-6.333333333333333</v>
       </c>
       <c r="I142" t="n">
         <v>100</v>
@@ -9410,7 +9410,7 @@
         <v>0.19782</v>
       </c>
       <c r="S142" t="n">
-        <v>172.4108900891005</v>
+        <v>27.10572281792756</v>
       </c>
     </row>
     <row r="143">
@@ -9440,7 +9440,7 @@
         <v>15.27777777777778</v>
       </c>
       <c r="H143" t="n">
-        <v>13.7</v>
+        <v>-10.16666666666667</v>
       </c>
       <c r="I143" t="n">
         <v>99.44</v>
@@ -9473,7 +9473,7 @@
         <v>0.1964</v>
       </c>
       <c r="S143" t="n">
-        <v>90.30331072996744</v>
+        <v>16.31455745813506</v>
       </c>
     </row>
     <row r="144">
@@ -9503,7 +9503,7 @@
         <v>17.44444444444444</v>
       </c>
       <c r="H144" t="n">
-        <v>29.4</v>
+        <v>-1.444444444444445</v>
       </c>
       <c r="I144" t="n">
         <v>98.67999999999999</v>
@@ -9536,7 +9536,7 @@
         <v>0.19498</v>
       </c>
       <c r="S144" t="n">
-        <v>205.9287387997495</v>
+        <v>27.61794366038418</v>
       </c>
     </row>
     <row r="145">
@@ -9566,7 +9566,7 @@
         <v>17.16666666666667</v>
       </c>
       <c r="H145" t="n">
-        <v>38.8</v>
+        <v>3.777777777777776</v>
       </c>
       <c r="I145" t="n">
         <v>99.15000000000001</v>
@@ -9599,7 +9599,7 @@
         <v>0.19356</v>
       </c>
       <c r="S145" t="n">
-        <v>354.2804360159179</v>
+        <v>40.91242257070716</v>
       </c>
     </row>
     <row r="146">
@@ -9629,7 +9629,7 @@
         <v>16.94444444444445</v>
       </c>
       <c r="H146" t="n">
-        <v>39.3</v>
+        <v>4.055555555555554</v>
       </c>
       <c r="I146" t="n">
         <v>99.59999999999999</v>
@@ -9662,7 +9662,7 @@
         <v>0.19214</v>
       </c>
       <c r="S146" t="n">
-        <v>369.1193277574778</v>
+        <v>42.31078085284199</v>
       </c>
     </row>
     <row r="147">
@@ -9692,7 +9692,7 @@
         <v>7.388888888888888</v>
       </c>
       <c r="H147" t="n">
-        <v>43.3</v>
+        <v>6.277777777777777</v>
       </c>
       <c r="I147" t="n">
         <v>100.58</v>
@@ -9725,7 +9725,7 @@
         <v>0.19072</v>
       </c>
       <c r="S147" t="n">
-        <v>856.2178689389131</v>
+        <v>92.654906954956</v>
       </c>
     </row>
     <row r="148">
@@ -9755,7 +9755,7 @@
         <v>7.222222222222222</v>
       </c>
       <c r="H148" t="n">
-        <v>38.7</v>
+        <v>3.722222222222224</v>
       </c>
       <c r="I148" t="n">
         <v>100.79</v>
@@ -9788,7 +9788,7 @@
         <v>0.1893</v>
       </c>
       <c r="S148" t="n">
-        <v>678.1584063342481</v>
+        <v>78.43079546371034</v>
       </c>
     </row>
     <row r="149">
@@ -9818,7 +9818,7 @@
         <v>12.11111111111111</v>
       </c>
       <c r="H149" t="n">
-        <v>36.1</v>
+        <v>2.277777777777779</v>
       </c>
       <c r="I149" t="n">
         <v>100.18</v>
@@ -9851,7 +9851,7 @@
         <v>0.18788</v>
       </c>
       <c r="S149" t="n">
-        <v>423.8479920541069</v>
+        <v>50.99394420575866</v>
       </c>
     </row>
     <row r="150">
@@ -9881,7 +9881,7 @@
         <v>15.05555555555556</v>
       </c>
       <c r="H150" t="n">
-        <v>38</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="I150" t="n">
         <v>99.78</v>
@@ -9914,7 +9914,7 @@
         <v>0.18646</v>
       </c>
       <c r="S150" t="n">
-        <v>388.2107440392674</v>
+        <v>45.37121288053422</v>
       </c>
     </row>
     <row r="151">
@@ -9944,7 +9944,7 @@
         <v>16.22222222222222</v>
       </c>
       <c r="H151" t="n">
-        <v>39</v>
+        <v>3.888888888888889</v>
       </c>
       <c r="I151" t="n">
         <v>99.26000000000001</v>
@@ -9977,7 +9977,7 @@
         <v>0.18504</v>
       </c>
       <c r="S151" t="n">
-        <v>380.2778257269201</v>
+        <v>43.78414093990877</v>
       </c>
     </row>
     <row r="152">
@@ -10007,7 +10007,7 @@
         <v>10.5</v>
       </c>
       <c r="H152" t="n">
-        <v>38.8</v>
+        <v>3.777777777777776</v>
       </c>
       <c r="I152" t="n">
         <v>100.23</v>
@@ -10040,7 +10040,7 @@
         <v>0.18362</v>
       </c>
       <c r="S152" t="n">
-        <v>546.3857860262733</v>
+        <v>63.09681227650545</v>
       </c>
     </row>
     <row r="153">
@@ -10070,7 +10070,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="H153" t="n">
-        <v>36.6</v>
+        <v>2.555555555555556</v>
       </c>
       <c r="I153" t="n">
         <v>100.93</v>
@@ -10103,7 +10103,7 @@
         <v>0.1822</v>
       </c>
       <c r="S153" t="n">
-        <v>614.1839975068813</v>
+        <v>73.32634595270807</v>
       </c>
     </row>
     <row r="154">
@@ -10133,7 +10133,7 @@
         <v>10.83333333333333</v>
       </c>
       <c r="H154" t="n">
-        <v>37.2</v>
+        <v>2.888888888888891</v>
       </c>
       <c r="I154" t="n">
         <v>100.55</v>
@@ -10166,7 +10166,7 @@
         <v>0.18078</v>
       </c>
       <c r="S154" t="n">
-        <v>489.9226759313225</v>
+        <v>57.95665737369623</v>
       </c>
     </row>
     <row r="155">
@@ -10196,7 +10196,7 @@
         <v>12.88888888888889</v>
       </c>
       <c r="H155" t="n">
-        <v>40</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="I155" t="n">
         <v>100.49</v>
@@ -10229,7 +10229,7 @@
         <v>0.17936</v>
       </c>
       <c r="S155" t="n">
-        <v>497.7041654727666</v>
+        <v>56.46504547759691</v>
       </c>
     </row>
     <row r="156">
@@ -10259,7 +10259,7 @@
         <v>10.72222222222222</v>
       </c>
       <c r="H156" t="n">
-        <v>39.4</v>
+        <v>4.111111111111111</v>
       </c>
       <c r="I156" t="n">
         <v>100.53</v>
@@ -10292,7 +10292,7 @@
         <v>0.17794</v>
       </c>
       <c r="S156" t="n">
-        <v>556.0417189292899</v>
+        <v>63.64284100793118</v>
       </c>
     </row>
     <row r="157">
@@ -10322,7 +10322,7 @@
         <v>14.55555555555556</v>
       </c>
       <c r="H157" t="n">
-        <v>37.1</v>
+        <v>2.833333333333334</v>
       </c>
       <c r="I157" t="n">
         <v>100.17</v>
@@ -10355,7 +10355,7 @@
         <v>0.17652</v>
       </c>
       <c r="S157" t="n">
-        <v>381.7504816953</v>
+        <v>45.22904016374267</v>
       </c>
     </row>
     <row r="158">
@@ -10385,7 +10385,7 @@
         <v>15</v>
       </c>
       <c r="H158" t="n">
-        <v>27.1</v>
+        <v>-2.722222222222221</v>
       </c>
       <c r="I158" t="n">
         <v>100.12</v>
@@ -10418,7 +10418,7 @@
         <v>0.1751</v>
       </c>
       <c r="S158" t="n">
-        <v>210.4911623350647</v>
+        <v>29.37240142469947</v>
       </c>
     </row>
     <row r="159">
@@ -10448,7 +10448,7 @@
         <v>10.11111111111111</v>
       </c>
       <c r="H159" t="n">
-        <v>27.5</v>
+        <v>-2.5</v>
       </c>
       <c r="I159" t="n">
         <v>100.47</v>
@@ -10481,7 +10481,7 @@
         <v>0.17368</v>
       </c>
       <c r="S159" t="n">
-        <v>297.0123796478663</v>
+        <v>41.15699433018721</v>
       </c>
     </row>
     <row r="160">
@@ -10511,7 +10511,7 @@
         <v>11.27777777777778</v>
       </c>
       <c r="H160" t="n">
-        <v>28.5</v>
+        <v>-1.944444444444445</v>
       </c>
       <c r="I160" t="n">
         <v>99.82000000000001</v>
@@ -10544,7 +10544,7 @@
         <v>0.17226</v>
       </c>
       <c r="S160" t="n">
-        <v>291.330134286872</v>
+        <v>39.6768180864806</v>
       </c>
     </row>
     <row r="161">
@@ -10574,7 +10574,7 @@
         <v>15.27777777777778</v>
       </c>
       <c r="H161" t="n">
-        <v>15.9</v>
+        <v>-8.944444444444446</v>
       </c>
       <c r="I161" t="n">
         <v>99.78999999999999</v>
@@ -10607,7 +10607,7 @@
         <v>0.17084</v>
       </c>
       <c r="S161" t="n">
-        <v>104.0688649335638</v>
+        <v>17.95995367366538</v>
       </c>
     </row>
     <row r="162">
@@ -10637,7 +10637,7 @@
         <v>13.33333333333333</v>
       </c>
       <c r="H162" t="n">
-        <v>17.6</v>
+        <v>-8</v>
       </c>
       <c r="I162" t="n">
         <v>100.04</v>
@@ -10670,7 +10670,7 @@
         <v>0.16942</v>
       </c>
       <c r="S162" t="n">
-        <v>131.4895854623501</v>
+        <v>21.92415501009025</v>
       </c>
     </row>
     <row r="163">
@@ -10700,7 +10700,7 @@
         <v>14.22222222222222</v>
       </c>
       <c r="H163" t="n">
-        <v>25.1</v>
+        <v>-3.833333333333333</v>
       </c>
       <c r="I163" t="n">
         <v>100.19</v>
@@ -10733,7 +10733,7 @@
         <v>0.168</v>
       </c>
       <c r="S163" t="n">
-        <v>196.6215677944768</v>
+        <v>28.42991071552701</v>
       </c>
     </row>
     <row r="164">
@@ -10763,7 +10763,7 @@
         <v>16.38888888888889</v>
       </c>
       <c r="H164" t="n">
-        <v>22.8</v>
+        <v>-5.111111111111111</v>
       </c>
       <c r="I164" t="n">
         <v>99.66</v>
@@ -10796,7 +10796,7 @@
         <v>0.16658</v>
       </c>
       <c r="S164" t="n">
-        <v>148.9700204438214</v>
+        <v>22.46663091179709</v>
       </c>
     </row>
     <row r="165">
@@ -10826,7 +10826,7 @@
         <v>17.61111111111111</v>
       </c>
       <c r="H165" t="n">
-        <v>24.3</v>
+        <v>-4.277777777777778</v>
       </c>
       <c r="I165" t="n">
         <v>99.36</v>
@@ -10859,7 +10859,7 @@
         <v>0.16516</v>
       </c>
       <c r="S165" t="n">
-        <v>150.9199450035396</v>
+        <v>22.1405262549778</v>
       </c>
     </row>
     <row r="166">
@@ -10889,7 +10889,7 @@
         <v>16.77777777777778</v>
       </c>
       <c r="H166" t="n">
-        <v>30.3</v>
+        <v>-0.9444444444444441</v>
       </c>
       <c r="I166" t="n">
         <v>99.27000000000001</v>
@@ -10922,7 +10922,7 @@
         <v>0.16374</v>
       </c>
       <c r="S166" t="n">
-        <v>226.2383491551987</v>
+        <v>29.88454322989778</v>
       </c>
     </row>
     <row r="167">
@@ -10952,7 +10952,7 @@
         <v>18.55555555555556</v>
       </c>
       <c r="H167" t="n">
-        <v>33.5</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I167" t="n">
         <v>98.92999999999999</v>
@@ -10985,7 +10985,7 @@
         <v>0.16232</v>
       </c>
       <c r="S167" t="n">
-        <v>242.4955574083841</v>
+        <v>30.39456655490338</v>
       </c>
     </row>
     <row r="168">
@@ -11015,7 +11015,7 @@
         <v>13.77777777777778</v>
       </c>
       <c r="H168" t="n">
-        <v>41.8</v>
+        <v>5.444444444444443</v>
       </c>
       <c r="I168" t="n">
         <v>99.51000000000001</v>
@@ -11048,7 +11048,7 @@
         <v>0.1609</v>
       </c>
       <c r="S168" t="n">
-        <v>516.8633826636496</v>
+        <v>57.13110479536385</v>
       </c>
     </row>
     <row r="169">
@@ -11078,7 +11078,7 @@
         <v>13.88888888888889</v>
       </c>
       <c r="H169" t="n">
-        <v>45.7</v>
+        <v>7.611111111111113</v>
       </c>
       <c r="I169" t="n">
         <v>99.34</v>
@@ -11111,7 +11111,7 @@
         <v>0.15948</v>
       </c>
       <c r="S169" t="n">
-        <v>628.8767936979174</v>
+        <v>65.8419604926541</v>
       </c>
     </row>
     <row r="170">
@@ -11141,7 +11141,7 @@
         <v>11.27777777777778</v>
       </c>
       <c r="H170" t="n">
-        <v>46.7</v>
+        <v>8.166666666666668</v>
       </c>
       <c r="I170" t="n">
         <v>99.73999999999999</v>
@@ -11174,7 +11174,7 @@
         <v>0.15806</v>
       </c>
       <c r="S170" t="n">
-        <v>785.659241629126</v>
+        <v>81.15835542060366</v>
       </c>
     </row>
     <row r="171">
@@ -11204,7 +11204,7 @@
         <v>10.77777777777778</v>
       </c>
       <c r="H171" t="n">
-        <v>46</v>
+        <v>7.777777777777779</v>
       </c>
       <c r="I171" t="n">
         <v>100.25</v>
@@ -11237,7 +11237,7 @@
         <v>0.15664</v>
       </c>
       <c r="S171" t="n">
-        <v>783.5859431716183</v>
+        <v>81.70786192592422</v>
       </c>
     </row>
     <row r="172">
@@ -11267,7 +11267,7 @@
         <v>14.16666666666667</v>
       </c>
       <c r="H172" t="n">
-        <v>43.7</v>
+        <v>6.500000000000002</v>
       </c>
       <c r="I172" t="n">
         <v>100.09</v>
@@ -11300,7 +11300,7 @@
         <v>0.15522</v>
       </c>
       <c r="S172" t="n">
-        <v>556.8570777135211</v>
+        <v>59.92435823855512</v>
       </c>
     </row>
     <row r="173">
@@ -11330,7 +11330,7 @@
         <v>20.61111111111111</v>
       </c>
       <c r="H173" t="n">
-        <v>42.3</v>
+        <v>5.722222222222221</v>
       </c>
       <c r="I173" t="n">
         <v>99.36</v>
@@ -11363,7 +11363,7 @@
         <v>0.1538</v>
       </c>
       <c r="S173" t="n">
-        <v>344.2851838524273</v>
+        <v>37.78530560635304</v>
       </c>
     </row>
     <row r="174">
@@ -11393,7 +11393,7 @@
         <v>22.44444444444445</v>
       </c>
       <c r="H174" t="n">
-        <v>45.4</v>
+        <v>7.444444444444444</v>
       </c>
       <c r="I174" t="n">
         <v>98.7</v>
@@ -11426,7 +11426,7 @@
         <v>0.15238</v>
       </c>
       <c r="S174" t="n">
-        <v>361.6612527708282</v>
+        <v>38.01950794248239</v>
       </c>
     </row>
     <row r="175">
@@ -11456,7 +11456,7 @@
         <v>14</v>
       </c>
       <c r="H175" t="n">
-        <v>39.7</v>
+        <v>4.277777777777779</v>
       </c>
       <c r="I175" t="n">
         <v>99.83</v>
@@ -11489,7 +11489,7 @@
         <v>0.15096</v>
       </c>
       <c r="S175" t="n">
-        <v>455.5546321595581</v>
+        <v>51.91128372132457</v>
       </c>
     </row>
     <row r="176">
@@ -11519,7 +11519,7 @@
         <v>10.88888888888889</v>
       </c>
       <c r="H176" t="n">
-        <v>42.1</v>
+        <v>5.611111111111112</v>
       </c>
       <c r="I176" t="n">
         <v>100.74</v>
@@ -11552,7 +11552,7 @@
         <v>0.14954</v>
       </c>
       <c r="S176" t="n">
-        <v>634.9447738685896</v>
+        <v>69.88353794489487</v>
       </c>
     </row>
     <row r="177">
@@ -11582,7 +11582,7 @@
         <v>12.11111111111111</v>
       </c>
       <c r="H177" t="n">
-        <v>38.2</v>
+        <v>3.444444444444446</v>
       </c>
       <c r="I177" t="n">
         <v>100.55</v>
@@ -11615,7 +11615,7 @@
         <v>0.14812</v>
       </c>
       <c r="S177" t="n">
-        <v>475.3696338554001</v>
+        <v>55.39080109821819</v>
       </c>
     </row>
     <row r="178">
@@ -11645,7 +11645,7 @@
         <v>13.22222222222222</v>
       </c>
       <c r="H178" t="n">
-        <v>36.4</v>
+        <v>2.444444444444444</v>
       </c>
       <c r="I178" t="n">
         <v>100.42</v>
@@ -11678,7 +11678,7 @@
         <v>0.1467</v>
       </c>
       <c r="S178" t="n">
-        <v>400.6207145736984</v>
+        <v>47.97676169878024</v>
       </c>
     </row>
     <row r="179">
@@ -11708,7 +11708,7 @@
         <v>14</v>
       </c>
       <c r="H179" t="n">
-        <v>38.8</v>
+        <v>3.777777777777776</v>
       </c>
       <c r="I179" t="n">
         <v>100.38</v>
@@ -11741,7 +11741,7 @@
         <v>0.14528</v>
       </c>
       <c r="S179" t="n">
-        <v>434.0149675014986</v>
+        <v>50.12019278319742</v>
       </c>
     </row>
     <row r="180">
@@ -11771,7 +11771,7 @@
         <v>10.88888888888889</v>
       </c>
       <c r="H180" t="n">
-        <v>40</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="I180" t="n">
         <v>100.68</v>
@@ -11804,7 +11804,7 @@
         <v>0.14386</v>
       </c>
       <c r="S180" t="n">
-        <v>567.8988554035622</v>
+        <v>64.42870468358974</v>
       </c>
     </row>
     <row r="181">
@@ -11834,7 +11834,7 @@
         <v>11.83333333333333</v>
       </c>
       <c r="H181" t="n">
-        <v>39.7</v>
+        <v>4.277777777777779</v>
       </c>
       <c r="I181" t="n">
         <v>100.52</v>
@@ -11867,7 +11867,7 @@
         <v>0.14244</v>
       </c>
       <c r="S181" t="n">
-        <v>524.950911251809</v>
+        <v>59.81911667669292</v>
       </c>
     </row>
     <row r="182">
@@ -11897,7 +11897,7 @@
         <v>17</v>
       </c>
       <c r="H182" t="n">
-        <v>31.5</v>
+        <v>-0.2777777777777778</v>
       </c>
       <c r="I182" t="n">
         <v>99.95</v>
@@ -11930,7 +11930,7 @@
         <v>0.14102</v>
       </c>
       <c r="S182" t="n">
-        <v>238.9035153500484</v>
+        <v>30.93416199654703</v>
       </c>
     </row>
     <row r="183">
@@ -11960,7 +11960,7 @@
         <v>16.66666666666667</v>
       </c>
       <c r="H183" t="n">
-        <v>33.2</v>
+        <v>0.6666666666666683</v>
       </c>
       <c r="I183" t="n">
         <v>99.53</v>
@@ -11993,7 +11993,7 @@
         <v>0.1396</v>
       </c>
       <c r="S183" t="n">
-        <v>268.6335165954625</v>
+        <v>33.83342542583831</v>
       </c>
     </row>
     <row r="184">
@@ -12023,7 +12023,7 @@
         <v>13.77777777777778</v>
       </c>
       <c r="H184" t="n">
-        <v>33.1</v>
+        <v>0.6111111111111119</v>
       </c>
       <c r="I184" t="n">
         <v>100.25</v>
@@ -12056,7 +12056,7 @@
         <v>0.13818</v>
       </c>
       <c r="S184" t="n">
-        <v>321.6379382152419</v>
+        <v>40.57446962139916</v>
       </c>
     </row>
     <row r="185">
@@ -12086,7 +12086,7 @@
         <v>15.22222222222222</v>
       </c>
       <c r="H185" t="n">
-        <v>27.2</v>
+        <v>-2.666666666666667</v>
       </c>
       <c r="I185" t="n">
         <v>100</v>
@@ -12119,7 +12119,7 @@
         <v>0.13676</v>
       </c>
       <c r="S185" t="n">
-        <v>208.7257116269908</v>
+        <v>29.07507414765554</v>
       </c>
     </row>
     <row r="186">
@@ -12149,7 +12149,7 @@
         <v>21.61111111111111</v>
       </c>
       <c r="H186" t="n">
-        <v>30.1</v>
+        <v>-1.055555555555555</v>
       </c>
       <c r="I186" t="n">
         <v>99.2</v>
@@ -12182,7 +12182,7 @@
         <v>0.13534</v>
       </c>
       <c r="S186" t="n">
-        <v>165.4584135544285</v>
+        <v>21.92943587638097</v>
       </c>
     </row>
     <row r="187">
@@ -12212,7 +12212,7 @@
         <v>23.72222222222222</v>
       </c>
       <c r="H187" t="n">
-        <v>32.4</v>
+        <v>0.2222222222222214</v>
       </c>
       <c r="I187" t="n">
         <v>99.15000000000001</v>
@@ -12245,7 +12245,7 @@
         <v>0.13392</v>
       </c>
       <c r="S187" t="n">
-        <v>165.9357368738696</v>
+        <v>21.17149378595517</v>
       </c>
     </row>
     <row r="188">
@@ -12275,7 +12275,7 @@
         <v>19.55555555555556</v>
       </c>
       <c r="H188" t="n">
-        <v>43.4</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="I188" t="n">
         <v>99.2</v>
@@ -12308,7 +12308,7 @@
         <v>0.1325</v>
       </c>
       <c r="S188" t="n">
-        <v>389.3824977674795</v>
+        <v>42.07781484783678</v>
       </c>
     </row>
     <row r="189">
@@ -12338,7 +12338,7 @@
         <v>18.16666666666667</v>
       </c>
       <c r="H189" t="n">
-        <v>43.5</v>
+        <v>6.388888888888889</v>
       </c>
       <c r="I189" t="n">
         <v>99.09</v>
@@ -12371,7 +12371,7 @@
         <v>0.13108</v>
       </c>
       <c r="S189" t="n">
-        <v>426.9235939208738</v>
+        <v>46.07022844346654</v>
       </c>
     </row>
     <row r="190">
@@ -12401,7 +12401,7 @@
         <v>18.22222222222222</v>
       </c>
       <c r="H190" t="n">
-        <v>40.2</v>
+        <v>4.555555555555557</v>
       </c>
       <c r="I190" t="n">
         <v>99.12</v>
@@ -12434,7 +12434,7 @@
         <v>0.12966</v>
       </c>
       <c r="S190" t="n">
-        <v>357.3551240314974</v>
+        <v>40.42384094128718</v>
       </c>
     </row>
     <row r="191">
@@ -12464,7 +12464,7 @@
         <v>17.55555555555556</v>
       </c>
       <c r="H191" t="n">
-        <v>38.3</v>
+        <v>3.499999999999999</v>
       </c>
       <c r="I191" t="n">
         <v>99.39</v>
@@ -12497,7 +12497,7 @@
         <v>0.12824</v>
       </c>
       <c r="S191" t="n">
-        <v>336.4524288177774</v>
+        <v>39.1451465558495</v>
       </c>
     </row>
     <row r="192">
@@ -12527,7 +12527,7 @@
         <v>17.16666666666667</v>
       </c>
       <c r="H192" t="n">
-        <v>38.9</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="I192" t="n">
         <v>99.19</v>
@@ -12560,7 +12560,7 @@
         <v>0.12682</v>
       </c>
       <c r="S192" t="n">
-        <v>356.1976898109799</v>
+        <v>41.07263619094905</v>
       </c>
     </row>
     <row r="193">
@@ -12590,7 +12590,7 @@
         <v>18.44444444444445</v>
       </c>
       <c r="H193" t="n">
-        <v>39.7</v>
+        <v>4.277777777777779</v>
       </c>
       <c r="I193" t="n">
         <v>99.3</v>
@@ -12623,7 +12623,7 @@
         <v>0.1254</v>
       </c>
       <c r="S193" t="n">
-        <v>343.0948124884159</v>
+        <v>39.09628153701372</v>
       </c>
     </row>
     <row r="194">
@@ -12653,7 +12653,7 @@
         <v>18.61111111111111</v>
       </c>
       <c r="H194" t="n">
-        <v>44.2</v>
+        <v>6.777777777777779</v>
       </c>
       <c r="I194" t="n">
         <v>99.26000000000001</v>
@@ -12686,7 +12686,7 @@
         <v>0.12398</v>
       </c>
       <c r="S194" t="n">
-        <v>430.6086837181097</v>
+        <v>46.01831334809333</v>
       </c>
     </row>
     <row r="195">
@@ -12716,7 +12716,7 @@
         <v>12.38888888888889</v>
       </c>
       <c r="H195" t="n">
-        <v>43.6</v>
+        <v>6.444444444444446</v>
       </c>
       <c r="I195" t="n">
         <v>100.41</v>
@@ -12749,7 +12749,7 @@
         <v>0.12256</v>
       </c>
       <c r="S195" t="n">
-        <v>622.1010607898705</v>
+        <v>67.03867931653447</v>
       </c>
     </row>
     <row r="196">
@@ -12779,7 +12779,7 @@
         <v>11.05555555555556</v>
       </c>
       <c r="H196" t="n">
-        <v>47</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="I196" t="n">
         <v>100.78</v>
@@ -12812,7 +12812,7 @@
         <v>0.12114</v>
       </c>
       <c r="S196" t="n">
-        <v>809.6299303884251</v>
+        <v>83.30093505476044</v>
       </c>
     </row>
     <row r="197">
@@ -12842,7 +12842,7 @@
         <v>12.22222222222222</v>
       </c>
       <c r="H197" t="n">
-        <v>46</v>
+        <v>7.777777777777779</v>
       </c>
       <c r="I197" t="n">
         <v>100.72</v>
@@ -12875,7 +12875,7 @@
         <v>0.11972</v>
       </c>
       <c r="S197" t="n">
-        <v>712.1598593065615</v>
+        <v>74.2599582859819</v>
       </c>
     </row>
     <row r="198">
@@ -12905,7 +12905,7 @@
         <v>8.611111111111111</v>
       </c>
       <c r="H198" t="n">
-        <v>40.8</v>
+        <v>4.888888888888888</v>
       </c>
       <c r="I198" t="n">
         <v>101</v>
@@ -12938,7 +12938,7 @@
         <v>0.1183</v>
       </c>
       <c r="S198" t="n">
-        <v>690.5316001576366</v>
+        <v>77.43364317763258</v>
       </c>
     </row>
     <row r="199">
@@ -12968,7 +12968,7 @@
         <v>11.33333333333333</v>
       </c>
       <c r="H199" t="n">
-        <v>34</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="I199" t="n">
         <v>100.45</v>
@@ -13001,7 +13001,7 @@
         <v>0.11688</v>
       </c>
       <c r="S199" t="n">
-        <v>397.1429137496565</v>
+        <v>49.3820344983303</v>
       </c>
     </row>
     <row r="200">
@@ -13031,7 +13031,7 @@
         <v>13.83333333333333</v>
       </c>
       <c r="H200" t="n">
-        <v>35.7</v>
+        <v>2.055555555555557</v>
       </c>
       <c r="I200" t="n">
         <v>100</v>
@@ -13064,7 +13064,7 @@
         <v>0.11546</v>
       </c>
       <c r="S200" t="n">
-        <v>370.4333792493834</v>
+        <v>44.84488488328854</v>
       </c>
     </row>
     <row r="201">
@@ -13094,7 +13094,7 @@
         <v>9.833333333333336</v>
       </c>
       <c r="H201" t="n">
-        <v>30.9</v>
+        <v>-0.6111111111111119</v>
       </c>
       <c r="I201" t="n">
         <v>101.32</v>
@@ -13127,7 +13127,7 @@
         <v>0.11404</v>
       </c>
       <c r="S201" t="n">
-        <v>368.3752196407808</v>
+        <v>48.17485825439974</v>
       </c>
     </row>
     <row r="202">
@@ -13157,7 +13157,7 @@
         <v>15.38888888888889</v>
       </c>
       <c r="H202" t="n">
-        <v>25.5</v>
+        <v>-3.611111111111111</v>
       </c>
       <c r="I202" t="n">
         <v>100.61</v>
@@ -13190,7 +13190,7 @@
         <v>0.11262</v>
       </c>
       <c r="S202" t="n">
-        <v>186.7678046561331</v>
+        <v>26.8116845894067</v>
       </c>
     </row>
     <row r="203">
@@ -13220,7 +13220,7 @@
         <v>15.11111111111111</v>
       </c>
       <c r="H203" t="n">
-        <v>25.7</v>
+        <v>-3.5</v>
       </c>
       <c r="I203" t="n">
         <v>100.14</v>
@@ -13253,7 +13253,7 @@
         <v>0.1112</v>
       </c>
       <c r="S203" t="n">
-        <v>192.4046863513208</v>
+        <v>27.52219830296182</v>
       </c>
     </row>
     <row r="204">
@@ -13283,7 +13283,7 @@
         <v>16.16666666666667</v>
       </c>
       <c r="H204" t="n">
-        <v>25.3</v>
+        <v>-3.722222222222222</v>
       </c>
       <c r="I204" t="n">
         <v>100.05</v>
@@ -13316,7 +13316,7 @@
         <v>0.10978</v>
       </c>
       <c r="S204" t="n">
-        <v>175.5957354796763</v>
+        <v>25.29851351787566</v>
       </c>
     </row>
     <row r="205">
@@ -13346,7 +13346,7 @@
         <v>18.22222222222222</v>
       </c>
       <c r="H205" t="n">
-        <v>25.9</v>
+        <v>-3.38888888888889</v>
       </c>
       <c r="I205" t="n">
         <v>99.72</v>
@@ -13379,7 +13379,7 @@
         <v>0.10836</v>
       </c>
       <c r="S205" t="n">
-        <v>159.7636101940352</v>
+        <v>22.77167888091069</v>
       </c>
     </row>
     <row r="206">
@@ -13409,7 +13409,7 @@
         <v>17.55555555555556</v>
       </c>
       <c r="H206" t="n">
-        <v>29</v>
+        <v>-1.666666666666667</v>
       </c>
       <c r="I206" t="n">
         <v>99.89</v>
@@ -13442,7 +13442,7 @@
         <v>0.10694</v>
       </c>
       <c r="S206" t="n">
-        <v>199.8103952443479</v>
+        <v>26.98048278528346</v>
       </c>
     </row>
     <row r="207">
@@ -13472,7 +13472,7 @@
         <v>16.77777777777778</v>
       </c>
       <c r="H207" t="n">
-        <v>28.1</v>
+        <v>-2.166666666666666</v>
       </c>
       <c r="I207" t="n">
         <v>99.72</v>
@@ -13505,7 +13505,7 @@
         <v>0.10552</v>
       </c>
       <c r="S207" t="n">
-        <v>199.1979154811917</v>
+        <v>27.31685749630681</v>
       </c>
     </row>
     <row r="208">
@@ -13535,7 +13535,7 @@
         <v>16.72222222222222</v>
       </c>
       <c r="H208" t="n">
-        <v>41.5</v>
+        <v>5.277777777777778</v>
       </c>
       <c r="I208" t="n">
         <v>99.09999999999999</v>
@@ -13568,7 +13568,7 @@
         <v>0.1041</v>
       </c>
       <c r="S208" t="n">
-        <v>421.0168042213942</v>
+        <v>46.73712232560712</v>
       </c>
     </row>
     <row r="209">
@@ -13598,7 +13598,7 @@
         <v>12.72222222222222</v>
       </c>
       <c r="H209" t="n">
-        <v>49.2</v>
+        <v>9.555555555555557</v>
       </c>
       <c r="I209" t="n">
         <v>100.05</v>
@@ -13631,7 +13631,7 @@
         <v>0.10268</v>
       </c>
       <c r="S209" t="n">
-        <v>810.7453602821467</v>
+        <v>81.04721572267628</v>
       </c>
     </row>
     <row r="210">
@@ -13661,7 +13661,7 @@
         <v>18.61111111111111</v>
       </c>
       <c r="H210" t="n">
-        <v>47.3</v>
+        <v>8.499999999999998</v>
       </c>
       <c r="I210" t="n">
         <v>99.66</v>
@@ -13694,7 +13694,7 @@
         <v>0.10126</v>
       </c>
       <c r="S210" t="n">
-        <v>505.0347023367798</v>
+        <v>51.75544767397167</v>
       </c>
     </row>
     <row r="211">
@@ -13724,7 +13724,7 @@
         <v>21.11111111111111</v>
       </c>
       <c r="H211" t="n">
-        <v>43.2</v>
+        <v>6.222222222222224</v>
       </c>
       <c r="I211" t="n">
         <v>99.36</v>
@@ -13757,7 +13757,7 @@
         <v>0.09984</v>
       </c>
       <c r="S211" t="n">
-        <v>350.0047544090166</v>
+        <v>37.92855614468915</v>
       </c>
     </row>
     <row r="212">
@@ -13787,7 +13787,7 @@
         <v>22.83333333333333</v>
       </c>
       <c r="H212" t="n">
-        <v>43.9</v>
+        <v>6.611111111111111</v>
       </c>
       <c r="I212" t="n">
         <v>98.81</v>
@@ -13820,7 +13820,7 @@
         <v>0.09842000000000001</v>
       </c>
       <c r="S212" t="n">
-        <v>326.8017794354527</v>
+        <v>35.0700880676562</v>
       </c>
     </row>
     <row r="213">
@@ -13850,7 +13850,7 @@
         <v>23.55555555555556</v>
       </c>
       <c r="H213" t="n">
-        <v>49.3</v>
+        <v>9.611111111111111</v>
       </c>
       <c r="I213" t="n">
         <v>98.78999999999999</v>
@@ -13883,7 +13883,7 @@
         <v>0.097</v>
       </c>
       <c r="S213" t="n">
-        <v>412.3066180883343</v>
+        <v>41.16369487074656</v>
       </c>
     </row>
     <row r="214">
@@ -13913,7 +13913,7 @@
         <v>23.83333333333334</v>
       </c>
       <c r="H214" t="n">
-        <v>45.2</v>
+        <v>7.333333333333335</v>
       </c>
       <c r="I214" t="n">
         <v>98.78999999999999</v>
@@ -13946,7 +13946,7 @@
         <v>0.09558</v>
       </c>
       <c r="S214" t="n">
-        <v>329.0917115963958</v>
+        <v>34.68995755815455</v>
       </c>
     </row>
     <row r="215">
@@ -13976,7 +13976,7 @@
         <v>22.55555555555555</v>
       </c>
       <c r="H215" t="n">
-        <v>47.3</v>
+        <v>8.499999999999998</v>
       </c>
       <c r="I215" t="n">
         <v>98.92</v>
@@ -14009,7 +14009,7 @@
         <v>0.09416000000000001</v>
       </c>
       <c r="S215" t="n">
-        <v>395.9385711778361</v>
+        <v>40.57538602374424</v>
       </c>
     </row>
     <row r="216">
@@ -14039,7 +14039,7 @@
         <v>24.05555555555555</v>
       </c>
       <c r="H216" t="n">
-        <v>48.6</v>
+        <v>9.222222222222223</v>
       </c>
       <c r="I216" t="n">
         <v>98.64</v>
@@ -14072,7 +14072,7 @@
         <v>0.09274</v>
       </c>
       <c r="S216" t="n">
-        <v>386.2340268555545</v>
+        <v>38.91150660530261</v>
       </c>
     </row>
     <row r="217">
@@ -14102,7 +14102,7 @@
         <v>17.44444444444444</v>
       </c>
       <c r="H217" t="n">
-        <v>55.7</v>
+        <v>13.16666666666667</v>
       </c>
       <c r="I217" t="n">
         <v>99.56</v>
@@ -14135,7 +14135,7 @@
         <v>0.09132</v>
       </c>
       <c r="S217" t="n">
-        <v>823.3750538565749</v>
+        <v>75.97146877682898</v>
       </c>
     </row>
     <row r="218">
@@ -14165,7 +14165,7 @@
         <v>14.05555555555556</v>
       </c>
       <c r="H218" t="n">
-        <v>49.7</v>
+        <v>9.833333333333336</v>
       </c>
       <c r="I218" t="n">
         <v>100.5</v>
@@ -14198,7 +14198,7 @@
         <v>0.08990000000000001</v>
       </c>
       <c r="S218" t="n">
-        <v>762.1082446752416</v>
+        <v>75.69725568675688</v>
       </c>
     </row>
     <row r="219">
@@ -14228,7 +14228,7 @@
         <v>15.72222222222222</v>
       </c>
       <c r="H219" t="n">
-        <v>45.5</v>
+        <v>7.5</v>
       </c>
       <c r="I219" t="n">
         <v>100.1</v>
@@ -14261,7 +14261,7 @@
         <v>0.08848</v>
       </c>
       <c r="S219" t="n">
-        <v>553.030313129215</v>
+        <v>58.05819364891686</v>
       </c>
     </row>
     <row r="220">
@@ -14291,7 +14291,7 @@
         <v>20.33333333333333</v>
       </c>
       <c r="H220" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I220" t="n">
         <v>99.17999999999999</v>
@@ -14324,7 +14324,7 @@
         <v>0.08706</v>
       </c>
       <c r="S220" t="n">
-        <v>519.8732099981368</v>
+        <v>51.43942541997863</v>
       </c>
     </row>
     <row r="221">
@@ -14354,7 +14354,7 @@
         <v>18.05555555555556</v>
       </c>
       <c r="H221" t="n">
-        <v>43.3</v>
+        <v>6.277777777777777</v>
       </c>
       <c r="I221" t="n">
         <v>99.27000000000001</v>
@@ -14387,7 +14387,7 @@
         <v>0.08564000000000001</v>
       </c>
       <c r="S221" t="n">
-        <v>425.4450342530848</v>
+        <v>46.03918172371152</v>
       </c>
     </row>
     <row r="222">
@@ -14417,7 +14417,7 @@
         <v>14.94444444444444</v>
       </c>
       <c r="H222" t="n">
-        <v>41.7</v>
+        <v>5.388888888888891</v>
       </c>
       <c r="I222" t="n">
         <v>100.11</v>
@@ -14450,7 +14450,7 @@
         <v>0.08422</v>
       </c>
       <c r="S222" t="n">
-        <v>476.75208098266</v>
+        <v>52.77284221796896</v>
       </c>
     </row>
     <row r="223">
@@ -14480,7 +14480,7 @@
         <v>17.05555555555556</v>
       </c>
       <c r="H223" t="n">
-        <v>37.6</v>
+        <v>3.111111111111112</v>
       </c>
       <c r="I223" t="n">
         <v>99.59999999999999</v>
@@ -14513,7 +14513,7 @@
         <v>0.0828</v>
       </c>
       <c r="S223" t="n">
-        <v>334.3081221795617</v>
+        <v>39.30827030712465</v>
       </c>
     </row>
     <row r="224">
@@ -14543,7 +14543,7 @@
         <v>17.94444444444444</v>
       </c>
       <c r="H224" t="n">
-        <v>46.6</v>
+        <v>8.111111111111112</v>
       </c>
       <c r="I224" t="n">
         <v>99.28999999999999</v>
@@ -14576,7 +14576,7 @@
         <v>0.08138000000000001</v>
       </c>
       <c r="S224" t="n">
-        <v>508.1533776691943</v>
+        <v>52.56225696842217</v>
       </c>
     </row>
     <row r="225">
@@ -14606,7 +14606,7 @@
         <v>18.11111111111111</v>
       </c>
       <c r="H225" t="n">
-        <v>47.7</v>
+        <v>8.722222222222225</v>
       </c>
       <c r="I225" t="n">
         <v>99.94</v>
@@ -14639,7 +14639,7 @@
         <v>0.07996</v>
       </c>
       <c r="S225" t="n">
-        <v>531.8304509545528</v>
+        <v>54.2143928694921</v>
       </c>
     </row>
     <row r="226">
@@ -14669,7 +14669,7 @@
         <v>19.44444444444445</v>
       </c>
       <c r="H226" t="n">
-        <v>47.7</v>
+        <v>8.722222222222225</v>
       </c>
       <c r="I226" t="n">
         <v>99.38</v>
@@ -14702,7 +14702,7 @@
         <v>0.07854</v>
       </c>
       <c r="S226" t="n">
-        <v>489.2761424594307</v>
+        <v>49.87643893153441</v>
       </c>
     </row>
     <row r="227">
@@ -14732,7 +14732,7 @@
         <v>14.77777777777778</v>
       </c>
       <c r="H227" t="n">
-        <v>36.9</v>
+        <v>2.722222222222221</v>
       </c>
       <c r="I227" t="n">
         <v>100.08</v>
@@ -14765,7 +14765,7 @@
         <v>0.07712000000000001</v>
       </c>
       <c r="S227" t="n">
-        <v>372.2197597747813</v>
+        <v>44.23478707373135</v>
       </c>
     </row>
     <row r="228">
@@ -14795,7 +14795,7 @@
         <v>15.16666666666667</v>
       </c>
       <c r="H228" t="n">
-        <v>36.5</v>
+        <v>2.5</v>
       </c>
       <c r="I228" t="n">
         <v>100.21</v>
@@ -14828,7 +14828,7 @@
         <v>0.0757</v>
       </c>
       <c r="S228" t="n">
-        <v>355.1420164953399</v>
+        <v>42.46500021903146</v>
       </c>
     </row>
     <row r="229">
@@ -14858,7 +14858,7 @@
         <v>14.16666666666667</v>
       </c>
       <c r="H229" t="n">
-        <v>33.2</v>
+        <v>0.6666666666666683</v>
       </c>
       <c r="I229" t="n">
         <v>100.62</v>
@@ -14891,7 +14891,7 @@
         <v>0.07428000000000001</v>
       </c>
       <c r="S229" t="n">
-        <v>315.389263089819</v>
+        <v>39.72214356605615</v>
       </c>
     </row>
     <row r="230">
@@ -14921,7 +14921,7 @@
         <v>16.44444444444445</v>
       </c>
       <c r="H230" t="n">
-        <v>27.6</v>
+        <v>-2.444444444444444</v>
       </c>
       <c r="I230" t="n">
         <v>100.51</v>
@@ -14954,7 +14954,7 @@
         <v>0.07286000000000001</v>
       </c>
       <c r="S230" t="n">
-        <v>197.6068106385023</v>
+        <v>27.33471336601971</v>
       </c>
     </row>
     <row r="231">
@@ -14984,7 +14984,7 @@
         <v>14.55555555555556</v>
       </c>
       <c r="H231" t="n">
-        <v>30.3</v>
+        <v>-0.9444444444444441</v>
       </c>
       <c r="I231" t="n">
         <v>100.45</v>
@@ -15017,7 +15017,7 @@
         <v>0.07144</v>
       </c>
       <c r="S231" t="n">
-        <v>260.8496210494738</v>
+        <v>34.45645623681533</v>
       </c>
     </row>
     <row r="232">
@@ -15047,7 +15047,7 @@
         <v>7.5</v>
       </c>
       <c r="H232" t="n">
-        <v>33.5</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I232" t="n">
         <v>101.61</v>
@@ -15080,7 +15080,7 @@
         <v>0.07002</v>
       </c>
       <c r="S232" t="n">
-        <v>499.7798481430326</v>
+        <v>62.64276351917076</v>
       </c>
     </row>
     <row r="233">
@@ -15110,7 +15110,7 @@
         <v>6.777777777777779</v>
       </c>
       <c r="H233" t="n">
-        <v>30.2</v>
+        <v>-1</v>
       </c>
       <c r="I233" t="n">
         <v>101.76</v>
@@ -15143,7 +15143,7 @@
         <v>0.06859999999999999</v>
       </c>
       <c r="S233" t="n">
-        <v>435.4380774400168</v>
+        <v>57.61497773303736</v>
       </c>
     </row>
     <row r="234">
@@ -15173,7 +15173,7 @@
         <v>9.555555555555557</v>
       </c>
       <c r="H234" t="n">
-        <v>15.5</v>
+        <v>-9.166666666666668</v>
       </c>
       <c r="I234" t="n">
         <v>101.45</v>
@@ -15206,7 +15206,7 @@
         <v>0.06717999999999999</v>
       </c>
       <c r="S234" t="n">
-        <v>147.7334468048024</v>
+        <v>25.70594674936972</v>
       </c>
     </row>
     <row r="235">
@@ -15236,7 +15236,7 @@
         <v>9.666666666666666</v>
       </c>
       <c r="H235" t="n">
-        <v>17.9</v>
+        <v>-7.833333333333335</v>
       </c>
       <c r="I235" t="n">
         <v>101.41</v>
@@ -15269,7 +15269,7 @@
         <v>0.06576000000000001</v>
       </c>
       <c r="S235" t="n">
-        <v>170.7964476579064</v>
+        <v>28.30794489611073</v>
       </c>
     </row>
     <row r="236">
@@ -15299,7 +15299,7 @@
         <v>12.05555555555556</v>
       </c>
       <c r="H236" t="n">
-        <v>11.4</v>
+        <v>-11.44444444444445</v>
       </c>
       <c r="I236" t="n">
         <v>100.52</v>
@@ -15332,7 +15332,7 @@
         <v>0.06434000000000001</v>
       </c>
       <c r="S236" t="n">
-        <v>95.76238727253528</v>
+        <v>18.17711749752619</v>
       </c>
     </row>
     <row r="237">
@@ -15362,7 +15362,7 @@
         <v>16.88888888888889</v>
       </c>
       <c r="H237" t="n">
-        <v>14.3</v>
+        <v>-9.833333333333334</v>
       </c>
       <c r="I237" t="n">
         <v>99.75</v>
@@ -15395,7 +15395,7 @@
         <v>0.06292</v>
       </c>
       <c r="S237" t="n">
-        <v>84.70994926315362</v>
+        <v>15.111975972535</v>
       </c>
     </row>
     <row r="238">
@@ -15425,7 +15425,7 @@
         <v>15.44444444444444</v>
       </c>
       <c r="H238" t="n">
-        <v>32.4</v>
+        <v>0.2222222222222214</v>
       </c>
       <c r="I238" t="n">
         <v>99.75</v>
@@ -15458,7 +15458,7 @@
         <v>0.0615</v>
       </c>
       <c r="S238" t="n">
-        <v>277.638380907596</v>
+        <v>35.42346794527931</v>
       </c>
     </row>
     <row r="239">
@@ -15488,7 +15488,7 @@
         <v>14.22222222222222</v>
       </c>
       <c r="H239" t="n">
-        <v>26.7</v>
+        <v>-2.944444444444445</v>
       </c>
       <c r="I239" t="n">
         <v>100.36</v>
@@ -15521,7 +15521,7 @@
         <v>0.06007999999999999</v>
       </c>
       <c r="S239" t="n">
-        <v>216.1854839122731</v>
+        <v>30.3798456737681</v>
       </c>
     </row>
     <row r="240">
@@ -15551,7 +15551,7 @@
         <v>13</v>
       </c>
       <c r="H240" t="n">
-        <v>35.6</v>
+        <v>2.000000000000001</v>
       </c>
       <c r="I240" t="n">
         <v>100.34</v>
@@ -15584,7 +15584,7 @@
         <v>0.05865999999999999</v>
       </c>
       <c r="S240" t="n">
-        <v>388.958814383501</v>
+        <v>47.16092787865217</v>
       </c>
     </row>
     <row r="241">
@@ -15614,7 +15614,7 @@
         <v>7.888888888888891</v>
       </c>
       <c r="H241" t="n">
-        <v>40.1</v>
+        <v>4.500000000000001</v>
       </c>
       <c r="I241" t="n">
         <v>100.88</v>
@@ -15647,7 +15647,7 @@
         <v>0.05724000000000001</v>
       </c>
       <c r="S241" t="n">
-        <v>698.6412032177581</v>
+        <v>79.14559323375468</v>
       </c>
     </row>
     <row r="242">
@@ -15677,7 +15677,7 @@
         <v>9.333333333333332</v>
       </c>
       <c r="H242" t="n">
-        <v>25.3</v>
+        <v>-3.722222222222222</v>
       </c>
       <c r="I242" t="n">
         <v>101.08</v>
@@ -15710,7 +15710,7 @@
         <v>0.05582000000000001</v>
       </c>
       <c r="S242" t="n">
-        <v>274.793233681146</v>
+        <v>39.59014333641293</v>
       </c>
     </row>
     <row r="243">
@@ -15740,7 +15740,7 @@
         <v>10.16666666666667</v>
       </c>
       <c r="H243" t="n">
-        <v>20.7</v>
+        <v>-6.277777777777779</v>
       </c>
       <c r="I243" t="n">
         <v>101.13</v>
@@ -15773,7 +15773,7 @@
         <v>0.0544</v>
       </c>
       <c r="S243" t="n">
-        <v>196.6482967320641</v>
+        <v>30.85699404385085</v>
       </c>
     </row>
     <row r="244">
@@ -15803,7 +15803,7 @@
         <v>5.111111111111112</v>
       </c>
       <c r="H244" t="n">
-        <v>34.1</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="I244" t="n">
         <v>101.48</v>
@@ -15836,7 +15836,7 @@
         <v>0.05298</v>
       </c>
       <c r="S244" t="n">
-        <v>609.389133523072</v>
+        <v>75.65293002374426</v>
       </c>
     </row>
     <row r="245">
@@ -15866,7 +15866,7 @@
         <v>10.94444444444445</v>
       </c>
       <c r="H245" t="n">
-        <v>19.2</v>
+        <v>-7.111111111111112</v>
       </c>
       <c r="I245" t="n">
         <v>100.79</v>
@@ -15899,7 +15899,7 @@
         <v>0.05155999999999999</v>
       </c>
       <c r="S245" t="n">
-        <v>170.1327517288426</v>
+        <v>27.48320895571334</v>
       </c>
     </row>
     <row r="246">
@@ -15929,7 +15929,7 @@
         <v>11.66666666666667</v>
       </c>
       <c r="H246" t="n">
-        <v>23.5</v>
+        <v>-4.722222222222222</v>
       </c>
       <c r="I246" t="n">
         <v>100.66</v>
@@ -15962,7 +15962,7 @@
         <v>0.05013999999999999</v>
       </c>
       <c r="S246" t="n">
-        <v>211.1336982769141</v>
+        <v>31.43159574035511</v>
       </c>
     </row>
     <row r="247">
@@ -15992,7 +15992,7 @@
         <v>5.333333333333334</v>
       </c>
       <c r="H247" t="n">
-        <v>28.4</v>
+        <v>-2.000000000000001</v>
       </c>
       <c r="I247" t="n">
         <v>101.68</v>
@@ -16025,7 +16025,7 @@
         <v>0.04872000000000001</v>
       </c>
       <c r="S247" t="n">
-        <v>433.580386883937</v>
+        <v>59.15182169007864</v>
       </c>
     </row>
     <row r="248">
@@ -16055,7 +16055,7 @@
         <v>12.55555555555556</v>
       </c>
       <c r="H248" t="n">
-        <v>28</v>
+        <v>-2.222222222222222</v>
       </c>
       <c r="I248" t="n">
         <v>100.55</v>
@@ -16088,7 +16088,7 @@
         <v>0.04730000000000001</v>
       </c>
       <c r="S248" t="n">
-        <v>260.0960675199225</v>
+        <v>35.72983180678143</v>
       </c>
     </row>
     <row r="249">
@@ -16118,7 +16118,7 @@
         <v>7.888888888888891</v>
       </c>
       <c r="H249" t="n">
-        <v>22.1</v>
+        <v>-5.499999999999999</v>
       </c>
       <c r="I249" t="n">
         <v>101.32</v>
@@ -16151,7 +16151,7 @@
         <v>0.04588</v>
       </c>
       <c r="S249" t="n">
-        <v>249.8714256480311</v>
+        <v>38.18045641438831</v>
       </c>
     </row>
     <row r="250">
@@ -16181,7 +16181,7 @@
         <v>8.111111111111112</v>
       </c>
       <c r="H250" t="n">
-        <v>11.4</v>
+        <v>-11.44444444444445</v>
       </c>
       <c r="I250" t="n">
         <v>101.58</v>
@@ -16214,7 +16214,7 @@
         <v>0.04446</v>
       </c>
       <c r="S250" t="n">
-        <v>124.6874992358465</v>
+        <v>23.66753157095438</v>
       </c>
     </row>
     <row r="251">
@@ -16244,7 +16244,7 @@
         <v>6.277777777777777</v>
       </c>
       <c r="H251" t="n">
-        <v>6.5</v>
+        <v>-14.16666666666667</v>
       </c>
       <c r="I251" t="n">
         <v>101.45</v>
@@ -16277,7 +16277,7 @@
         <v>0.04303999999999999</v>
       </c>
       <c r="S251" t="n">
-        <v>101.5429731736615</v>
+        <v>21.53175150000644</v>
       </c>
     </row>
     <row r="252">
@@ -16307,7 +16307,7 @@
         <v>0.9999999999999984</v>
       </c>
       <c r="H252" t="n">
-        <v>-1.3</v>
+        <v>-18.5</v>
       </c>
       <c r="I252" t="n">
         <v>102.4</v>
@@ -16340,7 +16340,7 @@
         <v>0.04161999999999999</v>
       </c>
       <c r="S252" t="n">
-        <v>84.61039593590628</v>
+        <v>21.75913307022019</v>
       </c>
     </row>
     <row r="253">
@@ -16370,7 +16370,7 @@
         <v>7.944444444444443</v>
       </c>
       <c r="H253" t="n">
-        <v>-1.8</v>
+        <v>-18.77777777777778</v>
       </c>
       <c r="I253" t="n">
         <v>102.02</v>
@@ -16403,7 +16403,7 @@
         <v>0.04020000000000001</v>
       </c>
       <c r="S253" t="n">
-        <v>50.16359834113064</v>
+        <v>13.07076671901695</v>
       </c>
     </row>
     <row r="254">
@@ -16433,7 +16433,7 @@
         <v>7.777777777777779</v>
       </c>
       <c r="H254" t="n">
-        <v>18.7</v>
+        <v>-7.388888888888889</v>
       </c>
       <c r="I254" t="n">
         <v>101.08</v>
@@ -16466,7 +16466,7 @@
         <v>0.03878000000000001</v>
       </c>
       <c r="S254" t="n">
-        <v>204.0672720019776</v>
+        <v>33.29027306183051</v>
       </c>
     </row>
     <row r="255">
@@ -16496,7 +16496,7 @@
         <v>1.944444444444445</v>
       </c>
       <c r="H255" t="n">
-        <v>17.4</v>
+        <v>-8.111111111111112</v>
       </c>
       <c r="I255" t="n">
         <v>102.01</v>
@@ -16529,7 +16529,7 @@
         <v>0.03736</v>
       </c>
       <c r="S255" t="n">
-        <v>282.4884159478901</v>
+        <v>47.29039013649168</v>
       </c>
     </row>
     <row r="256">
@@ -16559,7 +16559,7 @@
         <v>1.555555555555554</v>
       </c>
       <c r="H256" t="n">
-        <v>9</v>
+        <v>-12.77777777777778</v>
       </c>
       <c r="I256" t="n">
         <v>102.63</v>
@@ -16592,7 +16592,7 @@
         <v>0.03594</v>
       </c>
       <c r="S256" t="n">
-        <v>167.8090836277745</v>
+        <v>33.59614594673999</v>
       </c>
     </row>
     <row r="257">
@@ -16622,7 +16622,7 @@
         <v>3.444444444444446</v>
       </c>
       <c r="H257" t="n">
-        <v>5.6</v>
+        <v>-14.66666666666667</v>
       </c>
       <c r="I257" t="n">
         <v>102.43</v>
@@ -16655,7 +16655,7 @@
         <v>0.03452</v>
       </c>
       <c r="S257" t="n">
-        <v>116.2731949719129</v>
+        <v>25.18320191934803</v>
       </c>
     </row>
     <row r="258">
@@ -16685,7 +16685,7 @@
         <v>2.222222222222222</v>
       </c>
       <c r="H258" t="n">
-        <v>-5.3</v>
+        <v>-20.72222222222222</v>
       </c>
       <c r="I258" t="n">
         <v>102.93</v>
@@ -16718,7 +16718,7 @@
         <v>0.03309999999999999</v>
       </c>
       <c r="S258" t="n">
-        <v>57.52432701784358</v>
+        <v>16.47346149986275</v>
       </c>
     </row>
     <row r="259">
@@ -16748,7 +16748,7 @@
         <v>3.222222222222221</v>
       </c>
       <c r="H259" t="n">
-        <v>-7.1</v>
+        <v>-21.72222222222222</v>
       </c>
       <c r="I259" t="n">
         <v>102.82</v>
@@ -16781,7 +16781,7 @@
         <v>0.03168000000000001</v>
       </c>
       <c r="S259" t="n">
-        <v>46.69793138525454</v>
+        <v>14.06506311908653</v>
       </c>
     </row>
     <row r="260">
@@ -16811,7 +16811,7 @@
         <v>8.333333333333334</v>
       </c>
       <c r="H260" t="n">
-        <v>5.8</v>
+        <v>-14.55555555555556</v>
       </c>
       <c r="I260" t="n">
         <v>101.45</v>
@@ -16844,7 +16844,7 @@
         <v>0.03026000000000001</v>
       </c>
       <c r="S260" t="n">
-        <v>84.06187551819801</v>
+        <v>18.1207191484453</v>
       </c>
     </row>
     <row r="261">
@@ -16874,7 +16874,7 @@
         <v>5.777777777777778</v>
       </c>
       <c r="H261" t="n">
-        <v>6.6</v>
+        <v>-14.11111111111111</v>
       </c>
       <c r="I261" t="n">
         <v>101.19</v>
@@ -16907,7 +16907,7 @@
         <v>0.02884</v>
       </c>
       <c r="S261" t="n">
-        <v>105.8385869442553</v>
+        <v>22.39021657897367</v>
       </c>
     </row>
     <row r="262">
@@ -16937,7 +16937,7 @@
         <v>6.500000000000002</v>
       </c>
       <c r="H262" t="n">
-        <v>14.9</v>
+        <v>-9.500000000000002</v>
       </c>
       <c r="I262" t="n">
         <v>101.79</v>
@@ -16970,7 +16970,7 @@
         <v>0.02742</v>
       </c>
       <c r="S262" t="n">
-        <v>174.9757240893454</v>
+        <v>30.82661348640724</v>
       </c>
     </row>
     <row r="263">
@@ -17000,7 +17000,7 @@
         <v>4.61111111111111</v>
       </c>
       <c r="H263" t="n">
-        <v>10.9</v>
+        <v>-11.72222222222222</v>
       </c>
       <c r="I263" t="n">
         <v>102.46</v>
@@ -17033,7 +17033,7 @@
         <v>0.026</v>
       </c>
       <c r="S263" t="n">
-        <v>153.524922228183</v>
+        <v>29.46227821630555</v>
       </c>
     </row>
     <row r="264">
@@ -17063,7 +17063,7 @@
         <v>3.499999999999999</v>
       </c>
       <c r="H264" t="n">
-        <v>14.9</v>
+        <v>-9.500000000000002</v>
       </c>
       <c r="I264" t="n">
         <v>102.54</v>
@@ -17096,7 +17096,7 @@
         <v>0.02457999999999999</v>
       </c>
       <c r="S264" t="n">
-        <v>215.6555867731107</v>
+        <v>37.99344997277736</v>
       </c>
     </row>
     <row r="265">
@@ -17126,7 +17126,7 @@
         <v>4.722222222222222</v>
       </c>
       <c r="H265" t="n">
-        <v>20.9</v>
+        <v>-6.166666666666668</v>
       </c>
       <c r="I265" t="n">
         <v>102.14</v>
@@ -17159,7 +17159,7 @@
         <v>0.02316000000000001</v>
       </c>
       <c r="S265" t="n">
-        <v>288.8107899520784</v>
+        <v>45.14551221532141</v>
       </c>
     </row>
     <row r="266">
@@ -17189,7 +17189,7 @@
         <v>2.055555555555557</v>
       </c>
       <c r="H266" t="n">
-        <v>24.8</v>
+        <v>-4</v>
       </c>
       <c r="I266" t="n">
         <v>101.97</v>
@@ -17222,7 +17222,7 @@
         <v>0.02174000000000001</v>
       </c>
       <c r="S266" t="n">
-        <v>441.6686309343119</v>
+        <v>64.20872300694101</v>
       </c>
     </row>
     <row r="267">
@@ -17252,7 +17252,7 @@
         <v>3.38888888888889</v>
       </c>
       <c r="H267" t="n">
-        <v>18.6</v>
+        <v>-7.444444444444444</v>
       </c>
       <c r="I267" t="n">
         <v>102</v>
@@ -17285,7 +17285,7 @@
         <v>0.02032</v>
       </c>
       <c r="S267" t="n">
-        <v>274.9479168999508</v>
+        <v>44.94184661492013</v>
       </c>
     </row>
     <row r="268">
@@ -17315,7 +17315,7 @@
         <v>1.222222222222224</v>
       </c>
       <c r="H268" t="n">
-        <v>15.3</v>
+        <v>-9.277777777777779</v>
       </c>
       <c r="I268" t="n">
         <v>102.62</v>
@@ -17348,7 +17348,7 @@
         <v>0.02032</v>
       </c>
       <c r="S268" t="n">
-        <v>260.2267564022823</v>
+        <v>45.46732786715753</v>
       </c>
     </row>
     <row r="269">
@@ -17378,7 +17378,7 @@
         <v>8.444444444444446</v>
       </c>
       <c r="H269" t="n">
-        <v>10.8</v>
+        <v>-11.77777777777778</v>
       </c>
       <c r="I269" t="n">
         <v>101.11</v>
@@ -17411,7 +17411,7 @@
         <v>0.02032</v>
       </c>
       <c r="S269" t="n">
-        <v>117.1388180202424</v>
+        <v>22.52909664846461</v>
       </c>
     </row>
     <row r="270">
@@ -17441,7 +17441,7 @@
         <v>1.444444444444445</v>
       </c>
       <c r="H270" t="n">
-        <v>9.4</v>
+        <v>-12.55555555555556</v>
       </c>
       <c r="I270" t="n">
         <v>102.16</v>
@@ -17474,7 +17474,7 @@
         <v>0.02032</v>
       </c>
       <c r="S270" t="n">
-        <v>173.7718297220767</v>
+        <v>34.47795658119369</v>
       </c>
     </row>
     <row r="271">
@@ -17504,7 +17504,7 @@
         <v>4.277777777777779</v>
       </c>
       <c r="H271" t="n">
-        <v>5.6</v>
+        <v>-14.66666666666667</v>
       </c>
       <c r="I271" t="n">
         <v>101.95</v>
@@ -17537,7 +17537,7 @@
         <v>0.02032</v>
       </c>
       <c r="S271" t="n">
-        <v>109.6554547525441</v>
+        <v>23.74988886525666</v>
       </c>
     </row>
     <row r="272">
@@ -17567,7 +17567,7 @@
         <v>3.499999999999999</v>
       </c>
       <c r="H272" t="n">
-        <v>9.1</v>
+        <v>-12.72222222222222</v>
       </c>
       <c r="I272" t="n">
         <v>101.12</v>
@@ -17600,7 +17600,7 @@
         <v>0.02032</v>
       </c>
       <c r="S272" t="n">
-        <v>147.1354022501429</v>
+        <v>29.39078215356676</v>
       </c>
     </row>
     <row r="273">
@@ -17630,7 +17630,7 @@
         <v>-4.555555555555555</v>
       </c>
       <c r="H273" t="n">
-        <v>15</v>
+        <v>-9.444444444444445</v>
       </c>
       <c r="I273" t="n">
         <v>103</v>
@@ -17663,7 +17663,7 @@
         <v>0.02032</v>
       </c>
       <c r="S273" t="n">
-        <v>390.4863926718394</v>
+        <v>68.65179460824388</v>
       </c>
     </row>
     <row r="274">
@@ -17693,7 +17693,7 @@
         <v>-3.777777777777778</v>
       </c>
       <c r="H274" t="n">
-        <v>10.1</v>
+        <v>-12.16666666666667</v>
       </c>
       <c r="I274" t="n">
         <v>102.7</v>
@@ -17726,7 +17726,7 @@
         <v>0.02032</v>
       </c>
       <c r="S274" t="n">
-        <v>267.0312239086414</v>
+        <v>52.15924259596329</v>
       </c>
     </row>
     <row r="275">
@@ -17756,7 +17756,7 @@
         <v>-5.166666666666667</v>
       </c>
       <c r="H275" t="n">
-        <v>9.6</v>
+        <v>-12.44444444444444</v>
       </c>
       <c r="I275" t="n">
         <v>102.87</v>
@@ -17789,7 +17789,7 @@
         <v>0.02032</v>
       </c>
       <c r="S275" t="n">
-        <v>286.7020248452788</v>
+        <v>56.6298266981722</v>
       </c>
     </row>
     <row r="276">
@@ -17819,7 +17819,7 @@
         <v>-0.6666666666666663</v>
       </c>
       <c r="H276" t="n">
-        <v>0.7</v>
+        <v>-17.38888888888889</v>
       </c>
       <c r="I276" t="n">
         <v>102.19</v>
@@ -17852,7 +17852,7 @@
         <v>0.02032</v>
       </c>
       <c r="S276" t="n">
-        <v>110.4244890044682</v>
+        <v>26.9715880737293</v>
       </c>
     </row>
     <row r="277">
@@ -17882,7 +17882,7 @@
         <v>-0.4444444444444449</v>
       </c>
       <c r="H277" t="n">
-        <v>2.6</v>
+        <v>-16.33333333333333</v>
       </c>
       <c r="I277" t="n">
         <v>102.06</v>
@@ -17915,7 +17915,7 @@
         <v>0.02032</v>
       </c>
       <c r="S277" t="n">
-        <v>124.4820158450798</v>
+        <v>28.99154262742228</v>
       </c>
     </row>
     <row r="278">
@@ -17945,7 +17945,7 @@
         <v>-2.944444444444445</v>
       </c>
       <c r="H278" t="n">
-        <v>0.2</v>
+        <v>-17.66666666666667</v>
       </c>
       <c r="I278" t="n">
         <v>102.72</v>
@@ -17978,7 +17978,7 @@
         <v>0.02032</v>
       </c>
       <c r="S278" t="n">
-        <v>125.9589029703194</v>
+        <v>31.16051248104432</v>
       </c>
     </row>
     <row r="279">
@@ -18008,7 +18008,7 @@
         <v>1.277777777777776</v>
       </c>
       <c r="H279" t="n">
-        <v>-2.7</v>
+        <v>-19.27777777777778</v>
       </c>
       <c r="I279" t="n">
         <v>101.69</v>
@@ -18041,7 +18041,7 @@
         <v>0.02032</v>
       </c>
       <c r="S279" t="n">
-        <v>74.79888530102839</v>
+        <v>19.96000170317583</v>
       </c>
     </row>
     <row r="280">
@@ -18071,7 +18071,7 @@
         <v>-1.333333333333333</v>
       </c>
       <c r="H280" t="n">
-        <v>0.4</v>
+        <v>-17.55555555555556</v>
       </c>
       <c r="I280" t="n">
         <v>101.77</v>
@@ -18104,7 +18104,7 @@
         <v>0.02032</v>
       </c>
       <c r="S280" t="n">
-        <v>113.45855824713</v>
+        <v>27.92507941343019</v>
       </c>
     </row>
     <row r="281">
@@ -18134,7 +18134,7 @@
         <v>-6.777777777777778</v>
       </c>
       <c r="H281" t="n">
-        <v>10.5</v>
+        <v>-11.94444444444444</v>
       </c>
       <c r="I281" t="n">
         <v>103.09</v>
@@ -18167,7 +18167,7 @@
         <v>0.02032</v>
       </c>
       <c r="S281" t="n">
-        <v>344.3113840156736</v>
+        <v>66.660551877152</v>
       </c>
     </row>
     <row r="282">
@@ -18197,7 +18197,7 @@
         <v>-1.777777777777777</v>
       </c>
       <c r="H282" t="n">
-        <v>6.2</v>
+        <v>-14.33333333333333</v>
       </c>
       <c r="I282" t="n">
         <v>102.48</v>
@@ -18230,7 +18230,7 @@
         <v>0.01016</v>
       </c>
       <c r="S282" t="n">
-        <v>176.5967719025009</v>
+        <v>37.7108682743506</v>
       </c>
     </row>
     <row r="283">
@@ -18260,7 +18260,7 @@
         <v>-4.666666666666666</v>
       </c>
       <c r="H283" t="n">
-        <v>0.7</v>
+        <v>-17.38888888888889</v>
       </c>
       <c r="I283" t="n">
         <v>102.85</v>
@@ -18293,7 +18293,7 @@
         <v>0.01016</v>
       </c>
       <c r="S283" t="n">
-        <v>148.5739747099423</v>
+        <v>36.28974044146214</v>
       </c>
     </row>
     <row r="284">
@@ -18323,7 +18323,7 @@
         <v>-3.666666666666667</v>
       </c>
       <c r="H284" t="n">
-        <v>-2.9</v>
+        <v>-19.38888888888889</v>
       </c>
       <c r="I284" t="n">
         <v>102.85</v>
@@ -18356,7 +18356,7 @@
         <v>0.01016</v>
       </c>
       <c r="S284" t="n">
-        <v>105.8831439871242</v>
+        <v>28.40606517509312</v>
       </c>
     </row>
     <row r="285">
@@ -18386,7 +18386,7 @@
         <v>-2.111111111111112</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>-17.77777777777778</v>
       </c>
       <c r="I285" t="n">
         <v>102.24</v>
@@ -18419,7 +18419,7 @@
         <v>0.01016</v>
       </c>
       <c r="S285" t="n">
-        <v>116.7116583588066</v>
+        <v>29.02116556003982</v>
       </c>
     </row>
     <row r="286">
@@ -18449,7 +18449,7 @@
         <v>0.777777777777777</v>
       </c>
       <c r="H286" t="n">
-        <v>-2.3</v>
+        <v>-19.05555555555555</v>
       </c>
       <c r="I286" t="n">
         <v>101.16</v>
@@ -18482,7 +18482,7 @@
         <v>0.01016</v>
       </c>
       <c r="S286" t="n">
-        <v>79.87109910488843</v>
+        <v>21.08809374720014</v>
       </c>
     </row>
     <row r="287">
@@ -18512,7 +18512,7 @@
         <v>-4.666666666666666</v>
       </c>
       <c r="H287" t="n">
-        <v>-7.4</v>
+        <v>-21.88888888888889</v>
       </c>
       <c r="I287" t="n">
         <v>102.35</v>
@@ -18545,7 +18545,7 @@
         <v>0.01016</v>
       </c>
       <c r="S287" t="n">
-        <v>81.17499238515374</v>
+        <v>24.65888581181463</v>
       </c>
     </row>
     <row r="288">
@@ -18575,7 +18575,7 @@
         <v>-6.444444444444446</v>
       </c>
       <c r="H288" t="n">
-        <v>-5.4</v>
+        <v>-20.77777777777778</v>
       </c>
       <c r="I288" t="n">
         <v>102.51</v>
@@ -18608,7 +18608,7 @@
         <v>0.01016</v>
       </c>
       <c r="S288" t="n">
-        <v>108.2873343377198</v>
+        <v>31.09663964876758</v>
       </c>
     </row>
     <row r="289">
@@ -18638,7 +18638,7 @@
         <v>-4</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>-17.77777777777778</v>
       </c>
       <c r="I289" t="n">
         <v>102.69</v>
@@ -18671,7 +18671,7 @@
         <v>0.01016</v>
       </c>
       <c r="S289" t="n">
-        <v>134.3280588730061</v>
+        <v>33.40160606687267</v>
       </c>
     </row>
     <row r="290">
@@ -18701,7 +18701,7 @@
         <v>-3.277777777777777</v>
       </c>
       <c r="H290" t="n">
-        <v>-1.8</v>
+        <v>-18.77777777777778</v>
       </c>
       <c r="I290" t="n">
         <v>102.5</v>
@@ -18734,7 +18734,7 @@
         <v>0.01016</v>
       </c>
       <c r="S290" t="n">
-        <v>111.5731519950621</v>
+        <v>29.07181083612846</v>
       </c>
     </row>
     <row r="291">
@@ -18764,7 +18764,7 @@
         <v>-4.111111111111111</v>
       </c>
       <c r="H291" t="n">
-        <v>-6.3</v>
+        <v>-21.27777777777778</v>
       </c>
       <c r="I291" t="n">
         <v>101.88</v>
@@ -18797,7 +18797,7 @@
         <v>0.01016</v>
       </c>
       <c r="S291" t="n">
-        <v>84.71651858074893</v>
+        <v>24.94618546658207</v>
       </c>
     </row>
     <row r="292">
@@ -18827,7 +18827,7 @@
         <v>-3.777777777777778</v>
       </c>
       <c r="H292" t="n">
-        <v>-2.4</v>
+        <v>-19.11111111111111</v>
       </c>
       <c r="I292" t="n">
         <v>101.96</v>
@@ -18860,7 +18860,7 @@
         <v>0.01016</v>
       </c>
       <c r="S292" t="n">
-        <v>110.8011937220556</v>
+        <v>29.33216216762647</v>
       </c>
     </row>
     <row r="293">
@@ -18890,7 +18890,7 @@
         <v>-6.333333333333333</v>
       </c>
       <c r="H293" t="n">
-        <v>-2.3</v>
+        <v>-19.05555555555555</v>
       </c>
       <c r="I293" t="n">
         <v>102.68</v>
@@ -18923,7 +18923,7 @@
         <v>0.01016</v>
       </c>
       <c r="S293" t="n">
-        <v>135.4411764522009</v>
+        <v>35.76007164374025</v>
       </c>
     </row>
     <row r="294">
@@ -18953,7 +18953,7 @@
         <v>-2.5</v>
       </c>
       <c r="H294" t="n">
-        <v>-6.2</v>
+        <v>-21.22222222222222</v>
       </c>
       <c r="I294" t="n">
         <v>101.95</v>
@@ -18986,7 +18986,7 @@
         <v>0.01016</v>
       </c>
       <c r="S294" t="n">
-        <v>75.70166595029319</v>
+        <v>22.22917703856482</v>
       </c>
     </row>
     <row r="295">
@@ -19016,7 +19016,7 @@
         <v>-6.166666666666668</v>
       </c>
       <c r="H295" t="n">
-        <v>-3.2</v>
+        <v>-19.55555555555556</v>
       </c>
       <c r="I295" t="n">
         <v>102.38</v>
@@ -19049,7 +19049,7 @@
         <v>0.01016</v>
       </c>
       <c r="S295" t="n">
-        <v>125.084124799184</v>
+        <v>33.82806016442176</v>
       </c>
     </row>
     <row r="296">
@@ -19079,7 +19079,7 @@
         <v>-4.555555555555555</v>
       </c>
       <c r="H296" t="n">
-        <v>-5.4</v>
+        <v>-20.77777777777778</v>
       </c>
       <c r="I296" t="n">
         <v>102.58</v>
@@ -19112,7 +19112,7 @@
         <v>0.01016</v>
       </c>
       <c r="S296" t="n">
-        <v>93.81333840830173</v>
+        <v>26.94017353527806</v>
       </c>
     </row>
     <row r="297">
@@ -19142,7 +19142,7 @@
         <v>-6.666666666666667</v>
       </c>
       <c r="H297" t="n">
-        <v>-9.6</v>
+        <v>-23.11111111111111</v>
       </c>
       <c r="I297" t="n">
         <v>101.72</v>
@@ -19175,7 +19175,7 @@
         <v>0.01016</v>
       </c>
       <c r="S297" t="n">
-        <v>79.62541933797228</v>
+        <v>25.78001058968869</v>
       </c>
     </row>
     <row r="298">
@@ -19205,7 +19205,7 @@
         <v>-1.722222222222223</v>
       </c>
       <c r="H298" t="n">
-        <v>-4</v>
+        <v>-20</v>
       </c>
       <c r="I298" t="n">
         <v>101.49</v>
@@ -19238,7 +19238,7 @@
         <v>0.01016</v>
       </c>
       <c r="S298" t="n">
-        <v>84.42990232654088</v>
+        <v>23.3320604716708</v>
       </c>
     </row>
     <row r="299">
@@ -19268,7 +19268,7 @@
         <v>-8.166666666666666</v>
       </c>
       <c r="H299" t="n">
-        <v>0.4</v>
+        <v>-17.55555555555556</v>
       </c>
       <c r="I299" t="n">
         <v>103.22</v>
@@ -19301,7 +19301,7 @@
         <v>0.01016</v>
       </c>
       <c r="S299" t="n">
-        <v>190.0606680596644</v>
+        <v>46.77883564653862</v>
       </c>
     </row>
     <row r="300">
@@ -19331,7 +19331,7 @@
         <v>-8.5</v>
       </c>
       <c r="H300" t="n">
-        <v>-4.8</v>
+        <v>-20.44444444444444</v>
       </c>
       <c r="I300" t="n">
         <v>103.22</v>
@@ -19364,7 +19364,7 @@
         <v>0.01064380952380952</v>
       </c>
       <c r="S300" t="n">
-        <v>132.8171234322348</v>
+        <v>37.51463863509662</v>
       </c>
     </row>
     <row r="301">
@@ -19394,7 +19394,7 @@
         <v>-7.722222222222221</v>
       </c>
       <c r="H301" t="n">
-        <v>-6.6</v>
+        <v>-21.44444444444445</v>
       </c>
       <c r="I301" t="n">
         <v>103.48</v>
@@ -19427,7 +19427,7 @@
         <v>0.01112761904761905</v>
       </c>
       <c r="S301" t="n">
-        <v>109.0292825851067</v>
+        <v>32.37755162524237</v>
       </c>
     </row>
     <row r="302">
@@ -19457,7 +19457,7 @@
         <v>-8.333333333333334</v>
       </c>
       <c r="H302" t="n">
-        <v>-10.2</v>
+        <v>-23.44444444444445</v>
       </c>
       <c r="I302" t="n">
         <v>102.84</v>
@@ -19490,7 +19490,7 @@
         <v>0.01161142857142857</v>
       </c>
       <c r="S302" t="n">
-        <v>86.38206383776962</v>
+        <v>28.46804097545517</v>
       </c>
     </row>
     <row r="303">
@@ -19520,7 +19520,7 @@
         <v>-7.166666666666666</v>
       </c>
       <c r="H303" t="n">
-        <v>-10.3</v>
+        <v>-23.5</v>
       </c>
       <c r="I303" t="n">
         <v>102.83</v>
@@ -19553,7 +19553,7 @@
         <v>0.0120952380952381</v>
       </c>
       <c r="S303" t="n">
-        <v>78.30035107218127</v>
+        <v>25.88141312791183</v>
       </c>
     </row>
     <row r="304">
@@ -19583,7 +19583,7 @@
         <v>-12.94444444444444</v>
       </c>
       <c r="H304" t="n">
-        <v>-17.1</v>
+        <v>-27.27777777777778</v>
       </c>
       <c r="I304" t="n">
         <v>104.61</v>
@@ -19616,7 +19616,7 @@
         <v>0.01257904761904762</v>
       </c>
       <c r="S304" t="n">
-        <v>70.99639920989426</v>
+        <v>29.02230042930772</v>
       </c>
     </row>
     <row r="305">
@@ -19646,7 +19646,7 @@
         <v>-12.55555555555556</v>
       </c>
       <c r="H305" t="n">
-        <v>-23.4</v>
+        <v>-30.77777777777778</v>
       </c>
       <c r="I305" t="n">
         <v>104.94</v>
@@ -19679,7 +19679,7 @@
         <v>0.01306285714285714</v>
       </c>
       <c r="S305" t="n">
-        <v>39.93400208389662</v>
+        <v>20.27179487855696</v>
       </c>
     </row>
     <row r="306">
@@ -19709,7 +19709,7 @@
         <v>-11.5</v>
       </c>
       <c r="H306" t="n">
-        <v>-15.8</v>
+        <v>-26.55555555555555</v>
       </c>
       <c r="I306" t="n">
         <v>103.98</v>
@@ -19742,7 +19742,7 @@
         <v>0.01354666666666667</v>
       </c>
       <c r="S306" t="n">
-        <v>70.4526251110278</v>
+        <v>27.60837331178008</v>
       </c>
     </row>
     <row r="307">
@@ -19772,7 +19772,7 @@
         <v>-13</v>
       </c>
       <c r="H307" t="n">
-        <v>-14.7</v>
+        <v>-25.94444444444445</v>
       </c>
       <c r="I307" t="n">
         <v>103.77</v>
@@ -19805,7 +19805,7 @@
         <v>0.01403047619047619</v>
       </c>
       <c r="S307" t="n">
-        <v>87.04944109684121</v>
+        <v>32.93443100774617</v>
       </c>
     </row>
     <row r="308">
@@ -19835,7 +19835,7 @@
         <v>-11.27777777777778</v>
       </c>
       <c r="H308" t="n">
-        <v>-20.4</v>
+        <v>-29.11111111111111</v>
       </c>
       <c r="I308" t="n">
         <v>103.28</v>
@@ -19868,7 +19868,7 @@
         <v>0.01451428571428572</v>
       </c>
       <c r="S308" t="n">
-        <v>46.87960216505485</v>
+        <v>21.41217249598388</v>
       </c>
     </row>
     <row r="309">
@@ -19898,7 +19898,7 @@
         <v>-8.388888888888889</v>
       </c>
       <c r="H309" t="n">
-        <v>-18.1</v>
+        <v>-27.83333333333334</v>
       </c>
       <c r="I309" t="n">
         <v>102.56</v>
@@ -19931,7 +19931,7 @@
         <v>0.01499809523809524</v>
       </c>
       <c r="S309" t="n">
-        <v>45.45461469996654</v>
+        <v>19.20565264194465</v>
       </c>
     </row>
     <row r="310">
@@ -19961,7 +19961,7 @@
         <v>-14.72222222222222</v>
       </c>
       <c r="H310" t="n">
-        <v>-18.2</v>
+        <v>-27.88888888888889</v>
       </c>
       <c r="I310" t="n">
         <v>103.73</v>
@@ -19994,7 +19994,7 @@
         <v>0.01548190476190476</v>
       </c>
       <c r="S310" t="n">
-        <v>74.80314825666522</v>
+        <v>31.71159539472513</v>
       </c>
     </row>
     <row r="311">
@@ -20024,7 +20024,7 @@
         <v>-14.33333333333333</v>
       </c>
       <c r="H311" t="n">
-        <v>-22.1</v>
+        <v>-30.05555555555556</v>
       </c>
       <c r="I311" t="n">
         <v>104.28</v>
@@ -20057,7 +20057,7 @@
         <v>0.01596571428571428</v>
       </c>
       <c r="S311" t="n">
-        <v>51.75602133779655</v>
+        <v>25.08321673352706</v>
       </c>
     </row>
     <row r="312">
@@ -20087,7 +20087,7 @@
         <v>-15.05555555555556</v>
       </c>
       <c r="H312" t="n">
-        <v>-28.1</v>
+        <v>-33.38888888888889</v>
       </c>
       <c r="I312" t="n">
         <v>103.92</v>
@@ -20120,7 +20120,7 @@
         <v>0.01644952380952381</v>
       </c>
       <c r="S312" t="n">
-        <v>31.96259829894515</v>
+        <v>19.33186696091437</v>
       </c>
     </row>
     <row r="313">
@@ -20150,7 +20150,7 @@
         <v>-11.83333333333333</v>
       </c>
       <c r="H313" t="n">
-        <v>-12.4</v>
+        <v>-24.66666666666667</v>
       </c>
       <c r="I313" t="n">
         <v>103.87</v>
@@ -20183,7 +20183,7 @@
         <v>0.01693333333333333</v>
       </c>
       <c r="S313" t="n">
-        <v>95.54807152631317</v>
+        <v>33.64937336659805</v>
       </c>
     </row>
     <row r="314">
@@ -20213,7 +20213,7 @@
         <v>-9.888888888888889</v>
       </c>
       <c r="H314" t="n">
-        <v>-11.5</v>
+        <v>-24.16666666666667</v>
       </c>
       <c r="I314" t="n">
         <v>103.715</v>
@@ -20246,7 +20246,7 @@
         <v>0.01741714285714286</v>
       </c>
       <c r="S314" t="n">
-        <v>87.99390408594323</v>
+        <v>30.15131895396764</v>
       </c>
     </row>
     <row r="315">
@@ -20276,7 +20276,7 @@
         <v>-10.5</v>
       </c>
       <c r="H315" t="n">
-        <v>-13.4</v>
+        <v>-25.22222222222222</v>
       </c>
       <c r="I315" t="n">
         <v>103.56</v>
@@ -20309,7 +20309,7 @@
         <v>0.01790095238095238</v>
       </c>
       <c r="S315" t="n">
-        <v>79.2363830562213</v>
+        <v>28.77972152607598</v>
       </c>
     </row>
     <row r="316">
@@ -20339,7 +20339,7 @@
         <v>-5.499999999999999</v>
       </c>
       <c r="H316" t="n">
-        <v>-23.7</v>
+        <v>-30.94444444444445</v>
       </c>
       <c r="I316" t="n">
         <v>103.65</v>
@@ -20372,7 +20372,7 @@
         <v>0.0183847619047619</v>
       </c>
       <c r="S316" t="n">
-        <v>22.38156315897854</v>
+        <v>11.48522571748482</v>
       </c>
     </row>
     <row r="317">
@@ -20402,7 +20402,7 @@
         <v>-6.277777777777779</v>
       </c>
       <c r="H317" t="n">
-        <v>-18.1</v>
+        <v>-27.83333333333334</v>
       </c>
       <c r="I317" t="n">
         <v>102.82</v>
@@ -20435,7 +20435,7 @@
         <v>0.01886857142857143</v>
       </c>
       <c r="S317" t="n">
-        <v>38.62319409948859</v>
+        <v>16.31921543485727</v>
       </c>
     </row>
     <row r="318">
@@ -20465,7 +20465,7 @@
         <v>-3.222222222222223</v>
       </c>
       <c r="H318" t="n">
-        <v>-15.8</v>
+        <v>-26.55555555555555</v>
       </c>
       <c r="I318" t="n">
         <v>102.52</v>
@@ -20498,7 +20498,7 @@
         <v>0.01935238095238095</v>
       </c>
       <c r="S318" t="n">
-        <v>37.1892123531202</v>
+        <v>14.57339107234052</v>
       </c>
     </row>
     <row r="319">
@@ -20528,7 +20528,7 @@
         <v>-2.722222222222221</v>
       </c>
       <c r="H319" t="n">
-        <v>-12</v>
+        <v>-24.44444444444445</v>
       </c>
       <c r="I319" t="n">
         <v>101.57</v>
@@ -20561,7 +20561,7 @@
         <v>0.01983619047619048</v>
       </c>
       <c r="S319" t="n">
-        <v>48.86233476243865</v>
+        <v>16.99889345423597</v>
       </c>
     </row>
     <row r="320">
@@ -20591,7 +20591,7 @@
         <v>-17.16666666666667</v>
       </c>
       <c r="H320" t="n">
-        <v>-5.2</v>
+        <v>-20.66666666666667</v>
       </c>
       <c r="I320" t="n">
         <v>104.41</v>
@@ -20624,7 +20624,7 @@
         <v>0.02032</v>
       </c>
       <c r="S320" t="n">
-        <v>259.7715355127174</v>
+        <v>74.18637028176548</v>
       </c>
     </row>
     <row r="321">
@@ -20654,7 +20654,7 @@
         <v>-18.27777777777778</v>
       </c>
       <c r="H321" t="n">
-        <v>-16.1</v>
+        <v>-26.72222222222222</v>
       </c>
       <c r="I321" t="n">
         <v>104.79</v>
@@ -20687,7 +20687,7 @@
         <v>0.02032</v>
       </c>
       <c r="S321" t="n">
-        <v>120.0761937986245</v>
+        <v>47.51216211925966</v>
       </c>
     </row>
     <row r="322">
@@ -20717,7 +20717,7 @@
         <v>-14.44444444444444</v>
       </c>
       <c r="H322" t="n">
-        <v>-19</v>
+        <v>-28.33333333333334</v>
       </c>
       <c r="I322" t="n">
         <v>103.95</v>
@@ -20750,7 +20750,7 @@
         <v>0.01016</v>
       </c>
       <c r="S322" t="n">
-        <v>68.30611746380795</v>
+        <v>29.74481915457657</v>
       </c>
     </row>
     <row r="323">
@@ -20780,7 +20780,7 @@
         <v>-14.05555555555556</v>
       </c>
       <c r="H323" t="n">
-        <v>-14.8</v>
+        <v>-26</v>
       </c>
       <c r="I323" t="n">
         <v>103.26</v>
@@ -20813,7 +20813,7 @@
         <v>0.01016</v>
       </c>
       <c r="S323" t="n">
-        <v>94.0784341878922</v>
+        <v>35.706839954859</v>
       </c>
     </row>
     <row r="324">
@@ -20843,7 +20843,7 @@
         <v>-15.44444444444444</v>
       </c>
       <c r="H324" t="n">
-        <v>-10.4</v>
+        <v>-23.55555555555556</v>
       </c>
       <c r="I324" t="n">
         <v>103.53</v>
@@ -20876,7 +20876,7 @@
         <v>0.01016</v>
       </c>
       <c r="S324" t="n">
-        <v>150.4239348261659</v>
+        <v>49.86930939020341</v>
       </c>
     </row>
     <row r="325">
@@ -20906,7 +20906,7 @@
         <v>-12.27777777777778</v>
       </c>
       <c r="H325" t="n">
-        <v>-15.1</v>
+        <v>-26.16666666666667</v>
       </c>
       <c r="I325" t="n">
         <v>103.38</v>
@@ -20939,7 +20939,7 @@
         <v>0.01016</v>
       </c>
       <c r="S325" t="n">
-        <v>79.4586944818558</v>
+        <v>30.44712360331373</v>
       </c>
     </row>
     <row r="326">
@@ -20969,7 +20969,7 @@
         <v>-14.33333333333333</v>
       </c>
       <c r="H326" t="n">
-        <v>-21.7</v>
+        <v>-29.83333333333334</v>
       </c>
       <c r="I326" t="n">
         <v>103.95</v>
@@ -21002,7 +21002,7 @@
         <v>0.01016</v>
       </c>
       <c r="S326" t="n">
-        <v>53.60209877349818</v>
+        <v>25.61464556901919</v>
       </c>
     </row>
     <row r="327">
@@ -21032,7 +21032,7 @@
         <v>-11.5</v>
       </c>
       <c r="H327" t="n">
-        <v>-15</v>
+        <v>-26.11111111111111</v>
       </c>
       <c r="I327" t="n">
         <v>102.88</v>
@@ -21065,7 +21065,7 @@
         <v>0.01016</v>
       </c>
       <c r="S327" t="n">
-        <v>75.27119840635217</v>
+        <v>28.75083732788932</v>
       </c>
     </row>
     <row r="328">
@@ -21095,7 +21095,7 @@
         <v>-8</v>
       </c>
       <c r="H328" t="n">
-        <v>-7.6</v>
+        <v>-22</v>
       </c>
       <c r="I328" t="n">
         <v>102.36</v>
@@ -21128,7 +21128,7 @@
         <v>0.01016</v>
       </c>
       <c r="S328" t="n">
-        <v>103.146452419557</v>
+        <v>31.51271461657962</v>
       </c>
     </row>
     <row r="329">
@@ -21158,7 +21158,7 @@
         <v>-9.277777777777779</v>
       </c>
       <c r="H329" t="n">
-        <v>-12.3</v>
+        <v>-24.61111111111111</v>
       </c>
       <c r="I329" t="n">
         <v>103.28</v>
@@ -21191,7 +21191,7 @@
         <v>0.01016</v>
       </c>
       <c r="S329" t="n">
-        <v>78.65257965992875</v>
+        <v>27.61455115265703</v>
       </c>
     </row>
     <row r="330">
@@ -21221,7 +21221,7 @@
         <v>-11.22222222222222</v>
       </c>
       <c r="H330" t="n">
-        <v>-10.2</v>
+        <v>-23.44444444444445</v>
       </c>
       <c r="I330" t="n">
         <v>103.59</v>
@@ -21254,7 +21254,7 @@
         <v>0.01016</v>
       </c>
       <c r="S330" t="n">
-        <v>108.4547732420612</v>
+        <v>35.7423149143228</v>
       </c>
     </row>
     <row r="331">
@@ -21284,7 +21284,7 @@
         <v>-7.611111111111111</v>
       </c>
       <c r="H331" t="n">
-        <v>-12.4</v>
+        <v>-24.66666666666667</v>
       </c>
       <c r="I331" t="n">
         <v>103.4</v>
@@ -21317,7 +21317,7 @@
         <v>0.01016</v>
       </c>
       <c r="S331" t="n">
-        <v>68.52477688910066</v>
+        <v>24.13252057912204</v>
       </c>
     </row>
     <row r="332">
@@ -21347,7 +21347,7 @@
         <v>-1.944444444444445</v>
       </c>
       <c r="H332" t="n">
-        <v>-19.4</v>
+        <v>-28.55555555555556</v>
       </c>
       <c r="I332" t="n">
         <v>102.47</v>
@@ -21380,7 +21380,7 @@
         <v>0.01016</v>
       </c>
       <c r="S332" t="n">
-        <v>24.9716871352034</v>
+        <v>11.02244002162485</v>
       </c>
     </row>
     <row r="333">
@@ -21410,7 +21410,7 @@
         <v>1.277777777777776</v>
       </c>
       <c r="H333" t="n">
-        <v>-11.9</v>
+        <v>-24.38888888888889</v>
       </c>
       <c r="I333" t="n">
         <v>100.59</v>
@@ -21443,7 +21443,7 @@
         <v>0.01016</v>
       </c>
       <c r="S333" t="n">
-        <v>36.78225585794843</v>
+        <v>12.75740780971669</v>
       </c>
     </row>
     <row r="334">
@@ -21473,7 +21473,7 @@
         <v>-2.833333333333334</v>
       </c>
       <c r="H334" t="n">
-        <v>0.5</v>
+        <v>-17.5</v>
       </c>
       <c r="I334" t="n">
         <v>101.94</v>
@@ -21506,7 +21506,7 @@
         <v>0.01016</v>
       </c>
       <c r="S334" t="n">
-        <v>127.6644730732438</v>
+        <v>31.34153734181101</v>
       </c>
     </row>
     <row r="335">
@@ -21536,7 +21536,7 @@
         <v>-5.944444444444445</v>
       </c>
       <c r="H335" t="n">
-        <v>-13.3</v>
+        <v>-25.16666666666667</v>
       </c>
       <c r="I335" t="n">
         <v>102.33</v>
@@ -21569,7 +21569,7 @@
         <v>0.01016</v>
       </c>
       <c r="S335" t="n">
-        <v>56.06065359894063</v>
+        <v>20.2988133828302</v>
       </c>
     </row>
     <row r="336">
@@ -21599,7 +21599,7 @@
         <v>-2.333333333333333</v>
       </c>
       <c r="H336" t="n">
-        <v>-16.8</v>
+        <v>-27.11111111111111</v>
       </c>
       <c r="I336" t="n">
         <v>102.35</v>
@@ -21632,7 +21632,7 @@
         <v>0.01016</v>
       </c>
       <c r="S336" t="n">
-        <v>32.02973016630168</v>
+        <v>12.9653074895686</v>
       </c>
     </row>
     <row r="337">
@@ -21662,7 +21662,7 @@
         <v>-4.166666666666667</v>
       </c>
       <c r="H337" t="n">
-        <v>-14.9</v>
+        <v>-26.05555555555556</v>
       </c>
       <c r="I337" t="n">
         <v>101.74</v>
@@ -21695,7 +21695,7 @@
         <v>0.01016</v>
       </c>
       <c r="S337" t="n">
-        <v>42.99467943948933</v>
+        <v>16.37024630007784</v>
       </c>
     </row>
     <row r="338">
@@ -21725,7 +21725,7 @@
         <v>-2.888888888888889</v>
       </c>
       <c r="H338" t="n">
-        <v>-15.2</v>
+        <v>-26.22222222222222</v>
       </c>
       <c r="I338" t="n">
         <v>101.78</v>
@@ -21758,7 +21758,7 @@
         <v>0.01016</v>
       </c>
       <c r="S338" t="n">
-        <v>38.12508201320099</v>
+        <v>14.65550617524891</v>
       </c>
     </row>
     <row r="339">
@@ -21788,7 +21788,7 @@
         <v>-3.555555555555555</v>
       </c>
       <c r="H339" t="n">
-        <v>-15.4</v>
+        <v>-26.33333333333333</v>
       </c>
       <c r="I339" t="n">
         <v>101.94</v>
@@ -21821,7 +21821,7 @@
         <v>0.01016</v>
       </c>
       <c r="S339" t="n">
-        <v>39.41048154270101</v>
+        <v>15.24678274273616</v>
       </c>
     </row>
     <row r="340">
@@ -21851,7 +21851,7 @@
         <v>-2.111111111111112</v>
       </c>
       <c r="H340" t="n">
-        <v>-7.8</v>
+        <v>-22.11111111111111</v>
       </c>
       <c r="I340" t="n">
         <v>101.16</v>
@@ -21884,7 +21884,7 @@
         <v>0.01016</v>
       </c>
       <c r="S340" t="n">
-        <v>65.03688896213745</v>
+        <v>19.98383103911971</v>
       </c>
     </row>
     <row r="341">
@@ -21914,7 +21914,7 @@
         <v>-8.833333333333332</v>
       </c>
       <c r="H341" t="n">
-        <v>-0.3</v>
+        <v>-17.94444444444444</v>
       </c>
       <c r="I341" t="n">
         <v>102.7</v>
@@ -21947,7 +21947,7 @@
         <v>0.01016</v>
       </c>
       <c r="S341" t="n">
-        <v>190.2822039510009</v>
+        <v>47.6812919815134</v>
       </c>
     </row>
     <row r="342">
@@ -21977,7 +21977,7 @@
         <v>-7.777777777777779</v>
       </c>
       <c r="H342" t="n">
-        <v>-10</v>
+        <v>-23.33333333333334</v>
       </c>
       <c r="I342" t="n">
         <v>102.19</v>
@@ -22010,7 +22010,7 @@
         <v>0.01354666666666667</v>
       </c>
       <c r="S342" t="n">
-        <v>84.05369983651917</v>
+        <v>27.5369528414879</v>
       </c>
     </row>
     <row r="343">
@@ -22040,7 +22040,7 @@
         <v>-1.388888888888889</v>
       </c>
       <c r="H343" t="n">
-        <v>-9.300000000000001</v>
+        <v>-22.94444444444444</v>
       </c>
       <c r="I343" t="n">
         <v>100.98</v>
@@ -22073,7 +22073,7 @@
         <v>0.01693333333333333</v>
       </c>
       <c r="S343" t="n">
-        <v>54.86447085676532</v>
+        <v>17.60743727767295</v>
       </c>
     </row>
     <row r="344">
@@ -22103,7 +22103,7 @@
         <v>-7.944444444444446</v>
       </c>
       <c r="H344" t="n">
-        <v>4.2</v>
+        <v>-15.44444444444444</v>
       </c>
       <c r="I344" t="n">
         <v>102.53</v>
@@ -22136,7 +22136,7 @@
         <v>0.02032</v>
       </c>
       <c r="S344" t="n">
-        <v>244.8702246992272</v>
+        <v>54.84237043608468</v>
       </c>
     </row>
     <row r="345">
@@ -22166,7 +22166,7 @@
         <v>-7.888888888888889</v>
       </c>
       <c r="H345" t="n">
-        <v>3.2</v>
+        <v>-16</v>
       </c>
       <c r="I345" t="n">
         <v>103.01</v>
@@ -22199,7 +22199,7 @@
         <v>0.02032</v>
       </c>
       <c r="S345" t="n">
-        <v>227.2408367000783</v>
+        <v>52.14788766835577</v>
       </c>
     </row>
     <row r="346">
@@ -22229,7 +22229,7 @@
         <v>-5.777777777777778</v>
       </c>
       <c r="H346" t="n">
-        <v>-0.1</v>
+        <v>-17.83333333333334</v>
       </c>
       <c r="I346" t="n">
         <v>102.75</v>
@@ -22262,7 +22262,7 @@
         <v>0.01016</v>
       </c>
       <c r="S346" t="n">
-        <v>152.5321447879249</v>
+        <v>38.02566424705021</v>
       </c>
     </row>
     <row r="347">
@@ -22292,7 +22292,7 @@
         <v>-1.666666666666667</v>
       </c>
       <c r="H347" t="n">
-        <v>4.7</v>
+        <v>-15.16666666666667</v>
       </c>
       <c r="I347" t="n">
         <v>101.8</v>
@@ -22325,7 +22325,7 @@
         <v>0.01016</v>
       </c>
       <c r="S347" t="n">
-        <v>157.8355119599638</v>
+        <v>34.92655891209602</v>
       </c>
     </row>
     <row r="348">
@@ -22355,7 +22355,7 @@
         <v>-1.333333333333333</v>
       </c>
       <c r="H348" t="n">
-        <v>7.4</v>
+        <v>-13.66666666666667</v>
       </c>
       <c r="I348" t="n">
         <v>102.44</v>
@@ -22388,7 +22388,7 @@
         <v>0.01016</v>
       </c>
       <c r="S348" t="n">
-        <v>185.6038184822925</v>
+        <v>38.54169504049192</v>
       </c>
     </row>
     <row r="349">
@@ -22418,7 +22418,7 @@
         <v>2.222222222222222</v>
       </c>
       <c r="H349" t="n">
-        <v>13.3</v>
+        <v>-10.38888888888889</v>
       </c>
       <c r="I349" t="n">
         <v>101.34</v>
@@ -22451,7 +22451,7 @@
         <v>0.01016</v>
       </c>
       <c r="S349" t="n">
-        <v>212.8358082427656</v>
+        <v>38.77917769775053</v>
       </c>
     </row>
     <row r="350">
@@ -22481,7 +22481,7 @@
         <v>-2.222222222222222</v>
       </c>
       <c r="H350" t="n">
-        <v>8.199999999999999</v>
+        <v>-13.22222222222222</v>
       </c>
       <c r="I350" t="n">
         <v>101.53</v>
@@ -22514,7 +22514,7 @@
         <v>0.01016</v>
       </c>
       <c r="S350" t="n">
-        <v>209.2597565011694</v>
+        <v>42.66285281268811</v>
       </c>
     </row>
     <row r="351">
@@ -22544,7 +22544,7 @@
         <v>-4.277777777777778</v>
       </c>
       <c r="H351" t="n">
-        <v>9.699999999999999</v>
+        <v>-12.38888888888889</v>
       </c>
       <c r="I351" t="n">
         <v>102.05</v>
@@ -22577,7 +22577,7 @@
         <v>0.01016</v>
       </c>
       <c r="S351" t="n">
-        <v>269.9068363219344</v>
+        <v>53.19325629107083</v>
       </c>
     </row>
     <row r="352">
@@ -22607,7 +22607,7 @@
         <v>-5.055555555555556</v>
       </c>
       <c r="H352" t="n">
-        <v>1.1</v>
+        <v>-17.16666666666667</v>
       </c>
       <c r="I352" t="n">
         <v>102.65</v>
@@ -22640,7 +22640,7 @@
         <v>0.01016</v>
       </c>
       <c r="S352" t="n">
-        <v>157.4767991682222</v>
+        <v>38.07660911025928</v>
       </c>
     </row>
     <row r="353">
@@ -22670,7 +22670,7 @@
         <v>-1</v>
       </c>
       <c r="H353" t="n">
-        <v>-13.6</v>
+        <v>-25.33333333333334</v>
       </c>
       <c r="I353" t="n">
         <v>102.74</v>
@@ -22703,7 +22703,7 @@
         <v>0.01016</v>
       </c>
       <c r="S353" t="n">
-        <v>37.81655271060353</v>
+        <v>13.82129258689547</v>
       </c>
     </row>
     <row r="354">
@@ -22733,7 +22733,7 @@
         <v>-3.166666666666667</v>
       </c>
       <c r="H354" t="n">
-        <v>-7.3</v>
+        <v>-21.83333333333333</v>
       </c>
       <c r="I354" t="n">
         <v>102.23</v>
@@ -22766,7 +22766,7 @@
         <v>0.01016</v>
       </c>
       <c r="S354" t="n">
-        <v>73.10402489147502</v>
+        <v>22.14394472682039</v>
       </c>
     </row>
     <row r="355">
@@ -22796,7 +22796,7 @@
         <v>-5.499999999999999</v>
       </c>
       <c r="H355" t="n">
-        <v>3.5</v>
+        <v>-15.83333333333333</v>
       </c>
       <c r="I355" t="n">
         <v>103.2</v>
@@ -22829,7 +22829,7 @@
         <v>0.01016</v>
       </c>
       <c r="S355" t="n">
-        <v>193.23269524499</v>
+        <v>44.01940593603322</v>
       </c>
     </row>
     <row r="356">
@@ -22859,7 +22859,7 @@
         <v>-5.166666666666667</v>
       </c>
       <c r="H356" t="n">
-        <v>-1.2</v>
+        <v>-18.44444444444445</v>
       </c>
       <c r="I356" t="n">
         <v>103.13</v>
@@ -22892,7 +22892,7 @@
         <v>0.01016</v>
       </c>
       <c r="S356" t="n">
-        <v>134.3858017110129</v>
+        <v>34.4696764233182</v>
       </c>
     </row>
     <row r="357">
@@ -22922,7 +22922,7 @@
         <v>-5.666666666666667</v>
       </c>
       <c r="H357" t="n">
-        <v>-4</v>
+        <v>-20</v>
       </c>
       <c r="I357" t="n">
         <v>103.61</v>
@@ -22955,7 +22955,7 @@
         <v>0.01016</v>
       </c>
       <c r="S357" t="n">
-        <v>113.4162266787533</v>
+        <v>31.34238209944654</v>
       </c>
     </row>
     <row r="358">
@@ -22985,7 +22985,7 @@
         <v>-2.5</v>
       </c>
       <c r="H358" t="n">
-        <v>-26.4</v>
+        <v>-32.44444444444444</v>
       </c>
       <c r="I358" t="n">
         <v>102.99</v>
@@ -23018,7 +23018,7 @@
         <v>0.01016</v>
       </c>
       <c r="S358" t="n">
-        <v>14.00962860745708</v>
+        <v>7.941912549343331</v>
       </c>
     </row>
     <row r="359">
@@ -23048,7 +23048,7 @@
         <v>-4.722222222222222</v>
       </c>
       <c r="H359" t="n">
-        <v>-15.8</v>
+        <v>-26.55555555555555</v>
       </c>
       <c r="I359" t="n">
         <v>102.75</v>
@@ -23081,7 +23081,7 @@
         <v>0.01016</v>
       </c>
       <c r="S359" t="n">
-        <v>41.61705724132815</v>
+        <v>16.30853712896584</v>
       </c>
     </row>
     <row r="360">
@@ -23111,7 +23111,7 @@
         <v>-2.388888888888889</v>
       </c>
       <c r="H360" t="n">
-        <v>-9.699999999999999</v>
+        <v>-23.16666666666667</v>
       </c>
       <c r="I360" t="n">
         <v>102.42</v>
@@ -23144,7 +23144,7 @@
         <v>0.01016</v>
       </c>
       <c r="S360" t="n">
-        <v>57.23357339041163</v>
+        <v>18.58494888276195</v>
       </c>
     </row>
     <row r="361">
@@ -23174,7 +23174,7 @@
         <v>-0.8888888888888897</v>
       </c>
       <c r="H361" t="n">
-        <v>-7.7</v>
+        <v>-22.05555555555556</v>
       </c>
       <c r="I361" t="n">
         <v>102.12</v>
@@ -23207,7 +23207,7 @@
         <v>0.01016</v>
       </c>
       <c r="S361" t="n">
-        <v>59.91339507314384</v>
+        <v>18.35685560261699</v>
       </c>
     </row>
     <row r="362">
@@ -23237,7 +23237,7 @@
         <v>-1.555555555555556</v>
       </c>
       <c r="H362" t="n">
-        <v>-7</v>
+        <v>-21.66666666666667</v>
       </c>
       <c r="I362" t="n">
         <v>102.52</v>
@@ -23270,7 +23270,7 @@
         <v>0.01016</v>
       </c>
       <c r="S362" t="n">
-        <v>66.4052035214754</v>
+        <v>19.94407894831721</v>
       </c>
     </row>
     <row r="363">
@@ -23300,7 +23300,7 @@
         <v>0.6111111111111119</v>
       </c>
       <c r="H363" t="n">
-        <v>-10.7</v>
+        <v>-23.72222222222222</v>
       </c>
       <c r="I363" t="n">
         <v>102.13</v>
@@ -23333,7 +23333,7 @@
         <v>0.01016</v>
       </c>
       <c r="S363" t="n">
-        <v>42.46935696299312</v>
+        <v>14.20625826025446</v>
       </c>
     </row>
     <row r="364">
@@ -23363,7 +23363,7 @@
         <v>3.777777777777776</v>
       </c>
       <c r="H364" t="n">
-        <v>-12</v>
+        <v>-24.44444444444445</v>
       </c>
       <c r="I364" t="n">
         <v>101.99</v>
@@ -23396,7 +23396,7 @@
         <v>0.01016</v>
       </c>
       <c r="S364" t="n">
-        <v>30.54734702920793</v>
+        <v>10.62722647175366</v>
       </c>
     </row>
     <row r="365">
@@ -23426,7 +23426,7 @@
         <v>-2.111111111111112</v>
       </c>
       <c r="H365" t="n">
-        <v>-5.9</v>
+        <v>-21.05555555555556</v>
       </c>
       <c r="I365" t="n">
         <v>103.23</v>
@@ -23459,7 +23459,7 @@
         <v>0.01016</v>
       </c>
       <c r="S365" t="n">
-        <v>75.25867519927718</v>
+        <v>21.91445565172482</v>
       </c>
     </row>
     <row r="366">
@@ -23489,7 +23489,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H366" t="n">
-        <v>-15</v>
+        <v>-26.11111111111111</v>
       </c>
       <c r="I366" t="n">
         <v>103.57</v>
@@ -23522,7 +23522,7 @@
         <v>0.01016</v>
       </c>
       <c r="S366" t="n">
-        <v>30.11402070600803</v>
+        <v>11.50245152113935</v>
       </c>
     </row>
     <row r="367">
@@ -23552,7 +23552,7 @@
         <v>-1.777777777777777</v>
       </c>
       <c r="H367" t="n">
-        <v>1.6</v>
+        <v>-16.88888888888889</v>
       </c>
       <c r="I367" t="n">
         <v>101.9</v>
@@ -23585,7 +23585,7 @@
         <v>0.01016</v>
       </c>
       <c r="S367" t="n">
-        <v>127.801126323193</v>
+        <v>30.514912857507</v>
       </c>
     </row>
     <row r="368">
@@ -23615,7 +23615,7 @@
         <v>0.2222222222222214</v>
       </c>
       <c r="H368" t="n">
-        <v>1.9</v>
+        <v>-16.72222222222222</v>
       </c>
       <c r="I368" t="n">
         <v>101.81</v>
@@ -23648,7 +23648,7 @@
         <v>0.01016</v>
       </c>
       <c r="S368" t="n">
-        <v>112.8284179137277</v>
+        <v>26.73843556018838</v>
       </c>
     </row>
     <row r="369">
@@ -23678,7 +23678,7 @@
         <v>-2.222222222222222</v>
       </c>
       <c r="H369" t="n">
-        <v>-4.3</v>
+        <v>-20.16666666666666</v>
       </c>
       <c r="I369" t="n">
         <v>101.59</v>
@@ -23711,7 +23711,7 @@
         <v>0.01016</v>
       </c>
       <c r="S369" t="n">
-        <v>85.64993890633994</v>
+        <v>23.86326400902164</v>
       </c>
     </row>
     <row r="370">
@@ -23741,7 +23741,7 @@
         <v>-0.2222222222222214</v>
       </c>
       <c r="H370" t="n">
-        <v>-2</v>
+        <v>-18.88888888888889</v>
       </c>
       <c r="I370" t="n">
         <v>101.29</v>
@@ -23774,7 +23774,7 @@
         <v>0.01016</v>
       </c>
       <c r="S370" t="n">
-        <v>87.79244539899838</v>
+        <v>22.99634055119111</v>
       </c>
     </row>
     <row r="371">
@@ -23804,7 +23804,7 @@
         <v>4.61111111111111</v>
       </c>
       <c r="H371" t="n">
-        <v>1.9</v>
+        <v>-16.72222222222222</v>
       </c>
       <c r="I371" t="n">
         <v>100.15</v>
@@ -23837,7 +23837,7 @@
         <v>0.01016</v>
       </c>
       <c r="S371" t="n">
-        <v>82.56492391875719</v>
+        <v>19.56649697438451</v>
       </c>
     </row>
     <row r="372">
@@ -23867,7 +23867,7 @@
         <v>3.611111111111111</v>
       </c>
       <c r="H372" t="n">
-        <v>-2.7</v>
+        <v>-19.27777777777778</v>
       </c>
       <c r="I372" t="n">
         <v>100.34</v>
@@ -23900,7 +23900,7 @@
         <v>0.01016</v>
       </c>
       <c r="S372" t="n">
-        <v>63.35956825445393</v>
+        <v>16.90743231241707</v>
       </c>
     </row>
     <row r="373">
@@ -23930,7 +23930,7 @@
         <v>1.888888888888888</v>
       </c>
       <c r="H373" t="n">
-        <v>-1.1</v>
+        <v>-18.38888888888889</v>
       </c>
       <c r="I373" t="n">
         <v>100.7</v>
@@ -23963,7 +23963,7 @@
         <v>0.01016</v>
       </c>
       <c r="S373" t="n">
-        <v>80.55733342345725</v>
+        <v>20.60897898940052</v>
       </c>
     </row>
     <row r="374">
@@ -23993,7 +23993,7 @@
         <v>2.611111111111113</v>
       </c>
       <c r="H374" t="n">
-        <v>-2.8</v>
+        <v>-19.33333333333333</v>
       </c>
       <c r="I374" t="n">
         <v>100.74</v>
@@ -24026,7 +24026,7 @@
         <v>0.01016</v>
       </c>
       <c r="S374" t="n">
-        <v>67.50152446266719</v>
+        <v>18.0608257528752</v>
       </c>
     </row>
     <row r="375">
@@ -24056,7 +24056,7 @@
         <v>0.4999999999999992</v>
       </c>
       <c r="H375" t="n">
-        <v>5.6</v>
+        <v>-14.66666666666667</v>
       </c>
       <c r="I375" t="n">
         <v>100.97</v>
@@ -24089,7 +24089,7 @@
         <v>0.01016</v>
       </c>
       <c r="S375" t="n">
-        <v>143.4805127892229</v>
+        <v>31.07593909271549</v>
       </c>
     </row>
     <row r="376">
@@ -24119,7 +24119,7 @@
         <v>-0.6666666666666663</v>
       </c>
       <c r="H376" t="n">
-        <v>8.9</v>
+        <v>-12.83333333333333</v>
       </c>
       <c r="I376" t="n">
         <v>101.99</v>
@@ -24152,7 +24152,7 @@
         <v>0.01016</v>
       </c>
       <c r="S376" t="n">
-        <v>195.7329729167967</v>
+        <v>39.27528985169564</v>
       </c>
     </row>
     <row r="377">
@@ -24182,7 +24182,7 @@
         <v>-0.4999999999999992</v>
       </c>
       <c r="H377" t="n">
-        <v>-3.7</v>
+        <v>-19.83333333333334</v>
       </c>
       <c r="I377" t="n">
         <v>101.69</v>
@@ -24215,7 +24215,7 @@
         <v>0.01016</v>
       </c>
       <c r="S377" t="n">
-        <v>78.9558243743312</v>
+        <v>21.64263732998697</v>
       </c>
     </row>
     <row r="378">
@@ -24245,7 +24245,7 @@
         <v>-1.388888888888889</v>
       </c>
       <c r="H378" t="n">
-        <v>-6.9</v>
+        <v>-21.61111111111111</v>
       </c>
       <c r="I378" t="n">
         <v>101.94</v>
@@ -24278,7 +24278,7 @@
         <v>0.01016</v>
       </c>
       <c r="S378" t="n">
-        <v>66.10356818470872</v>
+        <v>19.79731866753596</v>
       </c>
     </row>
     <row r="379">
@@ -24308,7 +24308,7 @@
         <v>0.05555555555555635</v>
       </c>
       <c r="H379" t="n">
-        <v>-7.9</v>
+        <v>-22.16666666666667</v>
       </c>
       <c r="I379" t="n">
         <v>101.28</v>
@@ -24341,7 +24341,7 @@
         <v>0.01016</v>
       </c>
       <c r="S379" t="n">
-        <v>55.07190088511255</v>
+        <v>16.97053280646358</v>
       </c>
     </row>
     <row r="380">
@@ -24371,7 +24371,7 @@
         <v>5.555555555555555</v>
       </c>
       <c r="H380" t="n">
-        <v>-11</v>
+        <v>-23.88888888888889</v>
       </c>
       <c r="I380" t="n">
         <v>100.98</v>
@@ -24404,7 +24404,7 @@
         <v>0.01016</v>
       </c>
       <c r="S380" t="n">
-        <v>29.22470714713698</v>
+        <v>9.864127550084572</v>
       </c>
     </row>
     <row r="381">
@@ -24434,7 +24434,7 @@
         <v>-2.166666666666666</v>
       </c>
       <c r="H381" t="n">
-        <v>-14.3</v>
+        <v>-25.72222222222222</v>
       </c>
       <c r="I381" t="n">
         <v>101.91</v>
@@ -24467,7 +24467,7 @@
         <v>0.01016</v>
       </c>
       <c r="S381" t="n">
-        <v>38.91430982369417</v>
+        <v>14.53800596554071</v>
       </c>
     </row>
     <row r="382">
@@ -24497,7 +24497,7 @@
         <v>-1.277777777777778</v>
       </c>
       <c r="H382" t="n">
-        <v>-5</v>
+        <v>-20.55555555555556</v>
       </c>
       <c r="I382" t="n">
         <v>102.23</v>
@@ -24530,7 +24530,7 @@
         <v>0.01016</v>
       </c>
       <c r="S382" t="n">
-        <v>75.78824770574803</v>
+        <v>21.52474759849258</v>
       </c>
     </row>
     <row r="383">
@@ -24560,7 +24560,7 @@
         <v>2.5</v>
       </c>
       <c r="H383" t="n">
-        <v>-2.1</v>
+        <v>-18.94444444444445</v>
       </c>
       <c r="I383" t="n">
         <v>101.48</v>
@@ -24593,7 +24593,7 @@
         <v>0.01016</v>
       </c>
       <c r="S383" t="n">
-        <v>71.65630810179837</v>
+        <v>18.81928275563704</v>
       </c>
     </row>
     <row r="384">
@@ -24623,7 +24623,7 @@
         <v>6.055555555555555</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>-17.77777777777778</v>
       </c>
       <c r="I384" t="n">
         <v>100.89</v>
@@ -24656,7 +24656,7 @@
         <v>0.01016</v>
       </c>
       <c r="S384" t="n">
-        <v>65.13104149569897</v>
+        <v>16.19528644288069</v>
       </c>
     </row>
     <row r="385">
@@ -24686,7 +24686,7 @@
         <v>12.05555555555556</v>
       </c>
       <c r="H385" t="n">
-        <v>-2.5</v>
+        <v>-19.16666666666667</v>
       </c>
       <c r="I385" t="n">
         <v>99.5</v>
@@ -24719,7 +24719,7 @@
         <v>0.01016</v>
       </c>
       <c r="S385" t="n">
-        <v>36.17283371795592</v>
+        <v>9.601427148727227</v>
       </c>
     </row>
     <row r="386">
@@ -24749,7 +24749,7 @@
         <v>13.55555555555556</v>
       </c>
       <c r="H386" t="n">
-        <v>-0.9</v>
+        <v>-18.27777777777778</v>
       </c>
       <c r="I386" t="n">
         <v>100.12</v>
@@ -24782,7 +24782,7 @@
         <v>0.01016</v>
       </c>
       <c r="S386" t="n">
-        <v>36.88514476000626</v>
+        <v>9.38734699847169</v>
       </c>
     </row>
     <row r="387">
@@ -24812,7 +24812,7 @@
         <v>12.33333333333334</v>
       </c>
       <c r="H387" t="n">
-        <v>10.5</v>
+        <v>-11.94444444444444</v>
       </c>
       <c r="I387" t="n">
         <v>100.17</v>
@@ -24845,7 +24845,7 @@
         <v>0.01016</v>
       </c>
       <c r="S387" t="n">
-        <v>88.56876834206663</v>
+        <v>17.14739404751436</v>
       </c>
     </row>
     <row r="388">
@@ -24875,7 +24875,7 @@
         <v>12.22222222222222</v>
       </c>
       <c r="H388" t="n">
-        <v>14.9</v>
+        <v>-9.500000000000002</v>
       </c>
       <c r="I388" t="n">
         <v>99.26000000000001</v>
@@ -24908,7 +24908,7 @@
         <v>0.01016</v>
       </c>
       <c r="S388" t="n">
-        <v>119.0485118625208</v>
+        <v>20.97355207653839</v>
       </c>
     </row>
     <row r="389">
@@ -24938,7 +24938,7 @@
         <v>5.333333333333334</v>
       </c>
       <c r="H389" t="n">
-        <v>19.2</v>
+        <v>-7.111111111111112</v>
       </c>
       <c r="I389" t="n">
         <v>100.05</v>
@@ -24971,7 +24971,7 @@
         <v>0.01016</v>
       </c>
       <c r="S389" t="n">
-        <v>249.1096385567858</v>
+        <v>40.24111865450838</v>
       </c>
     </row>
     <row r="390">
@@ -25001,7 +25001,7 @@
         <v>1.111111111111111</v>
       </c>
       <c r="H390" t="n">
-        <v>25.4</v>
+        <v>-3.666666666666667</v>
       </c>
       <c r="I390" t="n">
         <v>100.96</v>
@@ -25034,7 +25034,7 @@
         <v>0.01016</v>
       </c>
       <c r="S390" t="n">
-        <v>489.7992483342707</v>
+        <v>70.4399655512688</v>
       </c>
     </row>
     <row r="391">
@@ -25064,7 +25064,7 @@
         <v>1.166666666666667</v>
       </c>
       <c r="H391" t="n">
-        <v>17.1</v>
+        <v>-8.277777777777777</v>
       </c>
       <c r="I391" t="n">
         <v>101.81</v>
@@ -25097,7 +25097,7 @@
         <v>0.01016</v>
       </c>
       <c r="S391" t="n">
-        <v>293.0605691502943</v>
+        <v>49.35713191177485</v>
       </c>
     </row>
     <row r="392">
@@ -25127,7 +25127,7 @@
         <v>-1.222222222222222</v>
       </c>
       <c r="H392" t="n">
-        <v>17.7</v>
+        <v>-7.944444444444446</v>
       </c>
       <c r="I392" t="n">
         <v>102.79</v>
@@ -25160,7 +25160,7 @@
         <v>0.01016</v>
       </c>
       <c r="S392" t="n">
-        <v>362.0213159452035</v>
+        <v>60.24168392790988</v>
       </c>
     </row>
     <row r="393">
@@ -25190,7 +25190,7 @@
         <v>1.61111111111111</v>
       </c>
       <c r="H393" t="n">
-        <v>6.4</v>
+        <v>-14.22222222222222</v>
       </c>
       <c r="I393" t="n">
         <v>101.62</v>
@@ -25223,7 +25223,7 @@
         <v>0.01524</v>
       </c>
       <c r="S393" t="n">
-        <v>139.9882644267228</v>
+        <v>29.75348011333465</v>
       </c>
     </row>
     <row r="394">
@@ -25253,7 +25253,7 @@
         <v>3.722222222222224</v>
       </c>
       <c r="H394" t="n">
-        <v>-12.7</v>
+        <v>-24.83333333333334</v>
       </c>
       <c r="I394" t="n">
         <v>102.35</v>
@@ -25286,7 +25286,7 @@
         <v>0.02032</v>
       </c>
       <c r="S394" t="n">
-        <v>28.98615002631218</v>
+        <v>10.30261046607021</v>
       </c>
     </row>
     <row r="395">
@@ -25316,7 +25316,7 @@
         <v>5.611111111111112</v>
       </c>
       <c r="H395" t="n">
-        <v>-6.9</v>
+        <v>-21.61111111111111</v>
       </c>
       <c r="I395" t="n">
         <v>101.77</v>
@@ -25349,7 +25349,7 @@
         <v>0.0254</v>
       </c>
       <c r="S395" t="n">
-        <v>40.11895625804276</v>
+        <v>12.01520255956677</v>
       </c>
     </row>
     <row r="396">
@@ -25379,7 +25379,7 @@
         <v>12</v>
       </c>
       <c r="H396" t="n">
-        <v>5.4</v>
+        <v>-14.77777777777778</v>
       </c>
       <c r="I396" t="n">
         <v>100.08</v>
@@ -25412,7 +25412,7 @@
         <v>0.03048</v>
       </c>
       <c r="S396" t="n">
-        <v>63.98360073262094</v>
+        <v>13.92389779072564</v>
       </c>
     </row>
     <row r="397">
@@ -25442,7 +25442,7 @@
         <v>8.277777777777777</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>-16.11111111111111</v>
       </c>
       <c r="I397" t="n">
         <v>100.35</v>
@@ -25475,7 +25475,7 @@
         <v>0.03556</v>
       </c>
       <c r="S397" t="n">
-        <v>69.35780649526787</v>
+        <v>15.99476089523609</v>
       </c>
     </row>
     <row r="398">
@@ -25505,7 +25505,7 @@
         <v>9.333333333333332</v>
       </c>
       <c r="H398" t="n">
-        <v>29.1</v>
+        <v>-1.61111111111111</v>
       </c>
       <c r="I398" t="n">
         <v>99.66</v>
@@ -25538,7 +25538,7 @@
         <v>0.04064</v>
       </c>
       <c r="S398" t="n">
-        <v>343.4879515890368</v>
+        <v>46.3022705085705</v>
       </c>
     </row>
     <row r="399">
@@ -25568,7 +25568,7 @@
         <v>6.222222222222224</v>
       </c>
       <c r="H399" t="n">
-        <v>26.2</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="I399" t="n">
         <v>100.44</v>
@@ -25601,7 +25601,7 @@
         <v>0.04572</v>
       </c>
       <c r="S399" t="n">
-        <v>358.3270253474087</v>
+        <v>50.80183491002222</v>
       </c>
     </row>
     <row r="400">
@@ -25631,7 +25631,7 @@
         <v>3.38888888888889</v>
       </c>
       <c r="H400" t="n">
-        <v>27.3</v>
+        <v>-2.611111111111111</v>
       </c>
       <c r="I400" t="n">
         <v>101.13</v>
@@ -25664,7 +25664,7 @@
         <v>0.0508</v>
       </c>
       <c r="S400" t="n">
-        <v>465.9043824564055</v>
+        <v>64.78612822894743</v>
       </c>
     </row>
     <row r="401">
@@ -25694,7 +25694,7 @@
         <v>5.88888888888889</v>
       </c>
       <c r="H401" t="n">
-        <v>26.6</v>
+        <v>-3</v>
       </c>
       <c r="I401" t="n">
         <v>100.84</v>
@@ -25727,7 +25727,7 @@
         <v>0.0508</v>
       </c>
       <c r="S401" t="n">
-        <v>375.4409850258004</v>
+        <v>52.85264628948921</v>
       </c>
     </row>
     <row r="402">
@@ -25757,7 +25757,7 @@
         <v>3.499999999999999</v>
       </c>
       <c r="H402" t="n">
-        <v>22.6</v>
+        <v>-5.222222222222221</v>
       </c>
       <c r="I402" t="n">
         <v>101.71</v>
@@ -25790,7 +25790,7 @@
         <v>0.05035340659340659</v>
       </c>
       <c r="S402" t="n">
-        <v>349.1519114512099</v>
+        <v>52.85331705084943</v>
       </c>
     </row>
     <row r="403">
@@ -25820,7 +25820,7 @@
         <v>8.277777777777777</v>
       </c>
       <c r="H403" t="n">
-        <v>12</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="I403" t="n">
         <v>101.14</v>
@@ -25853,7 +25853,7 @@
         <v>0.04990681318681318</v>
       </c>
       <c r="S403" t="n">
-        <v>128.2690677933545</v>
+        <v>24.03184442819754</v>
       </c>
     </row>
     <row r="404">
@@ -25883,7 +25883,7 @@
         <v>17.5</v>
       </c>
       <c r="H404" t="n">
-        <v>10.8</v>
+        <v>-11.77777777777778</v>
       </c>
       <c r="I404" t="n">
         <v>100.16</v>
@@ -25916,7 +25916,7 @@
         <v>0.04946021978021978</v>
       </c>
       <c r="S404" t="n">
-        <v>64.76961333608298</v>
+        <v>12.45702238928291</v>
       </c>
     </row>
     <row r="405">
@@ -25946,7 +25946,7 @@
         <v>13.44444444444445</v>
       </c>
       <c r="H405" t="n">
-        <v>18.9</v>
+        <v>-7.277777777777779</v>
       </c>
       <c r="I405" t="n">
         <v>99.46000000000001</v>
@@ -25979,7 +25979,7 @@
         <v>0.04901362637362637</v>
       </c>
       <c r="S405" t="n">
-        <v>141.6450418355813</v>
+        <v>23.0163261477024</v>
       </c>
     </row>
     <row r="406">
@@ -26009,7 +26009,7 @@
         <v>9.777777777777779</v>
       </c>
       <c r="H406" t="n">
-        <v>16.2</v>
+        <v>-8.777777777777779</v>
       </c>
       <c r="I406" t="n">
         <v>100.49</v>
@@ -26042,7 +26042,7 @@
         <v>0.04856703296703296</v>
       </c>
       <c r="S406" t="n">
-        <v>152.2112472204384</v>
+        <v>26.10757038944145</v>
       </c>
     </row>
     <row r="407">
@@ -26072,7 +26072,7 @@
         <v>8.111111111111112</v>
       </c>
       <c r="H407" t="n">
-        <v>26.7</v>
+        <v>-2.944444444444445</v>
       </c>
       <c r="I407" t="n">
         <v>100.35</v>
@@ -26105,7 +26105,7 @@
         <v>0.04812043956043956</v>
       </c>
       <c r="S407" t="n">
-        <v>324.2844399790628</v>
+        <v>45.57064175949026</v>
       </c>
     </row>
     <row r="408">
@@ -26135,7 +26135,7 @@
         <v>5.333333333333334</v>
       </c>
       <c r="H408" t="n">
-        <v>28.4</v>
+        <v>-2.000000000000001</v>
       </c>
       <c r="I408" t="n">
         <v>101.09</v>
@@ -26168,7 +26168,7 @@
         <v>0.04767384615384615</v>
       </c>
       <c r="S408" t="n">
-        <v>433.580386883937</v>
+        <v>59.15182169007864</v>
       </c>
     </row>
     <row r="409">
@@ -26198,7 +26198,7 @@
         <v>12.88888888888889</v>
       </c>
       <c r="H409" t="n">
-        <v>14.9</v>
+        <v>-9.500000000000002</v>
       </c>
       <c r="I409" t="n">
         <v>100.27</v>
@@ -26231,7 +26231,7 @@
         <v>0.04722725274725274</v>
       </c>
       <c r="S409" t="n">
-        <v>113.952445995433</v>
+        <v>20.07574494584307</v>
       </c>
     </row>
     <row r="410">
@@ -26261,7 +26261,7 @@
         <v>13.27777777777778</v>
       </c>
       <c r="H410" t="n">
-        <v>21.8</v>
+        <v>-5.666666666666667</v>
       </c>
       <c r="I410" t="n">
         <v>100</v>
@@ -26294,7 +26294,7 @@
         <v>0.04678065934065934</v>
       </c>
       <c r="S410" t="n">
-        <v>171.3026953481135</v>
+        <v>26.32342468754909</v>
       </c>
     </row>
     <row r="411">
@@ -26324,7 +26324,7 @@
         <v>6.166666666666668</v>
       </c>
       <c r="H411" t="n">
-        <v>32.9</v>
+        <v>0.4999999999999992</v>
       </c>
       <c r="I411" t="n">
         <v>100.6</v>
@@ -26357,7 +26357,7 @@
         <v>0.04633406593406593</v>
       </c>
       <c r="S411" t="n">
-        <v>529.5328844138487</v>
+        <v>67.01639425404987</v>
       </c>
     </row>
     <row r="412">
@@ -26387,7 +26387,7 @@
         <v>8.499999999999998</v>
       </c>
       <c r="H412" t="n">
-        <v>38.8</v>
+        <v>3.777777777777776</v>
       </c>
       <c r="I412" t="n">
         <v>100.29</v>
@@ -26420,7 +26420,7 @@
         <v>0.04588747252747252</v>
       </c>
       <c r="S412" t="n">
-        <v>625.0090597308374</v>
+        <v>72.17625407088377</v>
       </c>
     </row>
     <row r="413">
@@ -26450,7 +26450,7 @@
         <v>4.500000000000001</v>
       </c>
       <c r="H413" t="n">
-        <v>34.8</v>
+        <v>1.555555555555554</v>
       </c>
       <c r="I413" t="n">
         <v>100.86</v>
@@ -26483,7 +26483,7 @@
         <v>0.04544087912087912</v>
       </c>
       <c r="S413" t="n">
-        <v>661.2214747787395</v>
+        <v>81.18335414421686</v>
       </c>
     </row>
     <row r="414">
@@ -26513,7 +26513,7 @@
         <v>6.222222222222224</v>
       </c>
       <c r="H414" t="n">
-        <v>40.3</v>
+        <v>4.61111111111111</v>
       </c>
       <c r="I414" t="n">
         <v>100.8</v>
@@ -26546,7 +26546,7 @@
         <v>0.04499428571428572</v>
       </c>
       <c r="S414" t="n">
-        <v>791.6023867197858</v>
+        <v>89.41503639880727</v>
       </c>
     </row>
     <row r="415">
@@ -26576,7 +26576,7 @@
         <v>8.888888888888889</v>
       </c>
       <c r="H415" t="n">
-        <v>36.8</v>
+        <v>2.666666666666665</v>
       </c>
       <c r="I415" t="n">
         <v>101.51</v>
@@ -26609,7 +26609,7 @@
         <v>0.04454769230769231</v>
       </c>
       <c r="S415" t="n">
-        <v>546.0482975663922</v>
+        <v>64.99206357707419</v>
       </c>
     </row>
     <row r="416">
@@ -26639,7 +26639,7 @@
         <v>15.22222222222222</v>
       </c>
       <c r="H416" t="n">
-        <v>32.1</v>
+        <v>0.05555555555555635</v>
       </c>
       <c r="I416" t="n">
         <v>100.51</v>
@@ -26672,7 +26672,7 @@
         <v>0.0441010989010989</v>
       </c>
       <c r="S416" t="n">
-        <v>276.8887440243607</v>
+        <v>35.50117496552122</v>
       </c>
     </row>
     <row r="417">
@@ -26702,7 +26702,7 @@
         <v>15.77777777777778</v>
       </c>
       <c r="H417" t="n">
-        <v>20.9</v>
+        <v>-6.166666666666668</v>
       </c>
       <c r="I417" t="n">
         <v>99.61</v>
@@ -26735,7 +26735,7 @@
         <v>0.0436545054945055</v>
       </c>
       <c r="S417" t="n">
-        <v>137.9180923934128</v>
+        <v>21.55869220084807</v>
       </c>
     </row>
     <row r="418">
@@ -26765,7 +26765,7 @@
         <v>10.66666666666667</v>
       </c>
       <c r="H418" t="n">
-        <v>31.2</v>
+        <v>-0.4444444444444449</v>
       </c>
       <c r="I418" t="n">
         <v>100.95</v>
@@ -26798,7 +26798,7 @@
         <v>0.04320791208791209</v>
       </c>
       <c r="S418" t="n">
-        <v>354.4405843804087</v>
+        <v>46.12239727413352</v>
       </c>
     </row>
     <row r="419">
@@ -26828,7 +26828,7 @@
         <v>11.77777777777778</v>
       </c>
       <c r="H419" t="n">
-        <v>25.7</v>
+        <v>-3.5</v>
       </c>
       <c r="I419" t="n">
         <v>100.75</v>
@@ -26861,7 +26861,7 @@
         <v>0.04276131868131868</v>
       </c>
       <c r="S419" t="n">
-        <v>239.0919093908832</v>
+        <v>34.20049203414059</v>
       </c>
     </row>
     <row r="420">
@@ -26891,7 +26891,7 @@
         <v>17.27777777777778</v>
       </c>
       <c r="H420" t="n">
-        <v>24</v>
+        <v>-4.444444444444445</v>
       </c>
       <c r="I420" t="n">
         <v>100.54</v>
@@ -26924,7 +26924,7 @@
         <v>0.04231472527472527</v>
       </c>
       <c r="S420" t="n">
-        <v>151.3800832511892</v>
+        <v>22.33004314255076</v>
       </c>
     </row>
     <row r="421">
@@ -26954,7 +26954,7 @@
         <v>14.16666666666667</v>
       </c>
       <c r="H421" t="n">
-        <v>26.1</v>
+        <v>-3.277777777777777</v>
       </c>
       <c r="I421" t="n">
         <v>100.29</v>
@@ -26987,7 +26987,7 @@
         <v>0.04186813186813187</v>
       </c>
       <c r="S421" t="n">
-        <v>209.410689182266</v>
+        <v>29.74199218826093</v>
       </c>
     </row>
     <row r="422">
@@ -27017,7 +27017,7 @@
         <v>14.61111111111111</v>
       </c>
       <c r="H422" t="n">
-        <v>30.3</v>
+        <v>-0.9444444444444441</v>
       </c>
       <c r="I422" t="n">
         <v>100.19</v>
@@ -27050,7 +27050,7 @@
         <v>0.04142153846153846</v>
       </c>
       <c r="S422" t="n">
-        <v>259.9151749563699</v>
+        <v>34.33302227979765</v>
       </c>
     </row>
     <row r="423">
@@ -27080,7 +27080,7 @@
         <v>10.5</v>
       </c>
       <c r="H423" t="n">
-        <v>33.1</v>
+        <v>0.6111111111111119</v>
       </c>
       <c r="I423" t="n">
         <v>100.53</v>
@@ -27113,7 +27113,7 @@
         <v>0.04097494505494505</v>
       </c>
       <c r="S423" t="n">
-        <v>399.1112526237141</v>
+        <v>50.34769058960487</v>
       </c>
     </row>
     <row r="424">
@@ -27143,7 +27143,7 @@
         <v>14.33333333333333</v>
       </c>
       <c r="H424" t="n">
-        <v>24.8</v>
+        <v>-4</v>
       </c>
       <c r="I424" t="n">
         <v>100.06</v>
@@ -27176,7 +27176,7 @@
         <v>0.04052835164835165</v>
       </c>
       <c r="S424" t="n">
-        <v>191.7466479138197</v>
+        <v>27.87566637314342</v>
       </c>
     </row>
     <row r="425">
@@ -27206,7 +27206,7 @@
         <v>15.94444444444445</v>
       </c>
       <c r="H425" t="n">
-        <v>27.9</v>
+        <v>-2.277777777777779</v>
       </c>
       <c r="I425" t="n">
         <v>99.5</v>
@@ -27239,7 +27239,7 @@
         <v>0.04008175824175824</v>
       </c>
       <c r="S425" t="n">
-        <v>207.6226103360551</v>
+        <v>28.57091289191238</v>
       </c>
     </row>
     <row r="426">
@@ -27269,7 +27269,7 @@
         <v>17.88888888888889</v>
       </c>
       <c r="H426" t="n">
-        <v>32.5</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="I426" t="n">
         <v>99.5</v>
@@ -27302,7 +27302,7 @@
         <v>0.03963516483516483</v>
       </c>
       <c r="S426" t="n">
-        <v>239.0278840125588</v>
+        <v>30.44762975315561</v>
       </c>
     </row>
     <row r="427">
@@ -27332,7 +27332,7 @@
         <v>9.777777777777779</v>
       </c>
       <c r="H427" t="n">
-        <v>36.7</v>
+        <v>2.611111111111113</v>
       </c>
       <c r="I427" t="n">
         <v>100.66</v>
@@ -27365,7 +27365,7 @@
         <v>0.03918857142857143</v>
       </c>
       <c r="S427" t="n">
-        <v>511.5266096261815</v>
+        <v>60.97659595835437</v>
       </c>
     </row>
     <row r="428">
@@ -27395,7 +27395,7 @@
         <v>16.33333333333333</v>
       </c>
       <c r="H428" t="n">
-        <v>31.8</v>
+        <v>-0.1111111111111107</v>
       </c>
       <c r="I428" t="n">
         <v>99.95</v>
@@ -27428,7 +27428,7 @@
         <v>0.03874197802197802</v>
       </c>
       <c r="S428" t="n">
-        <v>253.5313872147392</v>
+        <v>32.66659687305465</v>
       </c>
     </row>
     <row r="429">
@@ -27458,7 +27458,7 @@
         <v>18.77777777777778</v>
       </c>
       <c r="H429" t="n">
-        <v>33.8</v>
+        <v>0.9999999999999984</v>
       </c>
       <c r="I429" t="n">
         <v>99.45</v>
@@ -27491,7 +27491,7 @@
         <v>0.03829538461538461</v>
       </c>
       <c r="S429" t="n">
-        <v>243.1981726474248</v>
+        <v>30.33664706927696</v>
       </c>
     </row>
     <row r="430">
@@ -27521,7 +27521,7 @@
         <v>15.94444444444445</v>
       </c>
       <c r="H430" t="n">
-        <v>35.8</v>
+        <v>2.11111111111111</v>
       </c>
       <c r="I430" t="n">
         <v>99.57000000000001</v>
@@ -27554,7 +27554,7 @@
         <v>0.03784879120879121</v>
       </c>
       <c r="S430" t="n">
-        <v>325.1019446478605</v>
+        <v>39.2959128615737</v>
       </c>
     </row>
     <row r="431">
@@ -27584,7 +27584,7 @@
         <v>14.94444444444444</v>
       </c>
       <c r="H431" t="n">
-        <v>38.6</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="I431" t="n">
         <v>99.90000000000001</v>
@@ -27617,7 +27617,7 @@
         <v>0.03740219780219781</v>
       </c>
       <c r="S431" t="n">
-        <v>403.9179853068311</v>
+        <v>46.78396279131596</v>
       </c>
     </row>
     <row r="432">
@@ -27647,7 +27647,7 @@
         <v>16.72222222222222</v>
       </c>
       <c r="H432" t="n">
-        <v>40.5</v>
+        <v>4.722222222222222</v>
       </c>
       <c r="I432" t="n">
         <v>99.34999999999999</v>
@@ -27680,7 +27680,7 @@
         <v>0.0369556043956044</v>
       </c>
       <c r="S432" t="n">
-        <v>399.2206602361809</v>
+        <v>44.96254748751423</v>
       </c>
     </row>
     <row r="433">
@@ -27710,7 +27710,7 @@
         <v>9.166666666666668</v>
       </c>
       <c r="H433" t="n">
-        <v>40</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="I433" t="n">
         <v>100.75</v>
@@ -27743,7 +27743,7 @@
         <v>0.03650901098901099</v>
       </c>
       <c r="S433" t="n">
-        <v>637.2932265009068</v>
+        <v>72.30156690120607</v>
       </c>
     </row>
     <row r="434">
@@ -27773,7 +27773,7 @@
         <v>10.16666666666667</v>
       </c>
       <c r="H434" t="n">
-        <v>26.7</v>
+        <v>-2.944444444444445</v>
       </c>
       <c r="I434" t="n">
         <v>101.28</v>
@@ -27806,7 +27806,7 @@
         <v>0.03606241758241759</v>
       </c>
       <c r="S434" t="n">
-        <v>282.322574427953</v>
+        <v>39.67387673828548</v>
       </c>
     </row>
     <row r="435">
@@ -27836,7 +27836,7 @@
         <v>13.05555555555556</v>
       </c>
       <c r="H435" t="n">
-        <v>29.6</v>
+        <v>-1.333333333333333</v>
       </c>
       <c r="I435" t="n">
         <v>100.15</v>
@@ -27869,7 +27869,7 @@
         <v>0.03561582417582418</v>
       </c>
       <c r="S435" t="n">
-        <v>276.2065157718357</v>
+        <v>36.91780137998956</v>
       </c>
     </row>
     <row r="436">
@@ -27899,7 +27899,7 @@
         <v>16.16666666666667</v>
       </c>
       <c r="H436" t="n">
-        <v>35.9</v>
+        <v>2.166666666666666</v>
       </c>
       <c r="I436" t="n">
         <v>99.39</v>
@@ -27932,7 +27932,7 @@
         <v>0.03516923076923077</v>
       </c>
       <c r="S436" t="n">
-        <v>322.2926007940285</v>
+        <v>38.89592475571202</v>
       </c>
     </row>
     <row r="437">
@@ -27962,7 +27962,7 @@
         <v>20.72222222222222</v>
       </c>
       <c r="H437" t="n">
-        <v>36.4</v>
+        <v>2.444444444444444</v>
       </c>
       <c r="I437" t="n">
         <v>99.31</v>
@@ -27995,7 +27995,7 @@
         <v>0.03472263736263737</v>
       </c>
       <c r="S437" t="n">
-        <v>248.9572931156169</v>
+        <v>29.81414662417331</v>
       </c>
     </row>
     <row r="438">
@@ -28025,7 +28025,7 @@
         <v>17.77777777777778</v>
       </c>
       <c r="H438" t="n">
-        <v>42.7</v>
+        <v>5.944444444444446</v>
       </c>
       <c r="I438" t="n">
         <v>99.39</v>
@@ -28058,7 +28058,7 @@
         <v>0.03427604395604396</v>
       </c>
       <c r="S438" t="n">
-        <v>419.5461659511995</v>
+        <v>45.78529026587355</v>
       </c>
     </row>
     <row r="439">
@@ -28088,7 +28088,7 @@
         <v>17.88888888888889</v>
       </c>
       <c r="H439" t="n">
-        <v>45.9</v>
+        <v>7.722222222222221</v>
       </c>
       <c r="I439" t="n">
         <v>99.22999999999999</v>
@@ -28121,7 +28121,7 @@
         <v>0.03382945054945055</v>
       </c>
       <c r="S439" t="n">
-        <v>491.9644803291918</v>
+        <v>51.36849020244178</v>
       </c>
     </row>
     <row r="440">
@@ -28151,7 +28151,7 @@
         <v>11.94444444444444</v>
       </c>
       <c r="H440" t="n">
-        <v>35.4</v>
+        <v>1.888888888888888</v>
       </c>
       <c r="I440" t="n">
         <v>101.26</v>
@@ -28184,7 +28184,7 @@
         <v>0.03338285714285714</v>
       </c>
       <c r="S440" t="n">
-        <v>412.2930524775848</v>
+        <v>50.14635910291383</v>
       </c>
     </row>
     <row r="441">
@@ -28214,7 +28214,7 @@
         <v>19.77777777777778</v>
       </c>
       <c r="H441" t="n">
-        <v>27.8</v>
+        <v>-2.333333333333333</v>
       </c>
       <c r="I441" t="n">
         <v>100.16</v>
@@ -28247,7 +28247,7 @@
         <v>0.03293626373626374</v>
       </c>
       <c r="S441" t="n">
-        <v>162.1324982690831</v>
+        <v>22.3497606730605</v>
       </c>
     </row>
     <row r="442">
@@ -28277,7 +28277,7 @@
         <v>19.72222222222222</v>
       </c>
       <c r="H442" t="n">
-        <v>27.5</v>
+        <v>-2.5</v>
       </c>
       <c r="I442" t="n">
         <v>99.72</v>
@@ -28310,7 +28310,7 @@
         <v>0.03248967032967033</v>
       </c>
       <c r="S442" t="n">
-        <v>159.8613160042611</v>
+        <v>22.1519765748623</v>
       </c>
     </row>
     <row r="443">
@@ -28340,7 +28340,7 @@
         <v>18.66666666666666</v>
       </c>
       <c r="H443" t="n">
-        <v>31.2</v>
+        <v>-0.4444444444444449</v>
       </c>
       <c r="I443" t="n">
         <v>100.06</v>
@@ -28373,7 +28373,7 @@
         <v>0.03204307692307692</v>
       </c>
       <c r="S443" t="n">
-        <v>211.446164287521</v>
+        <v>27.514919061565</v>
       </c>
     </row>
     <row r="444">
@@ -28403,7 +28403,7 @@
         <v>16.16666666666667</v>
       </c>
       <c r="H444" t="n">
-        <v>18</v>
+        <v>-7.777777777777779</v>
       </c>
       <c r="I444" t="n">
         <v>100.25</v>
@@ -28436,7 +28436,7 @@
         <v>0.03159648351648352</v>
       </c>
       <c r="S444" t="n">
-        <v>112.3185314779662</v>
+        <v>18.57872967311737</v>
       </c>
     </row>
     <row r="445">
@@ -28466,7 +28466,7 @@
         <v>19.83333333333334</v>
       </c>
       <c r="H445" t="n">
-        <v>11.1</v>
+        <v>-11.61111111111111</v>
       </c>
       <c r="I445" t="n">
         <v>99.97999999999999</v>
@@ -28499,7 +28499,7 @@
         <v>0.03114989010989011</v>
       </c>
       <c r="S445" t="n">
-        <v>57.09414363914183</v>
+        <v>10.90867570674827</v>
       </c>
     </row>
     <row r="446">
@@ -28529,7 +28529,7 @@
         <v>18.16666666666667</v>
       </c>
       <c r="H446" t="n">
-        <v>31.3</v>
+        <v>-0.3888888888888885</v>
       </c>
       <c r="I446" t="n">
         <v>99.92</v>
@@ -28562,7 +28562,7 @@
         <v>0.0307032967032967</v>
       </c>
       <c r="S446" t="n">
-        <v>219.4293888159293</v>
+        <v>28.50655172793762</v>
       </c>
     </row>
     <row r="447">
@@ -28592,7 +28592,7 @@
         <v>16.38888888888889</v>
       </c>
       <c r="H447" t="n">
-        <v>38.3</v>
+        <v>3.499999999999999</v>
       </c>
       <c r="I447" t="n">
         <v>99.81</v>
@@ -28625,7 +28625,7 @@
         <v>0.0302567032967033</v>
       </c>
       <c r="S447" t="n">
-        <v>362.2899400696039</v>
+        <v>42.15125701296538</v>
       </c>
     </row>
     <row r="448">
@@ -28655,7 +28655,7 @@
         <v>18.38888888888889</v>
       </c>
       <c r="H448" t="n">
-        <v>36.5</v>
+        <v>2.5</v>
       </c>
       <c r="I448" t="n">
         <v>99.78</v>
@@ -28688,7 +28688,7 @@
         <v>0.02981010989010989</v>
       </c>
       <c r="S448" t="n">
-        <v>289.4138072856154</v>
+        <v>34.60575437132389</v>
       </c>
     </row>
     <row r="449">
@@ -28718,7 +28718,7 @@
         <v>20.11111111111111</v>
       </c>
       <c r="H449" t="n">
-        <v>38.7</v>
+        <v>3.722222222222224</v>
       </c>
       <c r="I449" t="n">
         <v>99.67999999999999</v>
@@ -28751,7 +28751,7 @@
         <v>0.02936351648351648</v>
       </c>
       <c r="S449" t="n">
-        <v>293.0426383865691</v>
+        <v>33.89114846733167</v>
       </c>
     </row>
     <row r="450">
@@ -28781,7 +28781,7 @@
         <v>9.944444444444445</v>
       </c>
       <c r="H450" t="n">
-        <v>47</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="I450" t="n">
         <v>101.07</v>
@@ -28814,7 +28814,7 @@
         <v>0.02891692307692308</v>
       </c>
       <c r="S450" t="n">
-        <v>871.9036095029079</v>
+        <v>89.70812864387074</v>
       </c>
     </row>
     <row r="451">
@@ -28844,7 +28844,7 @@
         <v>16.44444444444445</v>
       </c>
       <c r="H451" t="n">
-        <v>38.7</v>
+        <v>3.722222222222224</v>
       </c>
       <c r="I451" t="n">
         <v>100.37</v>
@@ -28877,7 +28877,7 @@
         <v>0.02847032967032967</v>
       </c>
       <c r="S451" t="n">
-        <v>368.908459328289</v>
+        <v>42.66522931538915</v>
       </c>
     </row>
     <row r="452">
@@ -28907,7 +28907,7 @@
         <v>15.55555555555556</v>
       </c>
       <c r="H452" t="n">
-        <v>40.6</v>
+        <v>4.777777777777779</v>
       </c>
       <c r="I452" t="n">
         <v>99.65000000000001</v>
@@ -28940,7 +28940,7 @@
         <v>0.02802373626373627</v>
       </c>
       <c r="S452" t="n">
-        <v>432.3825596429858</v>
+        <v>48.62667841472506</v>
       </c>
     </row>
     <row r="453">
@@ -28970,7 +28970,7 @@
         <v>11.88888888888889</v>
       </c>
       <c r="H453" t="n">
-        <v>48.4</v>
+        <v>9.111111111111111</v>
       </c>
       <c r="I453" t="n">
         <v>100.4</v>
@@ -29003,7 +29003,7 @@
         <v>0.02757714285714286</v>
       </c>
       <c r="S453" t="n">
-        <v>822.5925390634135</v>
+        <v>83.08893211616326</v>
       </c>
     </row>
     <row r="454">
@@ -29033,7 +29033,7 @@
         <v>15.66666666666667</v>
       </c>
       <c r="H454" t="n">
-        <v>48.9</v>
+        <v>9.388888888888889</v>
       </c>
       <c r="I454" t="n">
         <v>99.97999999999999</v>
@@ -29066,7 +29066,7 @@
         <v>0.02713054945054945</v>
       </c>
       <c r="S454" t="n">
-        <v>659.899575148695</v>
+        <v>66.22392270452177</v>
       </c>
     </row>
     <row r="455">
@@ -29096,7 +29096,7 @@
         <v>11.33333333333333</v>
       </c>
       <c r="H455" t="n">
-        <v>47.6</v>
+        <v>8.666666666666668</v>
       </c>
       <c r="I455" t="n">
         <v>100.68</v>
@@ -29129,7 +29129,7 @@
         <v>0.02668395604395605</v>
       </c>
       <c r="S455" t="n">
-        <v>819.4888860791831</v>
+        <v>83.64820666024502</v>
       </c>
     </row>
     <row r="456">
@@ -29159,7 +29159,7 @@
         <v>17.27777777777778</v>
       </c>
       <c r="H456" t="n">
-        <v>48.8</v>
+        <v>9.333333333333332</v>
       </c>
       <c r="I456" t="n">
         <v>99.97999999999999</v>
@@ -29192,7 +29192,7 @@
         <v>0.02623736263736264</v>
       </c>
       <c r="S456" t="n">
-        <v>592.5798429747489</v>
+        <v>59.54518265917464</v>
       </c>
     </row>
     <row r="457">
@@ -29222,7 +29222,7 @@
         <v>11.16666666666667</v>
       </c>
       <c r="H457" t="n">
-        <v>48</v>
+        <v>8.888888888888889</v>
       </c>
       <c r="I457" t="n">
         <v>100.84</v>
@@ -29255,7 +29255,7 @@
         <v>0.02579076923076923</v>
       </c>
       <c r="S457" t="n">
-        <v>845.5716096099209</v>
+        <v>85.85785830064424</v>
       </c>
     </row>
     <row r="458">
@@ -29285,7 +29285,7 @@
         <v>12.44444444444444</v>
       </c>
       <c r="H458" t="n">
-        <v>45.4</v>
+        <v>7.444444444444444</v>
       </c>
       <c r="I458" t="n">
         <v>100.42</v>
@@ -29318,7 +29318,7 @@
         <v>0.02534417582417582</v>
       </c>
       <c r="S458" t="n">
-        <v>680.4994866909038</v>
+        <v>71.53726156972181</v>
       </c>
     </row>
     <row r="459">
@@ -29348,7 +29348,7 @@
         <v>17.61111111111111</v>
       </c>
       <c r="H459" t="n">
-        <v>50.8</v>
+        <v>10.44444444444444</v>
       </c>
       <c r="I459" t="n">
         <v>98.97999999999999</v>
@@ -29381,7 +29381,7 @@
         <v>0.02489758241758242</v>
       </c>
       <c r="S459" t="n">
-        <v>641.2737516213834</v>
+        <v>62.81110958984628</v>
       </c>
     </row>
     <row r="460">
@@ -29411,7 +29411,7 @@
         <v>18.44444444444445</v>
       </c>
       <c r="H460" t="n">
-        <v>47.3</v>
+        <v>8.499999999999998</v>
       </c>
       <c r="I460" t="n">
         <v>99.75</v>
@@ -29444,7 +29444,7 @@
         <v>0.02445098901098901</v>
       </c>
       <c r="S460" t="n">
-        <v>510.3372043336291</v>
+        <v>52.29884273844797</v>
       </c>
     </row>
     <row r="461">
@@ -29474,7 +29474,7 @@
         <v>14.88888888888889</v>
       </c>
       <c r="H461" t="n">
-        <v>47.5</v>
+        <v>8.611111111111111</v>
       </c>
       <c r="I461" t="n">
         <v>100.55</v>
@@ -29507,7 +29507,7 @@
         <v>0.02400439560439561</v>
       </c>
       <c r="S461" t="n">
-        <v>646.3023964192007</v>
+        <v>66.05752478093176</v>
       </c>
     </row>
     <row r="462">
@@ -29537,7 +29537,7 @@
         <v>12.77777777777778</v>
       </c>
       <c r="H462" t="n">
-        <v>44.5</v>
+        <v>6.944444444444445</v>
       </c>
       <c r="I462" t="n">
         <v>100.44</v>
@@ -29570,7 +29570,7 @@
         <v>0.0235578021978022</v>
       </c>
       <c r="S462" t="n">
-        <v>635.5052895603852</v>
+        <v>67.63477586562571</v>
       </c>
     </row>
     <row r="463">
@@ -29600,7 +29600,7 @@
         <v>17.77777777777778</v>
       </c>
       <c r="H463" t="n">
-        <v>43.8</v>
+        <v>6.555555555555554</v>
       </c>
       <c r="I463" t="n">
         <v>99.44</v>
@@ -29633,7 +29633,7 @@
         <v>0.02311120879120879</v>
       </c>
       <c r="S463" t="n">
-        <v>444.4039099588842</v>
+        <v>47.75661078274981</v>
       </c>
     </row>
     <row r="464">
@@ -29663,7 +29663,7 @@
         <v>18.77777777777778</v>
       </c>
       <c r="H464" t="n">
-        <v>51.6</v>
+        <v>10.88888888888889</v>
       </c>
       <c r="I464" t="n">
         <v>99.67</v>
@@ -29696,7 +29696,7 @@
         <v>0.02266461538461539</v>
       </c>
       <c r="S464" t="n">
-        <v>620.0447804461616</v>
+        <v>60.12556136363649</v>
       </c>
     </row>
     <row r="465">
@@ -29726,7 +29726,7 @@
         <v>10.16666666666667</v>
       </c>
       <c r="H465" t="n">
-        <v>41.8</v>
+        <v>5.444444444444443</v>
       </c>
       <c r="I465" t="n">
         <v>101.47</v>
@@ -29759,7 +29759,7 @@
         <v>0.02221802197802198</v>
       </c>
       <c r="S465" t="n">
-        <v>655.7973920533736</v>
+        <v>72.4880709034654</v>
       </c>
     </row>
     <row r="466">
@@ -29789,7 +29789,7 @@
         <v>12.61111111111111</v>
       </c>
       <c r="H466" t="n">
-        <v>46.4</v>
+        <v>8</v>
       </c>
       <c r="I466" t="n">
         <v>100.78</v>
@@ -29822,7 +29822,7 @@
         <v>0.02177142857142857</v>
       </c>
       <c r="S466" t="n">
-        <v>708.5784785130295</v>
+        <v>73.49028214204363</v>
       </c>
     </row>
     <row r="467">
@@ -29852,7 +29852,7 @@
         <v>13.05555555555556</v>
       </c>
       <c r="H467" t="n">
-        <v>33.3</v>
+        <v>0.7222222222222207</v>
       </c>
       <c r="I467" t="n">
         <v>100.99</v>
@@ -29885,7 +29885,7 @@
         <v>0.02132483516483517</v>
       </c>
       <c r="S467" t="n">
-        <v>340.9529560842662</v>
+        <v>42.8727552291134</v>
       </c>
     </row>
     <row r="468">
@@ -29915,7 +29915,7 @@
         <v>11.94444444444444</v>
       </c>
       <c r="H468" t="n">
-        <v>29.6</v>
+        <v>-1.333333333333333</v>
       </c>
       <c r="I468" t="n">
         <v>100.58</v>
@@ -29948,7 +29948,7 @@
         <v>0.02087824175824176</v>
       </c>
       <c r="S468" t="n">
-        <v>297.1084198551709</v>
+        <v>39.71155279188455</v>
       </c>
     </row>
     <row r="469">
@@ -29978,7 +29978,7 @@
         <v>14</v>
       </c>
       <c r="H469" t="n">
-        <v>25.6</v>
+        <v>-3.555555555555555</v>
       </c>
       <c r="I469" t="n">
         <v>100.33</v>
@@ -30011,7 +30011,7 @@
         <v>0.02043164835164835</v>
       </c>
       <c r="S469" t="n">
-        <v>205.5012681162917</v>
+        <v>29.44819943046156</v>
       </c>
     </row>
     <row r="470">
@@ -30041,7 +30041,7 @@
         <v>12.77777777777778</v>
       </c>
       <c r="H470" t="n">
-        <v>29.4</v>
+        <v>-1.444444444444445</v>
       </c>
       <c r="I470" t="n">
         <v>100.21</v>
@@ -30074,7 +30074,7 @@
         <v>0.01998505494505495</v>
       </c>
       <c r="S470" t="n">
-        <v>278.044277100432</v>
+        <v>37.28965284208947</v>
       </c>
     </row>
     <row r="471">
@@ -30104,7 +30104,7 @@
         <v>17.27777777777778</v>
       </c>
       <c r="H471" t="n">
-        <v>33.8</v>
+        <v>0.9999999999999984</v>
       </c>
       <c r="I471" t="n">
         <v>99.47999999999999</v>
@@ -30137,7 +30137,7 @@
         <v>0.01953846153846154</v>
       </c>
       <c r="S471" t="n">
-        <v>267.2643133676052</v>
+        <v>33.338668052412</v>
       </c>
     </row>
     <row r="472">
@@ -30167,7 +30167,7 @@
         <v>11.44444444444445</v>
       </c>
       <c r="H472" t="n">
-        <v>36.9</v>
+        <v>2.722222222222221</v>
       </c>
       <c r="I472" t="n">
         <v>101.03</v>
@@ -30200,7 +30200,7 @@
         <v>0.01909186813186813</v>
       </c>
       <c r="S472" t="n">
-        <v>462.800633259083</v>
+        <v>54.99946451577551</v>
       </c>
     </row>
     <row r="473">
@@ -30230,7 +30230,7 @@
         <v>13.38888888888889</v>
       </c>
       <c r="H473" t="n">
-        <v>17.4</v>
+        <v>-8.111111111111112</v>
       </c>
       <c r="I473" t="n">
         <v>100.62</v>
@@ -30263,7 +30263,7 @@
         <v>0.01864527472527473</v>
       </c>
       <c r="S473" t="n">
-        <v>129.3694552997125</v>
+        <v>21.6572845733872</v>
       </c>
     </row>
     <row r="474">
@@ -30293,7 +30293,7 @@
         <v>16.72222222222222</v>
       </c>
       <c r="H474" t="n">
-        <v>26.1</v>
+        <v>-3.277777777777777</v>
       </c>
       <c r="I474" t="n">
         <v>99.995</v>
@@ -30326,7 +30326,7 @@
         <v>0.01819868131868132</v>
       </c>
       <c r="S474" t="n">
-        <v>177.7373717047689</v>
+        <v>25.24352286622881</v>
       </c>
     </row>
     <row r="475">
@@ -30356,7 +30356,7 @@
         <v>17.5</v>
       </c>
       <c r="H475" t="n">
-        <v>37.4</v>
+        <v>3</v>
       </c>
       <c r="I475" t="n">
         <v>99.37</v>
@@ -30389,7 +30389,7 @@
         <v>0.01775208791208791</v>
       </c>
       <c r="S475" t="n">
-        <v>321.5153027313945</v>
+        <v>37.91894218318668</v>
       </c>
     </row>
     <row r="476">
@@ -30419,7 +30419,7 @@
         <v>13</v>
       </c>
       <c r="H476" t="n">
-        <v>31.7</v>
+        <v>-0.1666666666666671</v>
       </c>
       <c r="I476" t="n">
         <v>100.48</v>
@@ -30452,7 +30452,7 @@
         <v>0.01730549450549451</v>
       </c>
       <c r="S476" t="n">
-        <v>312.6247028107779</v>
+        <v>40.34679214073923</v>
       </c>
     </row>
     <row r="477">
@@ -30482,7 +30482,7 @@
         <v>11.27777777777778</v>
       </c>
       <c r="H477" t="n">
-        <v>31.7</v>
+        <v>-0.1666666666666671</v>
       </c>
       <c r="I477" t="n">
         <v>100.85</v>
@@ -30515,7 +30515,7 @@
         <v>0.01685890109890111</v>
       </c>
       <c r="S477" t="n">
-        <v>350.1612310222096</v>
+        <v>45.19119019314871</v>
       </c>
     </row>
     <row r="478">
@@ -30545,7 +30545,7 @@
         <v>12.72222222222222</v>
       </c>
       <c r="H478" t="n">
-        <v>16.8</v>
+        <v>-8.444444444444445</v>
       </c>
       <c r="I478" t="n">
         <v>100.58</v>
@@ -30578,7 +30578,7 @@
         <v>0.0164123076923077</v>
       </c>
       <c r="S478" t="n">
-        <v>130.0915245313402</v>
+        <v>22.04310815636742</v>
       </c>
     </row>
     <row r="479">
@@ -30608,7 +30608,7 @@
         <v>11.11111111111111</v>
       </c>
       <c r="H479" t="n">
-        <v>18.9</v>
+        <v>-7.277777777777779</v>
       </c>
       <c r="I479" t="n">
         <v>100.52</v>
@@ -30641,7 +30641,7 @@
         <v>0.01596571428571429</v>
       </c>
       <c r="S479" t="n">
-        <v>165.1384820949923</v>
+        <v>26.83384546454399</v>
       </c>
     </row>
     <row r="480">
@@ -30671,7 +30671,7 @@
         <v>8</v>
       </c>
       <c r="H480" t="n">
-        <v>28.3</v>
+        <v>-2.055555555555555</v>
       </c>
       <c r="I480" t="n">
         <v>101.51</v>
@@ -30704,7 +30704,7 @@
         <v>0.01551912087912088</v>
       </c>
       <c r="S480" t="n">
-        <v>358.8537606634651</v>
+        <v>49.04154072741875</v>
       </c>
     </row>
     <row r="481">
@@ -30734,7 +30734,7 @@
         <v>13.33333333333333</v>
       </c>
       <c r="H481" t="n">
-        <v>26</v>
+        <v>-3.333333333333333</v>
       </c>
       <c r="I481" t="n">
         <v>101.01</v>
@@ -30767,7 +30767,7 @@
         <v>0.01507252747252748</v>
       </c>
       <c r="S481" t="n">
-        <v>219.7644311109625</v>
+        <v>31.26806902456496</v>
       </c>
     </row>
     <row r="482">
@@ -30797,7 +30797,7 @@
         <v>9.222222222222223</v>
       </c>
       <c r="H482" t="n">
-        <v>21.6</v>
+        <v>-5.777777777777778</v>
       </c>
       <c r="I482" t="n">
         <v>100.91</v>
@@ -30830,7 +30830,7 @@
         <v>0.01462593406593407</v>
       </c>
       <c r="S482" t="n">
-        <v>221.4270386517599</v>
+        <v>34.15468979974703</v>
       </c>
     </row>
     <row r="483">
@@ -30860,7 +30860,7 @@
         <v>8.666666666666668</v>
       </c>
       <c r="H483" t="n">
-        <v>24.4</v>
+        <v>-4.222222222222223</v>
       </c>
       <c r="I483" t="n">
         <v>101.01</v>
@@ -30893,7 +30893,7 @@
         <v>0.01417934065934066</v>
       </c>
       <c r="S483" t="n">
-        <v>272.3900718653684</v>
+        <v>39.88794022684552</v>
       </c>
     </row>
     <row r="484">
@@ -30923,7 +30923,7 @@
         <v>11</v>
       </c>
       <c r="H484" t="n">
-        <v>25.9</v>
+        <v>-3.38888888888889</v>
       </c>
       <c r="I484" t="n">
         <v>100.73</v>
@@ -30956,7 +30956,7 @@
         <v>0.01373274725274726</v>
       </c>
       <c r="S484" t="n">
-        <v>254.7349436988467</v>
+        <v>36.30828278487144</v>
       </c>
     </row>
     <row r="485">
@@ -30986,7 +30986,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="H485" t="n">
-        <v>31.5</v>
+        <v>-0.2777777777777778</v>
       </c>
       <c r="I485" t="n">
         <v>102.38</v>
@@ -31019,7 +31019,7 @@
         <v>0.01328615384615385</v>
       </c>
       <c r="S485" t="n">
-        <v>671.1992260502527</v>
+        <v>86.90950219034229</v>
       </c>
     </row>
     <row r="486">
@@ -31049,7 +31049,7 @@
         <v>5.777777777777778</v>
       </c>
       <c r="H486" t="n">
-        <v>23.8</v>
+        <v>-4.555555555555555</v>
       </c>
       <c r="I486" t="n">
         <v>101.91</v>
@@ -31082,7 +31082,7 @@
         <v>0.01283956043956044</v>
       </c>
       <c r="S486" t="n">
-        <v>320.1932039949446</v>
+        <v>47.40507279492724</v>
       </c>
     </row>
     <row r="487">
@@ -31112,7 +31112,7 @@
         <v>11.11111111111111</v>
       </c>
       <c r="H487" t="n">
-        <v>31.8</v>
+        <v>-0.1111111111111107</v>
       </c>
       <c r="I487" t="n">
         <v>100.91</v>
@@ -31145,7 +31145,7 @@
         <v>0.01239296703296704</v>
       </c>
       <c r="S487" t="n">
-        <v>356.0700516028165</v>
+        <v>45.87833073474687</v>
       </c>
     </row>
     <row r="488">
@@ -31175,7 +31175,7 @@
         <v>1.055555555555555</v>
       </c>
       <c r="H488" t="n">
-        <v>26.3</v>
+        <v>-3.166666666666667</v>
       </c>
       <c r="I488" t="n">
         <v>103.28</v>
@@ -31208,7 +31208,7 @@
         <v>0.01194637362637363</v>
       </c>
       <c r="S488" t="n">
-        <v>518.7216238759246</v>
+        <v>73.41146420922446</v>
       </c>
     </row>
     <row r="489">
@@ -31238,7 +31238,7 @@
         <v>0.1666666666666651</v>
       </c>
       <c r="H489" t="n">
-        <v>24.6</v>
+        <v>-4.111111111111111</v>
       </c>
       <c r="I489" t="n">
         <v>103.08</v>
@@ -31271,7 +31271,7 @@
         <v>0.01149978021978022</v>
       </c>
       <c r="S489" t="n">
-        <v>499.9093516177192</v>
+        <v>72.93953171845749</v>
       </c>
     </row>
     <row r="490">
@@ -31301,7 +31301,7 @@
         <v>1.555555555555554</v>
       </c>
       <c r="H490" t="n">
-        <v>16.5</v>
+        <v>-8.611111111111111</v>
       </c>
       <c r="I490" t="n">
         <v>102.32</v>
@@ -31334,7 +31334,7 @@
         <v>0.01105318681318682</v>
       </c>
       <c r="S490" t="n">
-        <v>274.3406352658995</v>
+        <v>46.76881298323094</v>
       </c>
     </row>
     <row r="491">
@@ -31364,7 +31364,7 @@
         <v>4.000000000000002</v>
       </c>
       <c r="H491" t="n">
-        <v>11.3</v>
+        <v>-11.5</v>
       </c>
       <c r="I491" t="n">
         <v>101.66</v>
@@ -31397,7 +31397,7 @@
         <v>0.01060659340659341</v>
       </c>
       <c r="S491" t="n">
-        <v>164.5529784789918</v>
+        <v>31.30290196304535</v>
       </c>
     </row>
     <row r="492">
@@ -31427,7 +31427,7 @@
         <v>6.611111111111111</v>
       </c>
       <c r="H492" t="n">
-        <v>20</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="I492" t="n">
         <v>101.43</v>
@@ -31460,7 +31460,7 @@
         <v>0.01016</v>
       </c>
       <c r="S492" t="n">
-        <v>239.6742975272825</v>
+        <v>38.11882435107598</v>
       </c>
     </row>
     <row r="493">
@@ -31490,7 +31490,7 @@
         <v>0.1111111111111127</v>
       </c>
       <c r="H493" t="n">
-        <v>5.1</v>
+        <v>-14.94444444444444</v>
       </c>
       <c r="I493" t="n">
         <v>103.16</v>
@@ -31523,7 +31523,7 @@
         <v>0.010795</v>
       </c>
       <c r="S493" t="n">
-        <v>142.5380357562907</v>
+        <v>31.24101141051682</v>
       </c>
     </row>
     <row r="494">
@@ -31553,7 +31553,7 @@
         <v>4.61111111111111</v>
       </c>
       <c r="H494" t="n">
-        <v>15.5</v>
+        <v>-9.166666666666668</v>
       </c>
       <c r="I494" t="n">
         <v>102.12</v>
@@ -31586,7 +31586,7 @@
         <v>0.01143</v>
       </c>
       <c r="S494" t="n">
-        <v>207.3165167712324</v>
+        <v>36.07353280958499</v>
       </c>
     </row>
     <row r="495">
@@ -31616,7 +31616,7 @@
         <v>3.277777777777777</v>
       </c>
       <c r="H495" t="n">
-        <v>12.4</v>
+        <v>-10.88888888888889</v>
       </c>
       <c r="I495" t="n">
         <v>102.13</v>
@@ -31649,7 +31649,7 @@
         <v>0.012065</v>
       </c>
       <c r="S495" t="n">
-        <v>186.1768335037339</v>
+        <v>34.58124883457094</v>
       </c>
     </row>
     <row r="496">
@@ -31679,7 +31679,7 @@
         <v>1.166666666666667</v>
       </c>
       <c r="H496" t="n">
-        <v>14.6</v>
+        <v>-9.666666666666666</v>
       </c>
       <c r="I496" t="n">
         <v>102.26</v>
@@ -31712,7 +31712,7 @@
         <v>0.0127</v>
       </c>
       <c r="S496" t="n">
-        <v>249.7487732646413</v>
+        <v>44.27566240411529</v>
       </c>
     </row>
     <row r="497">
@@ -31742,7 +31742,7 @@
         <v>4.222222222222223</v>
       </c>
       <c r="H497" t="n">
-        <v>10.7</v>
+        <v>-11.83333333333333</v>
       </c>
       <c r="I497" t="n">
         <v>102.48</v>
@@ -31775,7 +31775,7 @@
         <v>0.013335</v>
       </c>
       <c r="S497" t="n">
-        <v>155.6764800039405</v>
+        <v>30.00701460795802</v>
       </c>
     </row>
     <row r="498">
@@ -31805,7 +31805,7 @@
         <v>4.777777777777779</v>
       </c>
       <c r="H498" t="n">
-        <v>11.5</v>
+        <v>-11.38888888888889</v>
       </c>
       <c r="I498" t="n">
         <v>102.4</v>
@@ -31838,7 +31838,7 @@
         <v>0.01397</v>
       </c>
       <c r="S498" t="n">
-        <v>157.9086556006971</v>
+        <v>29.90807884603311</v>
       </c>
     </row>
     <row r="499">
@@ -31868,7 +31868,7 @@
         <v>5.999999999999999</v>
       </c>
       <c r="H499" t="n">
-        <v>7.1</v>
+        <v>-13.83333333333333</v>
       </c>
       <c r="I499" t="n">
         <v>101.6</v>
@@ -31901,7 +31901,7 @@
         <v>0.014605</v>
       </c>
       <c r="S499" t="n">
-        <v>107.8635306141601</v>
+        <v>22.55455380419473</v>
       </c>
     </row>
     <row r="500">
@@ -31931,7 +31931,7 @@
         <v>4.055555555555554</v>
       </c>
       <c r="H500" t="n">
-        <v>13.4</v>
+        <v>-10.33333333333333</v>
       </c>
       <c r="I500" t="n">
         <v>101.89</v>
@@ -31964,7 +31964,7 @@
         <v>0.01524</v>
       </c>
       <c r="S500" t="n">
-        <v>188.1739647747266</v>
+        <v>34.21298178940138</v>
       </c>
     </row>
     <row r="501">
@@ -31994,7 +31994,7 @@
         <v>-0.4999999999999992</v>
       </c>
       <c r="H501" t="n">
-        <v>18.5</v>
+        <v>-7.5</v>
       </c>
       <c r="I501" t="n">
         <v>102.05</v>
@@ -32027,7 +32027,7 @@
         <v>0.015875</v>
       </c>
       <c r="S501" t="n">
-        <v>361.1231552293224</v>
+        <v>59.14438161341023</v>
       </c>
     </row>
     <row r="502">
@@ -32057,7 +32057,7 @@
         <v>-1.222222222222222</v>
       </c>
       <c r="H502" t="n">
-        <v>8.9</v>
+        <v>-12.83333333333333</v>
       </c>
       <c r="I502" t="n">
         <v>102.27</v>
@@ -32090,7 +32090,7 @@
         <v>0.01651</v>
       </c>
       <c r="S502" t="n">
-        <v>203.8492631208092</v>
+        <v>40.90388438808257</v>
       </c>
     </row>
     <row r="503">
@@ -32120,7 +32120,7 @@
         <v>-2.277777777777779</v>
       </c>
       <c r="H503" t="n">
-        <v>2.3</v>
+        <v>-16.5</v>
       </c>
       <c r="I503" t="n">
         <v>103.11</v>
@@ -32153,7 +32153,7 @@
         <v>0.017145</v>
       </c>
       <c r="S503" t="n">
-        <v>139.402245775453</v>
+        <v>32.70861854779648</v>
       </c>
     </row>
     <row r="504">
@@ -32183,7 +32183,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H504" t="n">
-        <v>1.7</v>
+        <v>-16.83333333333334</v>
       </c>
       <c r="I504" t="n">
         <v>102.41</v>
@@ -32216,7 +32216,7 @@
         <v>0.01778</v>
       </c>
       <c r="S504" t="n">
-        <v>108.5765289636839</v>
+        <v>25.85980288359983</v>
       </c>
     </row>
     <row r="505">
@@ -32246,7 +32246,7 @@
         <v>-1.61111111111111</v>
       </c>
       <c r="H505" t="n">
-        <v>1.9</v>
+        <v>-16.72222222222222</v>
       </c>
       <c r="I505" t="n">
         <v>102.41</v>
@@ -32279,7 +32279,7 @@
         <v>0.018415</v>
       </c>
       <c r="S505" t="n">
-        <v>128.98179296797</v>
+        <v>30.5665135032618</v>
       </c>
     </row>
     <row r="506">
@@ -32309,7 +32309,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="H506" t="n">
-        <v>1.2</v>
+        <v>-17.11111111111111</v>
       </c>
       <c r="I506" t="n">
         <v>102.08</v>
@@ -32342,7 +32342,7 @@
         <v>0.01905</v>
       </c>
       <c r="S506" t="n">
-        <v>96.70845797772333</v>
+        <v>23.32438439744976</v>
       </c>
     </row>
     <row r="507">
@@ -32372,7 +32372,7 @@
         <v>-3.777777777777778</v>
       </c>
       <c r="H507" t="n">
-        <v>7.4</v>
+        <v>-13.66666666666667</v>
       </c>
       <c r="I507" t="n">
         <v>103.33</v>
@@ -32405,7 +32405,7 @@
         <v>0.019685</v>
       </c>
       <c r="S507" t="n">
-        <v>222.4688756030309</v>
+        <v>46.19693511484076</v>
       </c>
     </row>
     <row r="508">
@@ -32435,7 +32435,7 @@
         <v>-9.111111111111111</v>
       </c>
       <c r="H508" t="n">
-        <v>-4.7</v>
+        <v>-20.38888888888889</v>
       </c>
       <c r="I508" t="n">
         <v>104.96</v>
@@ -32468,7 +32468,7 @@
         <v>0.02032</v>
       </c>
       <c r="S508" t="n">
-        <v>140.3666587225868</v>
+        <v>39.53834361934114</v>
       </c>
     </row>
     <row r="509">
@@ -32498,7 +32498,7 @@
         <v>-4.611111111111112</v>
       </c>
       <c r="H509" t="n">
-        <v>-3</v>
+        <v>-19.44444444444445</v>
       </c>
       <c r="I509" t="n">
         <v>103.98</v>
@@ -32531,7 +32531,7 @@
         <v>0.020955</v>
       </c>
       <c r="S509" t="n">
-        <v>112.8237062298839</v>
+        <v>30.34914780498345</v>
       </c>
     </row>
     <row r="510">
@@ -32561,7 +32561,7 @@
         <v>-0.7222222222222227</v>
       </c>
       <c r="H510" t="n">
-        <v>-4.9</v>
+        <v>-20.5</v>
       </c>
       <c r="I510" t="n">
         <v>102.37</v>
@@ -32594,7 +32594,7 @@
         <v>0.02159</v>
       </c>
       <c r="S510" t="n">
-        <v>73.32166324751819</v>
+        <v>20.76695883380644</v>
       </c>
     </row>
     <row r="511">
@@ -32624,7 +32624,7 @@
         <v>-2.222222222222222</v>
       </c>
       <c r="H511" t="n">
-        <v>-0.8</v>
+        <v>-18.22222222222222</v>
       </c>
       <c r="I511" t="n">
         <v>102.46</v>
@@ -32657,7 +32657,7 @@
         <v>0.022225</v>
       </c>
       <c r="S511" t="n">
-        <v>111.0155282802877</v>
+        <v>28.18042344840578</v>
       </c>
     </row>
     <row r="512">
@@ -32687,7 +32687,7 @@
         <v>2.11111111111111</v>
       </c>
       <c r="H512" t="n">
-        <v>-9.9</v>
+        <v>-23.27777777777778</v>
       </c>
       <c r="I512" t="n">
         <v>101.83</v>
@@ -32720,7 +32720,7 @@
         <v>0.02286</v>
       </c>
       <c r="S512" t="n">
-        <v>40.62702559496518</v>
+        <v>13.27056389134788</v>
       </c>
     </row>
     <row r="513">
@@ -32750,7 +32750,7 @@
         <v>-1.666666666666667</v>
       </c>
       <c r="H513" t="n">
-        <v>-6</v>
+        <v>-21.11111111111111</v>
       </c>
       <c r="I513" t="n">
         <v>102.49</v>
@@ -32783,7 +32783,7 @@
         <v>0.023495</v>
       </c>
       <c r="S513" t="n">
-        <v>72.28005813800831</v>
+        <v>21.10597791862229</v>
       </c>
     </row>
     <row r="514">
@@ -32813,7 +32813,7 @@
         <v>-4.277777777777778</v>
       </c>
       <c r="H514" t="n">
-        <v>-4</v>
+        <v>-20</v>
       </c>
       <c r="I514" t="n">
         <v>103.03</v>
@@ -32846,7 +32846,7 @@
         <v>0.02413</v>
       </c>
       <c r="S514" t="n">
-        <v>102.1079663015014</v>
+        <v>28.2173635019952</v>
       </c>
     </row>
     <row r="515">
@@ -32876,7 +32876,7 @@
         <v>-1.61111111111111</v>
       </c>
       <c r="H515" t="n">
-        <v>-0.3</v>
+        <v>-17.94444444444444</v>
       </c>
       <c r="I515" t="n">
         <v>102.75</v>
@@ -32909,7 +32909,7 @@
         <v>0.024765</v>
       </c>
       <c r="S515" t="n">
-        <v>110.064338324063</v>
+        <v>27.58014014664833</v>
       </c>
     </row>
     <row r="516">
@@ -32939,7 +32939,7 @@
         <v>-3.611111111111111</v>
       </c>
       <c r="H516" t="n">
-        <v>0.3</v>
+        <v>-17.61111111111111</v>
       </c>
       <c r="I516" t="n">
         <v>102.65</v>
@@ -32972,7 +32972,7 @@
         <v>0.0254</v>
       </c>
       <c r="S516" t="n">
-        <v>133.3403147607943</v>
+        <v>32.90236577325176</v>
       </c>
     </row>
     <row r="517">
@@ -33002,7 +33002,7 @@
         <v>-5.722222222222223</v>
       </c>
       <c r="H517" t="n">
-        <v>0.8</v>
+        <v>-17.33333333333333</v>
       </c>
       <c r="I517" t="n">
         <v>103.3</v>
@@ -33035,7 +33035,7 @@
         <v>0.026035</v>
       </c>
       <c r="S517" t="n">
-        <v>162.1090813239325</v>
+        <v>39.4953766236687</v>
       </c>
     </row>
     <row r="518">
@@ -33065,7 +33065,7 @@
         <v>-7.888888888888889</v>
       </c>
       <c r="H518" t="n">
-        <v>-3.9</v>
+        <v>-19.94444444444444</v>
       </c>
       <c r="I518" t="n">
         <v>104.19</v>
@@ -33098,7 +33098,7 @@
         <v>0.02667</v>
       </c>
       <c r="S518" t="n">
-        <v>135.5298740881874</v>
+        <v>37.35194533536478</v>
       </c>
     </row>
     <row r="519">
@@ -33128,7 +33128,7 @@
         <v>-4.833333333333333</v>
       </c>
       <c r="H519" t="n">
-        <v>-11.8</v>
+        <v>-24.33333333333333</v>
       </c>
       <c r="I519" t="n">
         <v>103.11</v>
@@ -33161,7 +33161,7 @@
         <v>0.027305</v>
       </c>
       <c r="S519" t="n">
-        <v>58.15523769081226</v>
+        <v>20.1090921905774</v>
       </c>
     </row>
     <row r="520">
@@ -33191,7 +33191,7 @@
         <v>-3.277777777777777</v>
       </c>
       <c r="H520" t="n">
-        <v>-17.7</v>
+        <v>-27.61111111111111</v>
       </c>
       <c r="I520" t="n">
         <v>102.61</v>
@@ -33224,7 +33224,7 @@
         <v>0.02794</v>
       </c>
       <c r="S520" t="n">
-        <v>31.85384780983102</v>
+        <v>13.28145292160565</v>
       </c>
     </row>
     <row r="521">
@@ -33254,7 +33254,7 @@
         <v>-1.111111111111111</v>
       </c>
       <c r="H521" t="n">
-        <v>-12.4</v>
+        <v>-24.66666666666667</v>
       </c>
       <c r="I521" t="n">
         <v>101.77</v>
@@ -33287,7 +33287,7 @@
         <v>0.028575</v>
       </c>
       <c r="S521" t="n">
-        <v>42.01641833705067</v>
+        <v>14.7970139592115</v>
       </c>
     </row>
     <row r="522">
@@ -33317,7 +33317,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H522" t="n">
-        <v>-7.3</v>
+        <v>-21.83333333333333</v>
       </c>
       <c r="I522" t="n">
         <v>101.2</v>
@@ -33350,7 +33350,7 @@
         <v>0.02921</v>
       </c>
       <c r="S522" t="n">
-        <v>55.636411741331</v>
+        <v>16.85282894105499</v>
       </c>
     </row>
     <row r="523">
@@ -33380,7 +33380,7 @@
         <v>-4.444444444444445</v>
       </c>
       <c r="H523" t="n">
-        <v>1.2</v>
+        <v>-17.11111111111111</v>
       </c>
       <c r="I523" t="n">
         <v>102.27</v>
@@ -33413,7 +33413,7 @@
         <v>0.029845</v>
       </c>
       <c r="S523" t="n">
-        <v>151.4625227976783</v>
+        <v>36.53010478519176</v>
       </c>
     </row>
     <row r="524">
@@ -33443,7 +33443,7 @@
         <v>-6.5</v>
       </c>
       <c r="H524" t="n">
-        <v>4.9</v>
+        <v>-15.05555555555556</v>
       </c>
       <c r="I524" t="n">
         <v>101.42</v>
@@ -33476,7 +33476,7 @@
         <v>0.03048</v>
       </c>
       <c r="S524" t="n">
-        <v>230.0630130274721</v>
+        <v>50.66599286213432</v>
       </c>
     </row>
     <row r="525">
@@ -33506,7 +33506,7 @@
         <v>-9.222222222222223</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
+        <v>-17.22222222222222</v>
       </c>
       <c r="I525" t="n">
         <v>102.53</v>
@@ -33539,7 +33539,7 @@
         <v>0.06095999999999999</v>
       </c>
       <c r="S525" t="n">
-        <v>215.5106730616892</v>
+        <v>52.24057926722622</v>
       </c>
     </row>
     <row r="526">
@@ -33569,7 +33569,7 @@
         <v>-17.88888888888889</v>
       </c>
       <c r="H526" t="n">
-        <v>-14.1</v>
+        <v>-25.61111111111111</v>
       </c>
       <c r="I526" t="n">
         <v>105.1</v>
@@ -33602,7 +33602,7 @@
         <v>0.0508</v>
       </c>
       <c r="S526" t="n">
-        <v>137.024234890835</v>
+        <v>50.86985481548115</v>
       </c>
     </row>
     <row r="527">
@@ -33632,7 +33632,7 @@
         <v>-11.77777777777778</v>
       </c>
       <c r="H527" t="n">
-        <v>-3.8</v>
+        <v>-19.88888888888889</v>
       </c>
       <c r="I527" t="n">
         <v>103.78</v>
@@ -33665,7 +33665,7 @@
         <v>0.04064</v>
       </c>
       <c r="S527" t="n">
-        <v>185.5196097429591</v>
+        <v>50.99071257564444</v>
       </c>
     </row>
     <row r="528">
@@ -33695,7 +33695,7 @@
         <v>-7.111111111111112</v>
       </c>
       <c r="H528" t="n">
-        <v>-5.6</v>
+        <v>-20.88888888888889</v>
       </c>
       <c r="I528" t="n">
         <v>103.75</v>
@@ -33728,7 +33728,7 @@
         <v>0.02032</v>
       </c>
       <c r="S528" t="n">
-        <v>112.2562475048517</v>
+        <v>32.41577832610801</v>
       </c>
     </row>
     <row r="529">
@@ -33758,7 +33758,7 @@
         <v>-8</v>
       </c>
       <c r="H529" t="n">
-        <v>-6.4</v>
+        <v>-21.33333333333333</v>
       </c>
       <c r="I529" t="n">
         <v>104.33</v>
@@ -33791,7 +33791,7 @@
         <v>0.01016</v>
       </c>
       <c r="S529" t="n">
-        <v>113.1214088378558</v>
+        <v>33.40417115320341</v>
       </c>
     </row>
     <row r="530">
@@ -33821,7 +33821,7 @@
         <v>-6.222222222222222</v>
       </c>
       <c r="H530" t="n">
-        <v>-6.3</v>
+        <v>-21.27777777777778</v>
       </c>
       <c r="I530" t="n">
         <v>103.84</v>
@@ -33854,7 +33854,7 @@
         <v>0.01016</v>
       </c>
       <c r="S530" t="n">
-        <v>99.40717188283692</v>
+        <v>29.27209224413492</v>
       </c>
     </row>
     <row r="531">
@@ -33884,7 +33884,7 @@
         <v>-2.777777777777778</v>
       </c>
       <c r="H531" t="n">
-        <v>-5.6</v>
+        <v>-20.88888888888889</v>
       </c>
       <c r="I531" t="n">
         <v>103.06</v>
@@ -33917,7 +33917,7 @@
         <v>0.01016</v>
       </c>
       <c r="S531" t="n">
-        <v>80.89330107627232</v>
+        <v>23.35922831949487</v>
       </c>
     </row>
     <row r="532">
@@ -33947,7 +33947,7 @@
         <v>-5.166666666666667</v>
       </c>
       <c r="H532" t="n">
-        <v>-8.800000000000001</v>
+        <v>-22.66666666666667</v>
       </c>
       <c r="I532" t="n">
         <v>103.67</v>
@@ -33980,7 +33980,7 @@
         <v>0.01016</v>
       </c>
       <c r="S532" t="n">
-        <v>75.61806725937628</v>
+        <v>23.91607096670414</v>
       </c>
     </row>
     <row r="533">
@@ -34010,7 +34010,7 @@
         <v>-2.944444444444445</v>
       </c>
       <c r="H533" t="n">
-        <v>-2.8</v>
+        <v>-19.33333333333333</v>
       </c>
       <c r="I533" t="n">
         <v>102.4</v>
@@ -34043,7 +34043,7 @@
         <v>0.01016</v>
       </c>
       <c r="S533" t="n">
-        <v>101.079139849255</v>
+        <v>27.04491115719262</v>
       </c>
     </row>
     <row r="534">
@@ -34073,7 +34073,7 @@
         <v>-6.166666666666668</v>
       </c>
       <c r="H534" t="n">
-        <v>-5.1</v>
+        <v>-20.61111111111111</v>
       </c>
       <c r="I534" t="n">
         <v>103.7</v>
@@ -34106,7 +34106,7 @@
         <v>0.01016</v>
       </c>
       <c r="S534" t="n">
-        <v>108.4495216704951</v>
+        <v>30.88596422735398</v>
       </c>
     </row>
     <row r="535">
@@ -34136,7 +34136,7 @@
         <v>-4.277777777777778</v>
       </c>
       <c r="H535" t="n">
-        <v>-10.6</v>
+        <v>-23.66666666666667</v>
       </c>
       <c r="I535" t="n">
         <v>102.35</v>
@@ -34169,7 +34169,7 @@
         <v>0.01016</v>
       </c>
       <c r="S535" t="n">
-        <v>61.37049408474702</v>
+        <v>20.46755179430562</v>
       </c>
     </row>
   </sheetData>
